--- a/data/TTM.xlsx
+++ b/data/TTM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -17,8 +17,8 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="2">
-    <numFmt numFmtId="164" formatCode="yyyy-mm-dd"/>
-    <numFmt numFmtId="165" formatCode="YYYY-MM-DD"/>
+    <numFmt numFmtId="164" formatCode="yyyy-mm-dd h:mm:ss"/>
+    <numFmt numFmtId="165" formatCode="YYYY-MM-DD HH:MM:SS"/>
   </numFmts>
   <fonts count="2">
     <font>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4314"/>
+  <dimension ref="A1:G4147"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -89528,7 +89528,7 @@
         <v>12.03</v>
       </c>
       <c r="G3873" t="n">
-        <v>1800779</v>
+        <v>1800800</v>
       </c>
     </row>
     <row r="3874">
@@ -89542,7 +89542,7 @@
         <v>11.91</v>
       </c>
       <c r="D3874" t="n">
-        <v>11.785</v>
+        <v>11.79</v>
       </c>
       <c r="E3874" t="n">
         <v>11.83</v>
@@ -89551,7 +89551,7 @@
         <v>11.83</v>
       </c>
       <c r="G3874" t="n">
-        <v>961202</v>
+        <v>961200</v>
       </c>
     </row>
     <row r="3875">
@@ -89574,7 +89574,7 @@
         <v>11.71</v>
       </c>
       <c r="G3875" t="n">
-        <v>717673</v>
+        <v>717700</v>
       </c>
     </row>
     <row r="3876">
@@ -89597,7 +89597,7 @@
         <v>11.21</v>
       </c>
       <c r="G3876" t="n">
-        <v>2538237</v>
+        <v>2538200</v>
       </c>
     </row>
     <row r="3877">
@@ -89608,7 +89608,7 @@
         <v>11.03</v>
       </c>
       <c r="C3877" t="n">
-        <v>11.225</v>
+        <v>11.23</v>
       </c>
       <c r="D3877" t="n">
         <v>11.01</v>
@@ -89620,7 +89620,7 @@
         <v>11.12</v>
       </c>
       <c r="G3877" t="n">
-        <v>981336</v>
+        <v>981300</v>
       </c>
     </row>
     <row r="3878">
@@ -89643,7 +89643,7 @@
         <v>11.05</v>
       </c>
       <c r="G3878" t="n">
-        <v>967036</v>
+        <v>967000</v>
       </c>
     </row>
     <row r="3879">
@@ -89666,7 +89666,7 @@
         <v>10.88</v>
       </c>
       <c r="G3879" t="n">
-        <v>1468702</v>
+        <v>1468700</v>
       </c>
     </row>
     <row r="3880">
@@ -89689,7 +89689,7 @@
         <v>10.33</v>
       </c>
       <c r="G3880" t="n">
-        <v>1810468</v>
+        <v>1811400</v>
       </c>
     </row>
     <row r="3881">
@@ -89712,7 +89712,7 @@
         <v>10.06</v>
       </c>
       <c r="G3881" t="n">
-        <v>2832370</v>
+        <v>2832400</v>
       </c>
     </row>
     <row r="3882">
@@ -89735,7 +89735,7 @@
         <v>10.06</v>
       </c>
       <c r="G3882" t="n">
-        <v>2023664</v>
+        <v>2023700</v>
       </c>
     </row>
     <row r="3883">
@@ -89749,7 +89749,7 @@
         <v>9.99</v>
       </c>
       <c r="D3883" t="n">
-        <v>9.605</v>
+        <v>9.609999999999999</v>
       </c>
       <c r="E3883" t="n">
         <v>9.720000000000001</v>
@@ -89758,7 +89758,7 @@
         <v>9.720000000000001</v>
       </c>
       <c r="G3883" t="n">
-        <v>3253373</v>
+        <v>3254600</v>
       </c>
     </row>
     <row r="3884">
@@ -89766,13 +89766,13 @@
         <v>43889</v>
       </c>
       <c r="B3884" t="n">
-        <v>11.54</v>
+        <v>8.83</v>
       </c>
       <c r="C3884" t="n">
-        <v>12.9</v>
+        <v>9.19</v>
       </c>
       <c r="D3884" t="n">
-        <v>8.708</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E3884" t="n">
         <v>9.16</v>
@@ -89781,7 +89781,7 @@
         <v>9.16</v>
       </c>
       <c r="G3884" t="n">
-        <v>35283157</v>
+        <v>2880100</v>
       </c>
     </row>
     <row r="3885">
@@ -89804,7 +89804,7 @@
         <v>8.960000000000001</v>
       </c>
       <c r="G3885" t="n">
-        <v>2663305</v>
+        <v>2664300</v>
       </c>
     </row>
     <row r="3886">
@@ -89815,7 +89815,7 @@
         <v>9</v>
       </c>
       <c r="C3886" t="n">
-        <v>9.085000000000001</v>
+        <v>9.09</v>
       </c>
       <c r="D3886" t="n">
         <v>8.529999999999999</v>
@@ -89827,7 +89827,7 @@
         <v>8.69</v>
       </c>
       <c r="G3886" t="n">
-        <v>3454447</v>
+        <v>3457900</v>
       </c>
     </row>
     <row r="3887">
@@ -89850,7 +89850,7 @@
         <v>8.57</v>
       </c>
       <c r="G3887" t="n">
-        <v>1937332</v>
+        <v>1937300</v>
       </c>
     </row>
     <row r="3888">
@@ -89873,7 +89873,7 @@
         <v>8.02</v>
       </c>
       <c r="G3888" t="n">
-        <v>2782848</v>
+        <v>2783300</v>
       </c>
     </row>
     <row r="3889">
@@ -89896,7 +89896,7 @@
         <v>7.77</v>
       </c>
       <c r="G3889" t="n">
-        <v>3490804</v>
+        <v>3491700</v>
       </c>
     </row>
     <row r="3890">
@@ -89919,7 +89919,7 @@
         <v>6.71</v>
       </c>
       <c r="G3890" t="n">
-        <v>2523306</v>
+        <v>2524900</v>
       </c>
     </row>
     <row r="3891">
@@ -89942,7 +89942,7 @@
         <v>7.2</v>
       </c>
       <c r="G3891" t="n">
-        <v>2617288</v>
+        <v>2617300</v>
       </c>
     </row>
     <row r="3892">
@@ -89953,7 +89953,7 @@
         <v>6.79</v>
       </c>
       <c r="C3892" t="n">
-        <v>6.825</v>
+        <v>6.83</v>
       </c>
       <c r="D3892" t="n">
         <v>6.4</v>
@@ -89965,7 +89965,7 @@
         <v>6.45</v>
       </c>
       <c r="G3892" t="n">
-        <v>3619702</v>
+        <v>3619700</v>
       </c>
     </row>
     <row r="3893">
@@ -89988,7 +89988,7 @@
         <v>5.29</v>
       </c>
       <c r="G3893" t="n">
-        <v>3775218</v>
+        <v>3776000</v>
       </c>
     </row>
     <row r="3894">
@@ -90011,7 +90011,7 @@
         <v>6.09</v>
       </c>
       <c r="G3894" t="n">
-        <v>3892828</v>
+        <v>3893600</v>
       </c>
     </row>
     <row r="3895">
@@ -90034,7 +90034,7 @@
         <v>5.08</v>
       </c>
       <c r="G3895" t="n">
-        <v>2796249</v>
+        <v>2796200</v>
       </c>
     </row>
     <row r="3896">
@@ -90057,7 +90057,7 @@
         <v>5.31</v>
       </c>
       <c r="G3896" t="n">
-        <v>3172904</v>
+        <v>3173600</v>
       </c>
     </row>
     <row r="3897">
@@ -90080,7 +90080,7 @@
         <v>4.91</v>
       </c>
       <c r="G3897" t="n">
-        <v>3214071</v>
+        <v>3223700</v>
       </c>
     </row>
     <row r="3898">
@@ -90103,7 +90103,7 @@
         <v>4.78</v>
       </c>
       <c r="G3898" t="n">
-        <v>3246822</v>
+        <v>3249600</v>
       </c>
     </row>
     <row r="3899">
@@ -90126,7 +90126,7 @@
         <v>4.72</v>
       </c>
       <c r="G3899" t="n">
-        <v>3091251</v>
+        <v>3092300</v>
       </c>
     </row>
     <row r="3900">
@@ -90149,7 +90149,7 @@
         <v>4.33</v>
       </c>
       <c r="G3900" t="n">
-        <v>2757360</v>
+        <v>2758800</v>
       </c>
     </row>
     <row r="3901">
@@ -90172,7 +90172,7 @@
         <v>4.71</v>
       </c>
       <c r="G3901" t="n">
-        <v>3975362</v>
+        <v>3979300</v>
       </c>
     </row>
     <row r="3902">
@@ -90195,7 +90195,7 @@
         <v>4.84</v>
       </c>
       <c r="G3902" t="n">
-        <v>3955747</v>
+        <v>3955900</v>
       </c>
     </row>
     <row r="3903">
@@ -90206,7 +90206,7 @@
         <v>4.94</v>
       </c>
       <c r="C3903" t="n">
-        <v>5.195</v>
+        <v>5.2</v>
       </c>
       <c r="D3903" t="n">
         <v>4.79</v>
@@ -90218,7 +90218,7 @@
         <v>5.05</v>
       </c>
       <c r="G3903" t="n">
-        <v>3391648</v>
+        <v>3391600</v>
       </c>
     </row>
     <row r="3904">
@@ -90241,7 +90241,7 @@
         <v>4.6</v>
       </c>
       <c r="G3904" t="n">
-        <v>3202392</v>
+        <v>3203700</v>
       </c>
     </row>
     <row r="3905">
@@ -90264,7 +90264,7 @@
         <v>4.55</v>
       </c>
       <c r="G3905" t="n">
-        <v>2963322</v>
+        <v>2963300</v>
       </c>
     </row>
     <row r="3906">
@@ -90272,13 +90272,13 @@
         <v>43921</v>
       </c>
       <c r="B3906" t="n">
-        <v>9.08</v>
+        <v>4.79</v>
       </c>
       <c r="C3906" t="n">
-        <v>9.085000000000001</v>
+        <v>4.85</v>
       </c>
       <c r="D3906" t="n">
-        <v>4.17</v>
+        <v>4.62</v>
       </c>
       <c r="E3906" t="n">
         <v>4.72</v>
@@ -90287,7 +90287,7 @@
         <v>4.72</v>
       </c>
       <c r="G3906" t="n">
-        <v>68389778</v>
+        <v>1865600</v>
       </c>
     </row>
     <row r="3907">
@@ -90310,7 +90310,7 @@
         <v>4.11</v>
       </c>
       <c r="G3907" t="n">
-        <v>3143941</v>
+        <v>3146400</v>
       </c>
     </row>
     <row r="3908">
@@ -90321,7 +90321,7 @@
         <v>4.2</v>
       </c>
       <c r="C3908" t="n">
-        <v>4.237</v>
+        <v>4.24</v>
       </c>
       <c r="D3908" t="n">
         <v>4.01</v>
@@ -90333,7 +90333,7 @@
         <v>4.12</v>
       </c>
       <c r="G3908" t="n">
-        <v>2507566</v>
+        <v>2507600</v>
       </c>
     </row>
     <row r="3909">
@@ -90356,7 +90356,7 @@
         <v>4.08</v>
       </c>
       <c r="G3909" t="n">
-        <v>3076467</v>
+        <v>3077400</v>
       </c>
     </row>
     <row r="3910">
@@ -90379,7 +90379,7 @@
         <v>4.56</v>
       </c>
       <c r="G3910" t="n">
-        <v>3235471</v>
+        <v>3237100</v>
       </c>
     </row>
     <row r="3911">
@@ -90402,7 +90402,7 @@
         <v>4.34</v>
       </c>
       <c r="G3911" t="n">
-        <v>4754082</v>
+        <v>4754700</v>
       </c>
     </row>
     <row r="3912">
@@ -90425,7 +90425,7 @@
         <v>4.61</v>
       </c>
       <c r="G3912" t="n">
-        <v>2701113</v>
+        <v>2701700</v>
       </c>
     </row>
     <row r="3913">
@@ -90448,7 +90448,7 @@
         <v>5.14</v>
       </c>
       <c r="G3913" t="n">
-        <v>4433329</v>
+        <v>4439100</v>
       </c>
     </row>
     <row r="3914">
@@ -90471,7 +90471,7 @@
         <v>4.86</v>
       </c>
       <c r="G3914" t="n">
-        <v>3620783</v>
+        <v>3622300</v>
       </c>
     </row>
     <row r="3915">
@@ -90494,7 +90494,7 @@
         <v>5.04</v>
       </c>
       <c r="G3915" t="n">
-        <v>3323515</v>
+        <v>3324700</v>
       </c>
     </row>
     <row r="3916">
@@ -90508,7 +90508,7 @@
         <v>4.84</v>
       </c>
       <c r="D3916" t="n">
-        <v>4.605</v>
+        <v>4.61</v>
       </c>
       <c r="E3916" t="n">
         <v>4.69</v>
@@ -90517,7 +90517,7 @@
         <v>4.69</v>
       </c>
       <c r="G3916" t="n">
-        <v>2639142</v>
+        <v>2639100</v>
       </c>
     </row>
     <row r="3917">
@@ -90528,7 +90528,7 @@
         <v>4.77</v>
       </c>
       <c r="C3917" t="n">
-        <v>4.975</v>
+        <v>4.97</v>
       </c>
       <c r="D3917" t="n">
         <v>4.71</v>
@@ -90540,7 +90540,7 @@
         <v>4.93</v>
       </c>
       <c r="G3917" t="n">
-        <v>2944539</v>
+        <v>2966700</v>
       </c>
     </row>
     <row r="3918">
@@ -90563,7 +90563,7 @@
         <v>5.12</v>
       </c>
       <c r="G3918" t="n">
-        <v>2578474</v>
+        <v>2578500</v>
       </c>
     </row>
     <row r="3919">
@@ -90577,7 +90577,7 @@
         <v>5.26</v>
       </c>
       <c r="D3919" t="n">
-        <v>5.035</v>
+        <v>5.04</v>
       </c>
       <c r="E3919" t="n">
         <v>5.11</v>
@@ -90586,7 +90586,7 @@
         <v>5.11</v>
       </c>
       <c r="G3919" t="n">
-        <v>2002240</v>
+        <v>2003600</v>
       </c>
     </row>
     <row r="3920">
@@ -90597,10 +90597,10 @@
         <v>4.89</v>
       </c>
       <c r="C3920" t="n">
-        <v>4.895</v>
+        <v>4.89</v>
       </c>
       <c r="D3920" t="n">
-        <v>4.685</v>
+        <v>4.68</v>
       </c>
       <c r="E3920" t="n">
         <v>4.7</v>
@@ -90609,7 +90609,7 @@
         <v>4.7</v>
       </c>
       <c r="G3920" t="n">
-        <v>2355856</v>
+        <v>2355900</v>
       </c>
     </row>
     <row r="3921">
@@ -90623,7 +90623,7 @@
         <v>5.04</v>
       </c>
       <c r="D3921" t="n">
-        <v>4.865</v>
+        <v>4.87</v>
       </c>
       <c r="E3921" t="n">
         <v>5.01</v>
@@ -90632,7 +90632,7 @@
         <v>5.01</v>
       </c>
       <c r="G3921" t="n">
-        <v>1908741</v>
+        <v>1908900</v>
       </c>
     </row>
     <row r="3922">
@@ -90643,7 +90643,7 @@
         <v>5.06</v>
       </c>
       <c r="C3922" t="n">
-        <v>5.145</v>
+        <v>5.15</v>
       </c>
       <c r="D3922" t="n">
         <v>4.97</v>
@@ -90655,7 +90655,7 @@
         <v>5.01</v>
       </c>
       <c r="G3922" t="n">
-        <v>1742832</v>
+        <v>1742800</v>
       </c>
     </row>
     <row r="3923">
@@ -90678,7 +90678,7 @@
         <v>4.87</v>
       </c>
       <c r="G3923" t="n">
-        <v>2016757</v>
+        <v>2017700</v>
       </c>
     </row>
     <row r="3924">
@@ -90701,7 +90701,7 @@
         <v>5</v>
       </c>
       <c r="G3924" t="n">
-        <v>2082330</v>
+        <v>2082300</v>
       </c>
     </row>
     <row r="3925">
@@ -90724,7 +90724,7 @@
         <v>5.08</v>
       </c>
       <c r="G3925" t="n">
-        <v>1793653</v>
+        <v>1795200</v>
       </c>
     </row>
     <row r="3926">
@@ -90747,7 +90747,7 @@
         <v>5.88</v>
       </c>
       <c r="G3926" t="n">
-        <v>5300501</v>
+        <v>5303300</v>
       </c>
     </row>
     <row r="3927">
@@ -90755,13 +90755,13 @@
         <v>43951</v>
       </c>
       <c r="B3927" t="n">
-        <v>4.48</v>
+        <v>6.03</v>
       </c>
       <c r="C3927" t="n">
-        <v>6.325</v>
+        <v>6.33</v>
       </c>
       <c r="D3927" t="n">
-        <v>3.92</v>
+        <v>5.76</v>
       </c>
       <c r="E3927" t="n">
         <v>5.92</v>
@@ -90770,7 +90770,7 @@
         <v>5.92</v>
       </c>
       <c r="G3927" t="n">
-        <v>62847496</v>
+        <v>4690600</v>
       </c>
     </row>
     <row r="3928">
@@ -90793,7 +90793,7 @@
         <v>5.6</v>
       </c>
       <c r="G3928" t="n">
-        <v>2759485</v>
+        <v>2760500</v>
       </c>
     </row>
     <row r="3929">
@@ -90816,7 +90816,7 @@
         <v>5.61</v>
       </c>
       <c r="G3929" t="n">
-        <v>2664989</v>
+        <v>2666000</v>
       </c>
     </row>
     <row r="3930">
@@ -90839,7 +90839,7 @@
         <v>5.47</v>
       </c>
       <c r="G3930" t="n">
-        <v>2158448</v>
+        <v>2158400</v>
       </c>
     </row>
     <row r="3931">
@@ -90850,7 +90850,7 @@
         <v>5.56</v>
       </c>
       <c r="C3931" t="n">
-        <v>5.585</v>
+        <v>5.59</v>
       </c>
       <c r="D3931" t="n">
         <v>5.33</v>
@@ -90862,7 +90862,7 @@
         <v>5.39</v>
       </c>
       <c r="G3931" t="n">
-        <v>1510761</v>
+        <v>1510800</v>
       </c>
     </row>
     <row r="3932">
@@ -90885,7 +90885,7 @@
         <v>5.5</v>
       </c>
       <c r="G3932" t="n">
-        <v>1817596</v>
+        <v>1817600</v>
       </c>
     </row>
     <row r="3933">
@@ -90908,7 +90908,7 @@
         <v>5.55</v>
       </c>
       <c r="G3933" t="n">
-        <v>1781234</v>
+        <v>1781100</v>
       </c>
     </row>
     <row r="3934">
@@ -90931,7 +90931,7 @@
         <v>5.85</v>
       </c>
       <c r="G3934" t="n">
-        <v>3978702</v>
+        <v>3980400</v>
       </c>
     </row>
     <row r="3935">
@@ -90954,7 +90954,7 @@
         <v>6.04</v>
       </c>
       <c r="G3935" t="n">
-        <v>5473852</v>
+        <v>5478800</v>
       </c>
     </row>
     <row r="3936">
@@ -90977,7 +90977,7 @@
         <v>5.55</v>
       </c>
       <c r="G3936" t="n">
-        <v>3667506</v>
+        <v>3669500</v>
       </c>
     </row>
     <row r="3937">
@@ -91000,7 +91000,7 @@
         <v>5.66</v>
       </c>
       <c r="G3937" t="n">
-        <v>5059234</v>
+        <v>5059200</v>
       </c>
     </row>
     <row r="3938">
@@ -91023,7 +91023,7 @@
         <v>5.48</v>
       </c>
       <c r="G3938" t="n">
-        <v>1985348</v>
+        <v>1985300</v>
       </c>
     </row>
     <row r="3939">
@@ -91046,7 +91046,7 @@
         <v>5.58</v>
       </c>
       <c r="G3939" t="n">
-        <v>3647533</v>
+        <v>3649500</v>
       </c>
     </row>
     <row r="3940">
@@ -91069,7 +91069,7 @@
         <v>5.32</v>
       </c>
       <c r="G3940" t="n">
-        <v>2976475</v>
+        <v>2976500</v>
       </c>
     </row>
     <row r="3941">
@@ -91092,7 +91092,7 @@
         <v>5.51</v>
       </c>
       <c r="G3941" t="n">
-        <v>2122930</v>
+        <v>2122900</v>
       </c>
     </row>
     <row r="3942">
@@ -91106,7 +91106,7 @@
         <v>5.64</v>
       </c>
       <c r="D3942" t="n">
-        <v>5.435</v>
+        <v>5.44</v>
       </c>
       <c r="E3942" t="n">
         <v>5.57</v>
@@ -91115,7 +91115,7 @@
         <v>5.57</v>
       </c>
       <c r="G3942" t="n">
-        <v>1977518</v>
+        <v>1977500</v>
       </c>
     </row>
     <row r="3943">
@@ -91138,7 +91138,7 @@
         <v>5.46</v>
       </c>
       <c r="G3943" t="n">
-        <v>1865037</v>
+        <v>1865000</v>
       </c>
     </row>
     <row r="3944">
@@ -91161,7 +91161,7 @@
         <v>5.61</v>
       </c>
       <c r="G3944" t="n">
-        <v>2784703</v>
+        <v>2784700</v>
       </c>
     </row>
     <row r="3945">
@@ -91172,7 +91172,7 @@
         <v>5.8</v>
       </c>
       <c r="C3945" t="n">
-        <v>5.825</v>
+        <v>5.83</v>
       </c>
       <c r="D3945" t="n">
         <v>5.55</v>
@@ -91184,7 +91184,7 @@
         <v>5.81</v>
       </c>
       <c r="G3945" t="n">
-        <v>4453717</v>
+        <v>4460700</v>
       </c>
     </row>
     <row r="3946">
@@ -91207,7 +91207,7 @@
         <v>5.75</v>
       </c>
       <c r="G3946" t="n">
-        <v>3222906</v>
+        <v>3222900</v>
       </c>
     </row>
     <row r="3947">
@@ -91215,13 +91215,13 @@
         <v>43980</v>
       </c>
       <c r="B3947" t="n">
-        <v>5.6</v>
+        <v>5.75</v>
       </c>
       <c r="C3947" t="n">
-        <v>6.3</v>
+        <v>5.77</v>
       </c>
       <c r="D3947" t="n">
-        <v>5.1</v>
+        <v>5.56</v>
       </c>
       <c r="E3947" t="n">
         <v>5.71</v>
@@ -91230,7 +91230,7 @@
         <v>5.71</v>
       </c>
       <c r="G3947" t="n">
-        <v>57998983</v>
+        <v>2091000</v>
       </c>
     </row>
     <row r="3948">
@@ -91253,7 +91253,7 @@
         <v>6.06</v>
       </c>
       <c r="G3948" t="n">
-        <v>2692518</v>
+        <v>2692500</v>
       </c>
     </row>
     <row r="3949">
@@ -91276,7 +91276,7 @@
         <v>6.61</v>
       </c>
       <c r="G3949" t="n">
-        <v>5484979</v>
+        <v>5490400</v>
       </c>
     </row>
     <row r="3950">
@@ -91290,7 +91290,7 @@
         <v>6.9</v>
       </c>
       <c r="D3950" t="n">
-        <v>6.715</v>
+        <v>6.72</v>
       </c>
       <c r="E3950" t="n">
         <v>6.81</v>
@@ -91299,7 +91299,7 @@
         <v>6.81</v>
       </c>
       <c r="G3950" t="n">
-        <v>3392940</v>
+        <v>3395400</v>
       </c>
     </row>
     <row r="3951">
@@ -91322,7 +91322,7 @@
         <v>6.68</v>
       </c>
       <c r="G3951" t="n">
-        <v>3423793</v>
+        <v>3440000</v>
       </c>
     </row>
     <row r="3952">
@@ -91345,7 +91345,7 @@
         <v>7.45</v>
       </c>
       <c r="G3952" t="n">
-        <v>4310071</v>
+        <v>4313300</v>
       </c>
     </row>
     <row r="3953">
@@ -91368,7 +91368,7 @@
         <v>7.8</v>
       </c>
       <c r="G3953" t="n">
-        <v>3388107</v>
+        <v>3389100</v>
       </c>
     </row>
     <row r="3954">
@@ -91391,7 +91391,7 @@
         <v>7.32</v>
       </c>
       <c r="G3954" t="n">
-        <v>2768072</v>
+        <v>2768900</v>
       </c>
     </row>
     <row r="3955">
@@ -91414,7 +91414,7 @@
         <v>7.21</v>
       </c>
       <c r="G3955" t="n">
-        <v>3332385</v>
+        <v>3340600</v>
       </c>
     </row>
     <row r="3956">
@@ -91437,7 +91437,7 @@
         <v>6.55</v>
       </c>
       <c r="G3956" t="n">
-        <v>3465341</v>
+        <v>3465300</v>
       </c>
     </row>
     <row r="3957">
@@ -91460,7 +91460,7 @@
         <v>7</v>
       </c>
       <c r="G3957" t="n">
-        <v>2877733</v>
+        <v>2880700</v>
       </c>
     </row>
     <row r="3958">
@@ -91483,7 +91483,7 @@
         <v>6.71</v>
       </c>
       <c r="G3958" t="n">
-        <v>2961256</v>
+        <v>2961300</v>
       </c>
     </row>
     <row r="3959">
@@ -91506,7 +91506,7 @@
         <v>6.31</v>
       </c>
       <c r="G3959" t="n">
-        <v>5448961</v>
+        <v>5464700</v>
       </c>
     </row>
     <row r="3960">
@@ -91517,10 +91517,10 @@
         <v>6.33</v>
       </c>
       <c r="C3960" t="n">
-        <v>6.345</v>
+        <v>6.35</v>
       </c>
       <c r="D3960" t="n">
-        <v>6.1707</v>
+        <v>6.17</v>
       </c>
       <c r="E3960" t="n">
         <v>6.19</v>
@@ -91529,7 +91529,7 @@
         <v>6.19</v>
       </c>
       <c r="G3960" t="n">
-        <v>2053377</v>
+        <v>2059800</v>
       </c>
     </row>
     <row r="3961">
@@ -91552,7 +91552,7 @@
         <v>6.37</v>
       </c>
       <c r="G3961" t="n">
-        <v>1745765</v>
+        <v>1754400</v>
       </c>
     </row>
     <row r="3962">
@@ -91563,10 +91563,10 @@
         <v>6.56</v>
       </c>
       <c r="C3962" t="n">
-        <v>6.7385</v>
+        <v>6.74</v>
       </c>
       <c r="D3962" t="n">
-        <v>6.455</v>
+        <v>6.46</v>
       </c>
       <c r="E3962" t="n">
         <v>6.59</v>
@@ -91575,7 +91575,7 @@
         <v>6.59</v>
       </c>
       <c r="G3962" t="n">
-        <v>4810535</v>
+        <v>4810500</v>
       </c>
     </row>
     <row r="3963">
@@ -91598,7 +91598,7 @@
         <v>6.79</v>
       </c>
       <c r="G3963" t="n">
-        <v>2754042</v>
+        <v>2759300</v>
       </c>
     </row>
     <row r="3964">
@@ -91621,7 +91621,7 @@
         <v>6.89</v>
       </c>
       <c r="G3964" t="n">
-        <v>1794978</v>
+        <v>1798700</v>
       </c>
     </row>
     <row r="3965">
@@ -91644,7 +91644,7 @@
         <v>6.71</v>
       </c>
       <c r="G3965" t="n">
-        <v>2100757</v>
+        <v>2100800</v>
       </c>
     </row>
     <row r="3966">
@@ -91655,7 +91655,7 @@
         <v>6.56</v>
       </c>
       <c r="C3966" t="n">
-        <v>7.065</v>
+        <v>7.07</v>
       </c>
       <c r="D3966" t="n">
         <v>6.54</v>
@@ -91667,7 +91667,7 @@
         <v>6.95</v>
       </c>
       <c r="G3966" t="n">
-        <v>3721353</v>
+        <v>3722400</v>
       </c>
     </row>
     <row r="3967">
@@ -91690,7 +91690,7 @@
         <v>6.6</v>
       </c>
       <c r="G3967" t="n">
-        <v>2969859</v>
+        <v>2969900</v>
       </c>
     </row>
     <row r="3968">
@@ -91713,7 +91713,7 @@
         <v>6.71</v>
       </c>
       <c r="G3968" t="n">
-        <v>2291100</v>
+        <v>2294900</v>
       </c>
     </row>
     <row r="3969">
@@ -91721,13 +91721,13 @@
         <v>44012</v>
       </c>
       <c r="B3969" t="n">
-        <v>5.88</v>
+        <v>6.64</v>
       </c>
       <c r="C3969" t="n">
-        <v>7.87</v>
+        <v>6.65</v>
       </c>
       <c r="D3969" t="n">
-        <v>5.86</v>
+        <v>6.5</v>
       </c>
       <c r="E3969" t="n">
         <v>6.57</v>
@@ -91736,7 +91736,7 @@
         <v>6.57</v>
       </c>
       <c r="G3969" t="n">
-        <v>69876022</v>
+        <v>2088100</v>
       </c>
     </row>
     <row r="3970">
@@ -91805,7 +91805,7 @@
         <v>7.53</v>
       </c>
       <c r="G3972" t="n">
-        <v>5071400</v>
+        <v>5077500</v>
       </c>
     </row>
     <row r="3973">
@@ -91874,7 +91874,7 @@
         <v>7.23</v>
       </c>
       <c r="G3975" t="n">
-        <v>2635800</v>
+        <v>2636500</v>
       </c>
     </row>
     <row r="3976">
@@ -91897,7 +91897,7 @@
         <v>7.35</v>
       </c>
       <c r="G3976" t="n">
-        <v>2401000</v>
+        <v>2402000</v>
       </c>
     </row>
     <row r="3977">
@@ -91920,7 +91920,7 @@
         <v>7.09</v>
       </c>
       <c r="G3977" t="n">
-        <v>1594500</v>
+        <v>1586700</v>
       </c>
     </row>
     <row r="3978">
@@ -91943,7 +91943,7 @@
         <v>7.02</v>
       </c>
       <c r="G3978" t="n">
-        <v>1656400</v>
+        <v>1662800</v>
       </c>
     </row>
     <row r="3979">
@@ -91966,7 +91966,7 @@
         <v>7.02</v>
       </c>
       <c r="G3979" t="n">
-        <v>1708700</v>
+        <v>1713300</v>
       </c>
     </row>
     <row r="3980">
@@ -92035,7 +92035,7 @@
         <v>7.12</v>
       </c>
       <c r="G3982" t="n">
-        <v>1122052</v>
+        <v>1124900</v>
       </c>
     </row>
     <row r="3983">
@@ -92058,7 +92058,7 @@
         <v>7.35</v>
       </c>
       <c r="G3983" t="n">
-        <v>3050569</v>
+        <v>3050600</v>
       </c>
     </row>
     <row r="3984">
@@ -92081,7 +92081,7 @@
         <v>7.14</v>
       </c>
       <c r="G3984" t="n">
-        <v>1502308</v>
+        <v>1502300</v>
       </c>
     </row>
     <row r="3985">
@@ -92095,7 +92095,7 @@
         <v>7.16</v>
       </c>
       <c r="D3985" t="n">
-        <v>6.955</v>
+        <v>6.96</v>
       </c>
       <c r="E3985" t="n">
         <v>7</v>
@@ -92104,7 +92104,7 @@
         <v>7</v>
       </c>
       <c r="G3985" t="n">
-        <v>1369399</v>
+        <v>1369100</v>
       </c>
     </row>
     <row r="3986">
@@ -92115,7 +92115,7 @@
         <v>6.89</v>
       </c>
       <c r="C3986" t="n">
-        <v>6.945</v>
+        <v>6.95</v>
       </c>
       <c r="D3986" t="n">
         <v>6.83</v>
@@ -92127,7 +92127,7 @@
         <v>6.87</v>
       </c>
       <c r="G3986" t="n">
-        <v>1540800</v>
+        <v>1540500</v>
       </c>
     </row>
     <row r="3987">
@@ -92150,7 +92150,7 @@
         <v>6.79</v>
       </c>
       <c r="G3987" t="n">
-        <v>1191712</v>
+        <v>1191700</v>
       </c>
     </row>
     <row r="3988">
@@ -92173,7 +92173,7 @@
         <v>7.24</v>
       </c>
       <c r="G3988" t="n">
-        <v>3430299</v>
+        <v>3430300</v>
       </c>
     </row>
     <row r="3989">
@@ -92184,7 +92184,7 @@
         <v>7.11</v>
       </c>
       <c r="C3989" t="n">
-        <v>7.165</v>
+        <v>7.17</v>
       </c>
       <c r="D3989" t="n">
         <v>7</v>
@@ -92196,7 +92196,7 @@
         <v>7.12</v>
       </c>
       <c r="G3989" t="n">
-        <v>1269225</v>
+        <v>1269000</v>
       </c>
     </row>
     <row r="3990">
@@ -92219,7 +92219,7 @@
         <v>7.03</v>
       </c>
       <c r="G3990" t="n">
-        <v>2721427</v>
+        <v>2721400</v>
       </c>
     </row>
     <row r="3991">
@@ -92227,13 +92227,13 @@
         <v>44043</v>
       </c>
       <c r="B3991" t="n">
-        <v>6.64</v>
+        <v>7.06</v>
       </c>
       <c r="C3991" t="n">
-        <v>7.68</v>
+        <v>7.3</v>
       </c>
       <c r="D3991" t="n">
-        <v>6.6</v>
+        <v>6.78</v>
       </c>
       <c r="E3991" t="n">
         <v>6.82</v>
@@ -92242,7 +92242,7 @@
         <v>6.82</v>
       </c>
       <c r="G3991" t="n">
-        <v>46067613</v>
+        <v>2814700</v>
       </c>
     </row>
     <row r="3992">
@@ -92265,7 +92265,7 @@
         <v>7.45</v>
       </c>
       <c r="G3992" t="n">
-        <v>3173176</v>
+        <v>3171000</v>
       </c>
     </row>
     <row r="3993">
@@ -92288,7 +92288,7 @@
         <v>7.54</v>
       </c>
       <c r="G3993" t="n">
-        <v>1710240</v>
+        <v>1710200</v>
       </c>
     </row>
     <row r="3994">
@@ -92311,7 +92311,7 @@
         <v>7.82</v>
       </c>
       <c r="G3994" t="n">
-        <v>1763862</v>
+        <v>1763500</v>
       </c>
     </row>
     <row r="3995">
@@ -92334,7 +92334,7 @@
         <v>7.85</v>
       </c>
       <c r="G3995" t="n">
-        <v>919595</v>
+        <v>919300</v>
       </c>
     </row>
     <row r="3996">
@@ -92357,7 +92357,7 @@
         <v>7.92</v>
       </c>
       <c r="G3996" t="n">
-        <v>1571361</v>
+        <v>1571400</v>
       </c>
     </row>
     <row r="3997">
@@ -92380,7 +92380,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="G3997" t="n">
-        <v>2599448</v>
+        <v>2599400</v>
       </c>
     </row>
     <row r="3998">
@@ -92391,10 +92391,10 @@
         <v>8.23</v>
       </c>
       <c r="C3998" t="n">
-        <v>8.244999999999999</v>
+        <v>8.24</v>
       </c>
       <c r="D3998" t="n">
-        <v>8.065</v>
+        <v>8.07</v>
       </c>
       <c r="E3998" t="n">
         <v>8.1</v>
@@ -92403,7 +92403,7 @@
         <v>8.1</v>
       </c>
       <c r="G3998" t="n">
-        <v>1477976</v>
+        <v>1478000</v>
       </c>
     </row>
     <row r="3999">
@@ -92426,7 +92426,7 @@
         <v>8.380000000000001</v>
       </c>
       <c r="G3999" t="n">
-        <v>1393355</v>
+        <v>1393400</v>
       </c>
     </row>
     <row r="4000">
@@ -92437,10 +92437,10 @@
         <v>8.630000000000001</v>
       </c>
       <c r="C4000" t="n">
-        <v>8.799899999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="D4000" t="n">
-        <v>8.6073</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E4000" t="n">
         <v>8.720000000000001</v>
@@ -92449,7 +92449,7 @@
         <v>8.720000000000001</v>
       </c>
       <c r="G4000" t="n">
-        <v>2018124</v>
+        <v>2018100</v>
       </c>
     </row>
     <row r="4001">
@@ -92472,7 +92472,7 @@
         <v>8.27</v>
       </c>
       <c r="G4001" t="n">
-        <v>2103824</v>
+        <v>2103800</v>
       </c>
     </row>
     <row r="4002">
@@ -92495,7 +92495,7 @@
         <v>8.210000000000001</v>
       </c>
       <c r="G4002" t="n">
-        <v>1065512</v>
+        <v>1065800</v>
       </c>
     </row>
     <row r="4003">
@@ -92518,7 +92518,7 @@
         <v>8.390000000000001</v>
       </c>
       <c r="G4003" t="n">
-        <v>1075755</v>
+        <v>1075800</v>
       </c>
     </row>
     <row r="4004">
@@ -92532,7 +92532,7 @@
         <v>8.41</v>
       </c>
       <c r="D4004" t="n">
-        <v>8.3041</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="E4004" t="n">
         <v>8.33</v>
@@ -92541,7 +92541,7 @@
         <v>8.33</v>
       </c>
       <c r="G4004" t="n">
-        <v>872118</v>
+        <v>872100</v>
       </c>
     </row>
     <row r="4005">
@@ -92552,10 +92552,10 @@
         <v>8.08</v>
       </c>
       <c r="C4005" t="n">
-        <v>8.225</v>
+        <v>8.23</v>
       </c>
       <c r="D4005" t="n">
-        <v>8.052</v>
+        <v>8.050000000000001</v>
       </c>
       <c r="E4005" t="n">
         <v>8.220000000000001</v>
@@ -92564,7 +92564,7 @@
         <v>8.220000000000001</v>
       </c>
       <c r="G4005" t="n">
-        <v>804717</v>
+        <v>804400</v>
       </c>
     </row>
     <row r="4006">
@@ -92575,7 +92575,7 @@
         <v>8.08</v>
       </c>
       <c r="C4006" t="n">
-        <v>8.164999999999999</v>
+        <v>8.16</v>
       </c>
       <c r="D4006" t="n">
         <v>8.06</v>
@@ -92587,7 +92587,7 @@
         <v>8.119999999999999</v>
       </c>
       <c r="G4006" t="n">
-        <v>1047936</v>
+        <v>1047600</v>
       </c>
     </row>
     <row r="4007">
@@ -92610,7 +92610,7 @@
         <v>8.24</v>
       </c>
       <c r="G4007" t="n">
-        <v>816300</v>
+        <v>816100</v>
       </c>
     </row>
     <row r="4008">
@@ -92633,7 +92633,7 @@
         <v>8.67</v>
       </c>
       <c r="G4008" t="n">
-        <v>1734539</v>
+        <v>1734100</v>
       </c>
     </row>
     <row r="4009">
@@ -92656,7 +92656,7 @@
         <v>9.65</v>
       </c>
       <c r="G4009" t="n">
-        <v>5621450</v>
+        <v>5621200</v>
       </c>
     </row>
     <row r="4010">
@@ -92679,7 +92679,7 @@
         <v>9.65</v>
       </c>
       <c r="G4010" t="n">
-        <v>2091371</v>
+        <v>2091000</v>
       </c>
     </row>
     <row r="4011">
@@ -92702,7 +92702,7 @@
         <v>9.77</v>
       </c>
       <c r="G4011" t="n">
-        <v>1099270</v>
+        <v>1099300</v>
       </c>
     </row>
     <row r="4012">
@@ -92710,13 +92710,13 @@
         <v>44074</v>
       </c>
       <c r="B4012" t="n">
-        <v>7.4</v>
+        <v>9.73</v>
       </c>
       <c r="C4012" t="n">
-        <v>9.960000000000001</v>
+        <v>9.77</v>
       </c>
       <c r="D4012" t="n">
-        <v>7.31</v>
+        <v>9.6</v>
       </c>
       <c r="E4012" t="n">
         <v>9.74</v>
@@ -92725,7 +92725,7 @@
         <v>9.74</v>
       </c>
       <c r="G4012" t="n">
-        <v>36396153</v>
+        <v>1436200</v>
       </c>
     </row>
     <row r="4013">
@@ -92748,7 +92748,7 @@
         <v>9.77</v>
       </c>
       <c r="G4013" t="n">
-        <v>1526294</v>
+        <v>1526300</v>
       </c>
     </row>
     <row r="4014">
@@ -92759,7 +92759,7 @@
         <v>10.22</v>
       </c>
       <c r="C4014" t="n">
-        <v>10.295</v>
+        <v>10.3</v>
       </c>
       <c r="D4014" t="n">
         <v>9.91</v>
@@ -92771,7 +92771,7 @@
         <v>10.1</v>
       </c>
       <c r="G4014" t="n">
-        <v>2307458</v>
+        <v>2307300</v>
       </c>
     </row>
     <row r="4015">
@@ -92794,7 +92794,7 @@
         <v>9.98</v>
       </c>
       <c r="G4015" t="n">
-        <v>3736814</v>
+        <v>3736600</v>
       </c>
     </row>
     <row r="4016">
@@ -92808,7 +92808,7 @@
         <v>10.15</v>
       </c>
       <c r="D4016" t="n">
-        <v>9.775</v>
+        <v>9.779999999999999</v>
       </c>
       <c r="E4016" t="n">
         <v>10.1</v>
@@ -92817,7 +92817,7 @@
         <v>10.1</v>
       </c>
       <c r="G4016" t="n">
-        <v>1741267</v>
+        <v>1741200</v>
       </c>
     </row>
     <row r="4017">
@@ -92840,7 +92840,7 @@
         <v>9.630000000000001</v>
       </c>
       <c r="G4017" t="n">
-        <v>2336229</v>
+        <v>2336200</v>
       </c>
     </row>
     <row r="4018">
@@ -92854,7 +92854,7 @@
         <v>9.789999999999999</v>
       </c>
       <c r="D4018" t="n">
-        <v>9.595000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="E4018" t="n">
         <v>9.67</v>
@@ -92863,7 +92863,7 @@
         <v>9.67</v>
       </c>
       <c r="G4018" t="n">
-        <v>1313569</v>
+        <v>1313500</v>
       </c>
     </row>
     <row r="4019">
@@ -92886,7 +92886,7 @@
         <v>9.57</v>
       </c>
       <c r="G4019" t="n">
-        <v>1584870</v>
+        <v>1584900</v>
       </c>
     </row>
     <row r="4020">
@@ -92909,7 +92909,7 @@
         <v>9.710000000000001</v>
       </c>
       <c r="G4020" t="n">
-        <v>887694</v>
+        <v>887700</v>
       </c>
     </row>
     <row r="4021">
@@ -92932,7 +92932,7 @@
         <v>10.07</v>
       </c>
       <c r="G4021" t="n">
-        <v>1194907</v>
+        <v>1194900</v>
       </c>
     </row>
     <row r="4022">
@@ -92955,7 +92955,7 @@
         <v>10.09</v>
       </c>
       <c r="G4022" t="n">
-        <v>794527</v>
+        <v>794500</v>
       </c>
     </row>
     <row r="4023">
@@ -92978,7 +92978,7 @@
         <v>10.27</v>
       </c>
       <c r="G4023" t="n">
-        <v>1578045</v>
+        <v>1578000</v>
       </c>
     </row>
     <row r="4024">
@@ -92992,7 +92992,7 @@
         <v>10.05</v>
       </c>
       <c r="D4024" t="n">
-        <v>9.895</v>
+        <v>9.9</v>
       </c>
       <c r="E4024" t="n">
         <v>10</v>
@@ -93001,7 +93001,7 @@
         <v>10</v>
       </c>
       <c r="G4024" t="n">
-        <v>1174976</v>
+        <v>1174900</v>
       </c>
     </row>
     <row r="4025">
@@ -93024,7 +93024,7 @@
         <v>9.880000000000001</v>
       </c>
       <c r="G4025" t="n">
-        <v>1332943</v>
+        <v>1332800</v>
       </c>
     </row>
     <row r="4026">
@@ -93047,7 +93047,7 @@
         <v>9.33</v>
       </c>
       <c r="G4026" t="n">
-        <v>2163206</v>
+        <v>2163200</v>
       </c>
     </row>
     <row r="4027">
@@ -93070,7 +93070,7 @@
         <v>9.109999999999999</v>
       </c>
       <c r="G4027" t="n">
-        <v>1223834</v>
+        <v>1223800</v>
       </c>
     </row>
     <row r="4028">
@@ -93093,7 +93093,7 @@
         <v>8.74</v>
       </c>
       <c r="G4028" t="n">
-        <v>1782166</v>
+        <v>1782000</v>
       </c>
     </row>
     <row r="4029">
@@ -93101,13 +93101,13 @@
         <v>44098</v>
       </c>
       <c r="B4029" t="n">
-        <v>9.74</v>
+        <v>8.27</v>
       </c>
       <c r="C4029" t="n">
-        <v>10.47</v>
+        <v>8.51</v>
       </c>
       <c r="D4029" t="n">
-        <v>8.225</v>
+        <v>8.23</v>
       </c>
       <c r="E4029" t="n">
         <v>8.43</v>
@@ -93116,7 +93116,7 @@
         <v>8.43</v>
       </c>
       <c r="G4029" t="n">
-        <v>28629310</v>
+        <v>1952800</v>
       </c>
     </row>
     <row r="4030">
@@ -93124,13 +93124,13 @@
         <v>44099</v>
       </c>
       <c r="B4030" t="n">
-        <v>9.74</v>
+        <v>8.56</v>
       </c>
       <c r="C4030" t="n">
-        <v>10.47</v>
+        <v>8.66</v>
       </c>
       <c r="D4030" t="n">
-        <v>8.225</v>
+        <v>8.51</v>
       </c>
       <c r="E4030" t="n">
         <v>8.65</v>
@@ -93139,7 +93139,7 @@
         <v>8.65</v>
       </c>
       <c r="G4030" t="n">
-        <v>30157103</v>
+        <v>1528200</v>
       </c>
     </row>
     <row r="4031">
@@ -93162,7 +93162,7 @@
         <v>8.98</v>
       </c>
       <c r="G4031" t="n">
-        <v>1236021</v>
+        <v>1236000</v>
       </c>
     </row>
     <row r="4032">
@@ -93170,13 +93170,13 @@
         <v>44103</v>
       </c>
       <c r="B4032" t="n">
-        <v>9.74</v>
+        <v>8.92</v>
       </c>
       <c r="C4032" t="n">
-        <v>10.47</v>
+        <v>8.94</v>
       </c>
       <c r="D4032" t="n">
-        <v>8.225</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E4032" t="n">
         <v>8.869999999999999</v>
@@ -93185,7 +93185,7 @@
         <v>8.869999999999999</v>
       </c>
       <c r="G4032" t="n">
-        <v>32042039</v>
+        <v>645700</v>
       </c>
     </row>
     <row r="4033">
@@ -93193,13 +93193,13 @@
         <v>44104</v>
       </c>
       <c r="B4033" t="n">
-        <v>9.74</v>
+        <v>9.07</v>
       </c>
       <c r="C4033" t="n">
-        <v>10.47</v>
+        <v>9.23</v>
       </c>
       <c r="D4033" t="n">
-        <v>8.225</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E4033" t="n">
         <v>9.09</v>
@@ -93208,7 +93208,7 @@
         <v>9.09</v>
       </c>
       <c r="G4033" t="n">
-        <v>33141751</v>
+        <v>1099300</v>
       </c>
     </row>
     <row r="4034">
@@ -93222,7 +93222,7 @@
         <v>9.16</v>
       </c>
       <c r="D4034" t="n">
-        <v>8.9801</v>
+        <v>8.98</v>
       </c>
       <c r="E4034" t="n">
         <v>9.15</v>
@@ -93231,7 +93231,7 @@
         <v>9.15</v>
       </c>
       <c r="G4034" t="n">
-        <v>738652</v>
+        <v>738700</v>
       </c>
     </row>
     <row r="4035">
@@ -93239,10 +93239,10 @@
         <v>44106</v>
       </c>
       <c r="B4035" t="n">
-        <v>9.130000000000001</v>
+        <v>8.960000000000001</v>
       </c>
       <c r="C4035" t="n">
-        <v>9.16</v>
+        <v>9.09</v>
       </c>
       <c r="D4035" t="n">
         <v>8.93</v>
@@ -93254,6424 +93254,2583 @@
         <v>9.07</v>
       </c>
       <c r="G4035" t="n">
-        <v>1560862</v>
+        <v>822300</v>
       </c>
     </row>
     <row r="4036">
       <c r="A4036" s="2" t="n">
-        <v>44110</v>
+        <v>44109</v>
       </c>
       <c r="B4036" t="n">
-        <v>9.130000000000001</v>
+        <v>9.109999999999999</v>
       </c>
       <c r="C4036" t="n">
-        <v>9.960000000000001</v>
+        <v>9.26</v>
       </c>
       <c r="D4036" t="n">
-        <v>8.93</v>
+        <v>9.1</v>
       </c>
       <c r="E4036" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="F4036" t="n">
-        <v>9.699999999999999</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="G4036" t="n">
-        <v>4413277</v>
+        <v>703200</v>
       </c>
     </row>
     <row r="4037">
       <c r="A4037" s="2" t="n">
-        <v>44111</v>
+        <v>44110</v>
       </c>
       <c r="B4037" t="n">
-        <v>9.130000000000001</v>
+        <v>9.83</v>
       </c>
       <c r="C4037" t="n">
         <v>9.960000000000001</v>
       </c>
       <c r="D4037" t="n">
-        <v>8.93</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="E4037" t="n">
-        <v>9.73</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="F4037" t="n">
-        <v>9.73</v>
+        <v>9.699999999999999</v>
       </c>
       <c r="G4037" t="n">
-        <v>5722078</v>
+        <v>2148800</v>
       </c>
     </row>
     <row r="4038">
       <c r="A4038" s="2" t="n">
-        <v>44112</v>
+        <v>44111</v>
       </c>
       <c r="B4038" t="n">
-        <v>9.130000000000001</v>
+        <v>9.630000000000001</v>
       </c>
       <c r="C4038" t="n">
-        <v>9.960000000000001</v>
+        <v>9.789999999999999</v>
       </c>
       <c r="D4038" t="n">
-        <v>8.93</v>
+        <v>9.6</v>
       </c>
       <c r="E4038" t="n">
-        <v>9.67</v>
+        <v>9.73</v>
       </c>
       <c r="F4038" t="n">
-        <v>9.67</v>
+        <v>9.73</v>
       </c>
       <c r="G4038" t="n">
-        <v>6856206</v>
+        <v>1308800</v>
       </c>
     </row>
     <row r="4039">
       <c r="A4039" s="2" t="n">
-        <v>44113</v>
+        <v>44112</v>
       </c>
       <c r="B4039" t="n">
-        <v>9.130000000000001</v>
+        <v>9.65</v>
       </c>
       <c r="C4039" t="n">
-        <v>9.960000000000001</v>
+        <v>9.67</v>
       </c>
       <c r="D4039" t="n">
-        <v>8.93</v>
+        <v>9.59</v>
       </c>
       <c r="E4039" t="n">
-        <v>9.58</v>
+        <v>9.67</v>
       </c>
       <c r="F4039" t="n">
-        <v>9.58</v>
+        <v>9.67</v>
       </c>
       <c r="G4039" t="n">
-        <v>7860825</v>
+        <v>1134100</v>
       </c>
     </row>
     <row r="4040">
       <c r="A4040" s="2" t="n">
-        <v>44117</v>
+        <v>44113</v>
       </c>
       <c r="B4040" t="n">
-        <v>9.130000000000001</v>
+        <v>9.550000000000001</v>
       </c>
       <c r="C4040" t="n">
-        <v>9.960000000000001</v>
+        <v>9.6</v>
       </c>
       <c r="D4040" t="n">
-        <v>8.93</v>
+        <v>9.449999999999999</v>
       </c>
       <c r="E4040" t="n">
-        <v>9.08</v>
+        <v>9.58</v>
       </c>
       <c r="F4040" t="n">
-        <v>9.08</v>
+        <v>9.58</v>
       </c>
       <c r="G4040" t="n">
-        <v>9771901</v>
+        <v>1004600</v>
       </c>
     </row>
     <row r="4041">
       <c r="A4041" s="2" t="n">
-        <v>44120</v>
+        <v>44116</v>
       </c>
       <c r="B4041" t="n">
-        <v>9.130000000000001</v>
+        <v>9.33</v>
       </c>
       <c r="C4041" t="n">
-        <v>9.960000000000001</v>
+        <v>9.4</v>
       </c>
       <c r="D4041" t="n">
-        <v>8.572900000000001</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="E4041" t="n">
-        <v>8.800000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="F4041" t="n">
-        <v>8.800000000000001</v>
+        <v>9.34</v>
       </c>
       <c r="G4041" t="n">
-        <v>13402590</v>
+        <v>816100</v>
       </c>
     </row>
     <row r="4042">
       <c r="A4042" s="2" t="n">
-        <v>44123</v>
+        <v>44117</v>
       </c>
       <c r="B4042" t="n">
-        <v>9.130000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="C4042" t="n">
-        <v>9.960000000000001</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="D4042" t="n">
-        <v>8.572900000000001</v>
+        <v>9</v>
       </c>
       <c r="E4042" t="n">
-        <v>8.609999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="F4042" t="n">
-        <v>8.609999999999999</v>
+        <v>9.08</v>
       </c>
       <c r="G4042" t="n">
-        <v>15101023</v>
+        <v>1094900</v>
       </c>
     </row>
     <row r="4043">
       <c r="A4043" s="2" t="n">
-        <v>44125</v>
+        <v>44118</v>
       </c>
       <c r="B4043" t="n">
-        <v>9.130000000000001</v>
+        <v>8.949999999999999</v>
       </c>
       <c r="C4043" t="n">
-        <v>9.960000000000001</v>
+        <v>9.07</v>
       </c>
       <c r="D4043" t="n">
-        <v>8.572900000000001</v>
+        <v>8.92</v>
       </c>
       <c r="E4043" t="n">
-        <v>8.84</v>
+        <v>8.92</v>
       </c>
       <c r="F4043" t="n">
-        <v>8.84</v>
+        <v>8.92</v>
       </c>
       <c r="G4043" t="n">
-        <v>16956826</v>
+        <v>1036100</v>
       </c>
     </row>
     <row r="4044">
       <c r="A4044" s="2" t="n">
-        <v>44127</v>
+        <v>44119</v>
       </c>
       <c r="B4044" t="n">
-        <v>9.130000000000001</v>
+        <v>8.68</v>
       </c>
       <c r="C4044" t="n">
-        <v>9.960000000000001</v>
+        <v>8.82</v>
       </c>
       <c r="D4044" t="n">
-        <v>8.572900000000001</v>
+        <v>8.57</v>
       </c>
       <c r="E4044" t="n">
-        <v>9.32</v>
+        <v>8.81</v>
       </c>
       <c r="F4044" t="n">
-        <v>9.32</v>
+        <v>8.81</v>
       </c>
       <c r="G4044" t="n">
-        <v>19165663</v>
+        <v>1779600</v>
       </c>
     </row>
     <row r="4045">
       <c r="A4045" s="2" t="n">
-        <v>44131</v>
+        <v>44120</v>
       </c>
       <c r="B4045" t="n">
-        <v>9.130000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="C4045" t="n">
-        <v>9.960000000000001</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="D4045" t="n">
-        <v>8.572900000000001</v>
+        <v>8.77</v>
       </c>
       <c r="E4045" t="n">
-        <v>9.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="F4045" t="n">
-        <v>9.48</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="G4045" t="n">
-        <v>22860455</v>
+        <v>814700</v>
       </c>
     </row>
     <row r="4046">
       <c r="A4046" s="2" t="n">
-        <v>44133</v>
+        <v>44123</v>
       </c>
       <c r="B4046" t="n">
-        <v>9.130000000000001</v>
+        <v>8.81</v>
       </c>
       <c r="C4046" t="n">
-        <v>9.960000000000001</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="D4046" t="n">
-        <v>8.572900000000001</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="E4046" t="n">
-        <v>8.93</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="F4046" t="n">
-        <v>8.93</v>
+        <v>8.609999999999999</v>
       </c>
       <c r="G4046" t="n">
-        <v>26444215</v>
+        <v>1698400</v>
       </c>
     </row>
     <row r="4047">
       <c r="A4047" s="2" t="n">
-        <v>44134</v>
+        <v>44124</v>
       </c>
       <c r="B4047" t="n">
-        <v>9.130000000000001</v>
+        <v>8.84</v>
       </c>
       <c r="C4047" t="n">
-        <v>9.960000000000001</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D4047" t="n">
-        <v>8.572900000000001</v>
+        <v>8.81</v>
       </c>
       <c r="E4047" t="n">
-        <v>8.77</v>
+        <v>8.92</v>
       </c>
       <c r="F4047" t="n">
-        <v>8.77</v>
+        <v>8.92</v>
       </c>
       <c r="G4047" t="n">
-        <v>27910886</v>
+        <v>1090600</v>
       </c>
     </row>
     <row r="4048">
       <c r="A4048" s="2" t="n">
-        <v>44153</v>
+        <v>44125</v>
       </c>
       <c r="B4048" t="n">
-        <v>8.93</v>
+        <v>8.94</v>
       </c>
       <c r="C4048" t="n">
-        <v>11.93</v>
+        <v>8.99</v>
       </c>
       <c r="D4048" t="n">
-        <v>8.869999999999999</v>
+        <v>8.81</v>
       </c>
       <c r="E4048" t="n">
-        <v>11.63</v>
+        <v>8.84</v>
       </c>
       <c r="F4048" t="n">
-        <v>11.63</v>
+        <v>8.84</v>
       </c>
       <c r="G4048" t="n">
-        <v>25576597</v>
+        <v>764500</v>
       </c>
     </row>
     <row r="4049">
       <c r="A4049" s="2" t="n">
-        <v>44165</v>
+        <v>44126</v>
       </c>
       <c r="B4049" t="n">
-        <v>8.93</v>
+        <v>9.08</v>
       </c>
       <c r="C4049" t="n">
-        <v>12.61</v>
+        <v>9.140000000000001</v>
       </c>
       <c r="D4049" t="n">
-        <v>8.869999999999999</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="E4049" t="n">
-        <v>11.94</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="F4049" t="n">
-        <v>11.94</v>
+        <v>9.119999999999999</v>
       </c>
       <c r="G4049" t="n">
-        <v>39512238</v>
+        <v>1049600</v>
       </c>
     </row>
     <row r="4050">
       <c r="A4050" s="2" t="n">
-        <v>44174</v>
+        <v>44127</v>
       </c>
       <c r="B4050" t="n">
-        <v>12.16</v>
+        <v>9.300000000000001</v>
       </c>
       <c r="C4050" t="n">
-        <v>12.77</v>
+        <v>9.34</v>
       </c>
       <c r="D4050" t="n">
-        <v>12.12</v>
+        <v>9.16</v>
       </c>
       <c r="E4050" t="n">
-        <v>12.38</v>
+        <v>9.32</v>
       </c>
       <c r="F4050" t="n">
-        <v>12.38</v>
+        <v>9.32</v>
       </c>
       <c r="G4050" t="n">
-        <v>12575075</v>
+        <v>1158700</v>
       </c>
     </row>
     <row r="4051">
       <c r="A4051" s="2" t="n">
-        <v>44193</v>
+        <v>44130</v>
       </c>
       <c r="B4051" t="n">
-        <v>12.16</v>
+        <v>9.029999999999999</v>
       </c>
       <c r="C4051" t="n">
-        <v>12.77</v>
+        <v>9.08</v>
       </c>
       <c r="D4051" t="n">
-        <v>11.0134</v>
+        <v>8.890000000000001</v>
       </c>
       <c r="E4051" t="n">
-        <v>12.5</v>
+        <v>9.06</v>
       </c>
       <c r="F4051" t="n">
-        <v>12.5</v>
+        <v>9.06</v>
       </c>
       <c r="G4051" t="n">
-        <v>32029366</v>
+        <v>2141900</v>
       </c>
     </row>
     <row r="4052">
       <c r="A4052" s="2" t="n">
-        <v>44196</v>
+        <v>44131</v>
       </c>
       <c r="B4052" t="n">
-        <v>12.16</v>
+        <v>9.15</v>
       </c>
       <c r="C4052" t="n">
-        <v>12.77</v>
+        <v>9.58</v>
       </c>
       <c r="D4052" t="n">
-        <v>11.0134</v>
+        <v>9.15</v>
       </c>
       <c r="E4052" t="n">
-        <v>12.6</v>
+        <v>9.48</v>
       </c>
       <c r="F4052" t="n">
-        <v>12.6</v>
+        <v>9.48</v>
       </c>
       <c r="G4052" t="n">
-        <v>35106136</v>
+        <v>1552900</v>
       </c>
     </row>
     <row r="4053">
       <c r="A4053" s="2" t="n">
-        <v>44202</v>
+        <v>44132</v>
       </c>
       <c r="B4053" t="n">
-        <v>12.97</v>
+        <v>9.02</v>
       </c>
       <c r="C4053" t="n">
-        <v>13.51</v>
+        <v>9.039999999999999</v>
       </c>
       <c r="D4053" t="n">
-        <v>12.67</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="E4053" t="n">
-        <v>13.34</v>
+        <v>8.85</v>
       </c>
       <c r="F4053" t="n">
-        <v>13.34</v>
+        <v>8.85</v>
       </c>
       <c r="G4053" t="n">
-        <v>5598111</v>
+        <v>2483900</v>
       </c>
     </row>
     <row r="4054">
       <c r="A4054" s="2" t="n">
-        <v>44204</v>
+        <v>44133</v>
       </c>
       <c r="B4054" t="n">
-        <v>12.97</v>
+        <v>8.84</v>
       </c>
       <c r="C4054" t="n">
-        <v>13.7</v>
+        <v>8.98</v>
       </c>
       <c r="D4054" t="n">
-        <v>12.67</v>
+        <v>8.73</v>
       </c>
       <c r="E4054" t="n">
-        <v>13.67</v>
+        <v>8.93</v>
       </c>
       <c r="F4054" t="n">
-        <v>13.67</v>
+        <v>8.93</v>
       </c>
       <c r="G4054" t="n">
-        <v>8258100</v>
+        <v>1099900</v>
       </c>
     </row>
     <row r="4055">
       <c r="A4055" s="2" t="n">
-        <v>44207</v>
+        <v>44134</v>
       </c>
       <c r="B4055" t="n">
-        <v>12.97</v>
+        <v>8.93</v>
       </c>
       <c r="C4055" t="n">
-        <v>15.95</v>
+        <v>8.970000000000001</v>
       </c>
       <c r="D4055" t="n">
-        <v>12.67</v>
+        <v>8.710000000000001</v>
       </c>
       <c r="E4055" t="n">
-        <v>15.9</v>
+        <v>8.77</v>
       </c>
       <c r="F4055" t="n">
-        <v>15.9</v>
+        <v>8.77</v>
       </c>
       <c r="G4055" t="n">
-        <v>15900280</v>
+        <v>1466700</v>
       </c>
     </row>
     <row r="4056">
       <c r="A4056" s="2" t="n">
-        <v>44208</v>
+        <v>44137</v>
       </c>
       <c r="B4056" t="n">
-        <v>12.97</v>
+        <v>8.93</v>
       </c>
       <c r="C4056" t="n">
-        <v>16.71</v>
+        <v>9.1</v>
       </c>
       <c r="D4056" t="n">
-        <v>12.67</v>
+        <v>8.869999999999999</v>
       </c>
       <c r="E4056" t="n">
-        <v>16.55</v>
+        <v>9.08</v>
       </c>
       <c r="F4056" t="n">
-        <v>16.55</v>
+        <v>9.08</v>
       </c>
       <c r="G4056" t="n">
-        <v>20648522</v>
+        <v>1132100</v>
       </c>
     </row>
     <row r="4057">
       <c r="A4057" s="2" t="n">
-        <v>44211</v>
+        <v>44138</v>
       </c>
       <c r="B4057" t="n">
-        <v>12.97</v>
+        <v>9.08</v>
       </c>
       <c r="C4057" t="n">
-        <v>17.99</v>
+        <v>9.41</v>
       </c>
       <c r="D4057" t="n">
-        <v>12.67</v>
+        <v>9.08</v>
       </c>
       <c r="E4057" t="n">
-        <v>17.56</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="F4057" t="n">
-        <v>17.56</v>
+        <v>9.289999999999999</v>
       </c>
       <c r="G4057" t="n">
-        <v>28262790</v>
+        <v>1957700</v>
       </c>
     </row>
     <row r="4058">
       <c r="A4058" s="2" t="n">
-        <v>44215</v>
+        <v>44139</v>
       </c>
       <c r="B4058" t="n">
-        <v>12.97</v>
+        <v>9.35</v>
       </c>
       <c r="C4058" t="n">
-        <v>17.99</v>
+        <v>9.4</v>
       </c>
       <c r="D4058" t="n">
-        <v>12.67</v>
+        <v>9.23</v>
       </c>
       <c r="E4058" t="n">
-        <v>17.68</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="F4058" t="n">
-        <v>17.68</v>
+        <v>9.279999999999999</v>
       </c>
       <c r="G4058" t="n">
-        <v>30274366</v>
+        <v>1671800</v>
       </c>
     </row>
     <row r="4059">
       <c r="A4059" s="2" t="n">
-        <v>44216</v>
+        <v>44140</v>
       </c>
       <c r="B4059" t="n">
-        <v>12.97</v>
+        <v>9.34</v>
       </c>
       <c r="C4059" t="n">
-        <v>18.96</v>
+        <v>9.529999999999999</v>
       </c>
       <c r="D4059" t="n">
-        <v>12.67</v>
+        <v>9.33</v>
       </c>
       <c r="E4059" t="n">
-        <v>18.94</v>
+        <v>9.5</v>
       </c>
       <c r="F4059" t="n">
-        <v>18.94</v>
+        <v>9.5</v>
       </c>
       <c r="G4059" t="n">
-        <v>33484445</v>
+        <v>1825900</v>
       </c>
     </row>
     <row r="4060">
       <c r="A4060" s="2" t="n">
-        <v>44217</v>
+        <v>44141</v>
       </c>
       <c r="B4060" t="n">
-        <v>12.97</v>
+        <v>9.51</v>
       </c>
       <c r="C4060" t="n">
-        <v>20.1399</v>
+        <v>9.539999999999999</v>
       </c>
       <c r="D4060" t="n">
-        <v>12.67</v>
+        <v>9.44</v>
       </c>
       <c r="E4060" t="n">
-        <v>20.06</v>
+        <v>9.49</v>
       </c>
       <c r="F4060" t="n">
-        <v>20.06</v>
+        <v>9.49</v>
       </c>
       <c r="G4060" t="n">
-        <v>38228499</v>
+        <v>930600</v>
       </c>
     </row>
     <row r="4061">
       <c r="A4061" s="2" t="n">
-        <v>43873</v>
+        <v>44144</v>
       </c>
       <c r="B4061" t="n">
-        <v>12.06</v>
+        <v>9.85</v>
       </c>
       <c r="C4061" t="n">
-        <v>12.09</v>
+        <v>10.39</v>
       </c>
       <c r="D4061" t="n">
-        <v>11.97</v>
+        <v>9.800000000000001</v>
       </c>
       <c r="E4061" t="n">
-        <v>12.03</v>
+        <v>10.2</v>
       </c>
       <c r="F4061" t="n">
-        <v>12.03</v>
+        <v>10.2</v>
       </c>
       <c r="G4061" t="n">
-        <v>1800800</v>
+        <v>2803800</v>
       </c>
     </row>
     <row r="4062">
       <c r="A4062" s="2" t="n">
-        <v>43874</v>
+        <v>44145</v>
       </c>
       <c r="B4062" t="n">
-        <v>11.91</v>
+        <v>10.09</v>
       </c>
       <c r="C4062" t="n">
-        <v>11.91</v>
+        <v>10.28</v>
       </c>
       <c r="D4062" t="n">
-        <v>11.79</v>
+        <v>9.94</v>
       </c>
       <c r="E4062" t="n">
-        <v>11.83</v>
+        <v>10.03</v>
       </c>
       <c r="F4062" t="n">
-        <v>11.83</v>
+        <v>10.03</v>
       </c>
       <c r="G4062" t="n">
-        <v>961200</v>
+        <v>2711400</v>
       </c>
     </row>
     <row r="4063">
       <c r="A4063" s="2" t="n">
-        <v>43875</v>
+        <v>44146</v>
       </c>
       <c r="B4063" t="n">
-        <v>11.89</v>
+        <v>10.27</v>
       </c>
       <c r="C4063" t="n">
-        <v>11.89</v>
+        <v>10.29</v>
       </c>
       <c r="D4063" t="n">
-        <v>11.69</v>
+        <v>10.13</v>
       </c>
       <c r="E4063" t="n">
-        <v>11.71</v>
+        <v>10.21</v>
       </c>
       <c r="F4063" t="n">
-        <v>11.71</v>
+        <v>10.21</v>
       </c>
       <c r="G4063" t="n">
-        <v>717700</v>
+        <v>1342500</v>
       </c>
     </row>
     <row r="4064">
       <c r="A4064" s="2" t="n">
-        <v>43879</v>
+        <v>44147</v>
       </c>
       <c r="B4064" t="n">
-        <v>11.35</v>
+        <v>10.13</v>
       </c>
       <c r="C4064" t="n">
-        <v>11.39</v>
+        <v>10.26</v>
       </c>
       <c r="D4064" t="n">
-        <v>11.07</v>
+        <v>9.98</v>
       </c>
       <c r="E4064" t="n">
-        <v>11.21</v>
+        <v>10.07</v>
       </c>
       <c r="F4064" t="n">
-        <v>11.21</v>
+        <v>10.07</v>
       </c>
       <c r="G4064" t="n">
-        <v>2538200</v>
+        <v>1074600</v>
       </c>
     </row>
     <row r="4065">
       <c r="A4065" s="2" t="n">
-        <v>43880</v>
+        <v>44148</v>
       </c>
       <c r="B4065" t="n">
-        <v>11.03</v>
+        <v>10.07</v>
       </c>
       <c r="C4065" t="n">
-        <v>11.23</v>
+        <v>10.13</v>
       </c>
       <c r="D4065" t="n">
-        <v>11.01</v>
+        <v>9.85</v>
       </c>
       <c r="E4065" t="n">
-        <v>11.12</v>
+        <v>10.03</v>
       </c>
       <c r="F4065" t="n">
-        <v>11.12</v>
+        <v>10.03</v>
       </c>
       <c r="G4065" t="n">
-        <v>981300</v>
+        <v>1036500</v>
       </c>
     </row>
     <row r="4066">
       <c r="A4066" s="2" t="n">
-        <v>43881</v>
+        <v>44151</v>
       </c>
       <c r="B4066" t="n">
-        <v>11.1</v>
+        <v>10.27</v>
       </c>
       <c r="C4066" t="n">
-        <v>11.16</v>
+        <v>10.5</v>
       </c>
       <c r="D4066" t="n">
-        <v>11</v>
+        <v>10.25</v>
       </c>
       <c r="E4066" t="n">
-        <v>11.05</v>
+        <v>10.49</v>
       </c>
       <c r="F4066" t="n">
-        <v>11.05</v>
+        <v>10.49</v>
       </c>
       <c r="G4066" t="n">
-        <v>967000</v>
+        <v>2901600</v>
       </c>
     </row>
     <row r="4067">
       <c r="A4067" s="2" t="n">
-        <v>43882</v>
+        <v>44152</v>
       </c>
       <c r="B4067" t="n">
-        <v>11</v>
+        <v>10.64</v>
       </c>
       <c r="C4067" t="n">
-        <v>11.08</v>
+        <v>11.02</v>
       </c>
       <c r="D4067" t="n">
-        <v>10.86</v>
+        <v>10.63</v>
       </c>
       <c r="E4067" t="n">
-        <v>10.88</v>
+        <v>10.9</v>
       </c>
       <c r="F4067" t="n">
-        <v>10.88</v>
+        <v>10.9</v>
       </c>
       <c r="G4067" t="n">
-        <v>1468700</v>
+        <v>2844900</v>
       </c>
     </row>
     <row r="4068">
       <c r="A4068" s="2" t="n">
-        <v>43885</v>
+        <v>44153</v>
       </c>
       <c r="B4068" t="n">
-        <v>10.38</v>
+        <v>11.49</v>
       </c>
       <c r="C4068" t="n">
-        <v>10.38</v>
+        <v>11.93</v>
       </c>
       <c r="D4068" t="n">
-        <v>10.23</v>
+        <v>11.47</v>
       </c>
       <c r="E4068" t="n">
-        <v>10.33</v>
+        <v>11.63</v>
       </c>
       <c r="F4068" t="n">
-        <v>10.33</v>
+        <v>11.63</v>
       </c>
       <c r="G4068" t="n">
-        <v>1811400</v>
+        <v>3342300</v>
       </c>
     </row>
     <row r="4069">
       <c r="A4069" s="2" t="n">
-        <v>43886</v>
+        <v>44154</v>
       </c>
       <c r="B4069" t="n">
-        <v>10.43</v>
+        <v>11.41</v>
       </c>
       <c r="C4069" t="n">
-        <v>10.49</v>
+        <v>11.67</v>
       </c>
       <c r="D4069" t="n">
-        <v>10.02</v>
+        <v>11.31</v>
       </c>
       <c r="E4069" t="n">
-        <v>10.06</v>
+        <v>11.58</v>
       </c>
       <c r="F4069" t="n">
-        <v>10.06</v>
+        <v>11.58</v>
       </c>
       <c r="G4069" t="n">
-        <v>2832400</v>
+        <v>2651600</v>
       </c>
     </row>
     <row r="4070">
       <c r="A4070" s="2" t="n">
-        <v>43887</v>
+        <v>44155</v>
       </c>
       <c r="B4070" t="n">
-        <v>10.2</v>
+        <v>11.6</v>
       </c>
       <c r="C4070" t="n">
-        <v>10.25</v>
+        <v>11.64</v>
       </c>
       <c r="D4070" t="n">
-        <v>10.05</v>
+        <v>11.28</v>
       </c>
       <c r="E4070" t="n">
-        <v>10.06</v>
+        <v>11.29</v>
       </c>
       <c r="F4070" t="n">
-        <v>10.06</v>
+        <v>11.29</v>
       </c>
       <c r="G4070" t="n">
-        <v>2023700</v>
+        <v>1679700</v>
       </c>
     </row>
     <row r="4071">
       <c r="A4071" s="2" t="n">
-        <v>43888</v>
+        <v>44158</v>
       </c>
       <c r="B4071" t="n">
-        <v>9.869999999999999</v>
+        <v>11.57</v>
       </c>
       <c r="C4071" t="n">
-        <v>9.99</v>
+        <v>11.57</v>
       </c>
       <c r="D4071" t="n">
-        <v>9.609999999999999</v>
+        <v>11.32</v>
       </c>
       <c r="E4071" t="n">
-        <v>9.720000000000001</v>
+        <v>11.46</v>
       </c>
       <c r="F4071" t="n">
-        <v>9.720000000000001</v>
+        <v>11.46</v>
       </c>
       <c r="G4071" t="n">
-        <v>3254600</v>
+        <v>1448100</v>
       </c>
     </row>
     <row r="4072">
       <c r="A4072" s="2" t="n">
-        <v>43889</v>
+        <v>44159</v>
       </c>
       <c r="B4072" t="n">
-        <v>8.83</v>
+        <v>11.86</v>
       </c>
       <c r="C4072" t="n">
-        <v>9.19</v>
+        <v>11.86</v>
       </c>
       <c r="D4072" t="n">
-        <v>8.710000000000001</v>
+        <v>11.58</v>
       </c>
       <c r="E4072" t="n">
-        <v>9.16</v>
+        <v>11.7</v>
       </c>
       <c r="F4072" t="n">
-        <v>9.16</v>
+        <v>11.7</v>
       </c>
       <c r="G4072" t="n">
-        <v>2880100</v>
+        <v>1344400</v>
       </c>
     </row>
     <row r="4073">
       <c r="A4073" s="2" t="n">
-        <v>43892</v>
+        <v>44160</v>
       </c>
       <c r="B4073" t="n">
-        <v>9.08</v>
+        <v>11.56</v>
       </c>
       <c r="C4073" t="n">
-        <v>9.08</v>
+        <v>11.82</v>
       </c>
       <c r="D4073" t="n">
-        <v>8.609999999999999</v>
+        <v>11.54</v>
       </c>
       <c r="E4073" t="n">
-        <v>8.960000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="F4073" t="n">
-        <v>8.960000000000001</v>
+        <v>11.78</v>
       </c>
       <c r="G4073" t="n">
-        <v>2664300</v>
+        <v>2077900</v>
       </c>
     </row>
     <row r="4074">
       <c r="A4074" s="2" t="n">
-        <v>43893</v>
+        <v>44162</v>
       </c>
       <c r="B4074" t="n">
-        <v>9</v>
+        <v>12.02</v>
       </c>
       <c r="C4074" t="n">
-        <v>9.09</v>
+        <v>12.61</v>
       </c>
       <c r="D4074" t="n">
-        <v>8.529999999999999</v>
+        <v>12.01</v>
       </c>
       <c r="E4074" t="n">
-        <v>8.69</v>
+        <v>12.38</v>
       </c>
       <c r="F4074" t="n">
-        <v>8.69</v>
+        <v>12.38</v>
       </c>
       <c r="G4074" t="n">
-        <v>3457900</v>
+        <v>2109600</v>
       </c>
     </row>
     <row r="4075">
       <c r="A4075" s="2" t="n">
-        <v>43894</v>
+        <v>44165</v>
       </c>
       <c r="B4075" t="n">
-        <v>8.69</v>
+        <v>12.35</v>
       </c>
       <c r="C4075" t="n">
-        <v>8.720000000000001</v>
+        <v>12.35</v>
       </c>
       <c r="D4075" t="n">
-        <v>8.34</v>
+        <v>11.88</v>
       </c>
       <c r="E4075" t="n">
-        <v>8.57</v>
+        <v>11.94</v>
       </c>
       <c r="F4075" t="n">
-        <v>8.57</v>
+        <v>11.94</v>
       </c>
       <c r="G4075" t="n">
-        <v>1937300</v>
+        <v>2626100</v>
       </c>
     </row>
     <row r="4076">
       <c r="A4076" s="2" t="n">
-        <v>43895</v>
+        <v>44166</v>
       </c>
       <c r="B4076" t="n">
-        <v>8.48</v>
+        <v>12.16</v>
       </c>
       <c r="C4076" t="n">
-        <v>8.5</v>
+        <v>12.59</v>
       </c>
       <c r="D4076" t="n">
-        <v>8.02</v>
+        <v>12.12</v>
       </c>
       <c r="E4076" t="n">
-        <v>8.02</v>
+        <v>12.57</v>
       </c>
       <c r="F4076" t="n">
-        <v>8.02</v>
+        <v>12.57</v>
       </c>
       <c r="G4076" t="n">
-        <v>2783300</v>
+        <v>2568700</v>
       </c>
     </row>
     <row r="4077">
       <c r="A4077" s="2" t="n">
-        <v>43896</v>
+        <v>44167</v>
       </c>
       <c r="B4077" t="n">
-        <v>7.71</v>
+        <v>12.54</v>
       </c>
       <c r="C4077" t="n">
-        <v>8.279999999999999</v>
+        <v>12.67</v>
       </c>
       <c r="D4077" t="n">
-        <v>7.59</v>
+        <v>12.41</v>
       </c>
       <c r="E4077" t="n">
-        <v>7.77</v>
+        <v>12.64</v>
       </c>
       <c r="F4077" t="n">
-        <v>7.77</v>
+        <v>12.64</v>
       </c>
       <c r="G4077" t="n">
-        <v>3491700</v>
+        <v>1587400</v>
       </c>
     </row>
     <row r="4078">
       <c r="A4078" s="2" t="n">
-        <v>43899</v>
+        <v>44168</v>
       </c>
       <c r="B4078" t="n">
-        <v>7</v>
+        <v>12.75</v>
       </c>
       <c r="C4078" t="n">
-        <v>7.09</v>
+        <v>12.77</v>
       </c>
       <c r="D4078" t="n">
-        <v>6.63</v>
+        <v>12.64</v>
       </c>
       <c r="E4078" t="n">
-        <v>6.71</v>
+        <v>12.66</v>
       </c>
       <c r="F4078" t="n">
-        <v>6.71</v>
+        <v>12.66</v>
       </c>
       <c r="G4078" t="n">
-        <v>2524900</v>
+        <v>1466800</v>
       </c>
     </row>
     <row r="4079">
       <c r="A4079" s="2" t="n">
-        <v>43900</v>
+        <v>44169</v>
       </c>
       <c r="B4079" t="n">
-        <v>7.1</v>
+        <v>12.65</v>
       </c>
       <c r="C4079" t="n">
-        <v>7.3</v>
+        <v>12.66</v>
       </c>
       <c r="D4079" t="n">
-        <v>6.82</v>
+        <v>12.43</v>
       </c>
       <c r="E4079" t="n">
-        <v>7.2</v>
+        <v>12.51</v>
       </c>
       <c r="F4079" t="n">
-        <v>7.2</v>
+        <v>12.51</v>
       </c>
       <c r="G4079" t="n">
-        <v>2617300</v>
+        <v>969000</v>
       </c>
     </row>
     <row r="4080">
       <c r="A4080" s="2" t="n">
-        <v>43901</v>
+        <v>44172</v>
       </c>
       <c r="B4080" t="n">
-        <v>6.79</v>
+        <v>12.5</v>
       </c>
       <c r="C4080" t="n">
-        <v>6.83</v>
+        <v>12.57</v>
       </c>
       <c r="D4080" t="n">
-        <v>6.4</v>
+        <v>12.17</v>
       </c>
       <c r="E4080" t="n">
-        <v>6.45</v>
+        <v>12.52</v>
       </c>
       <c r="F4080" t="n">
-        <v>6.45</v>
+        <v>12.52</v>
       </c>
       <c r="G4080" t="n">
-        <v>3619700</v>
+        <v>2033000</v>
       </c>
     </row>
     <row r="4081">
       <c r="A4081" s="2" t="n">
-        <v>43902</v>
+        <v>44173</v>
       </c>
       <c r="B4081" t="n">
-        <v>5.6</v>
+        <v>12.43</v>
       </c>
       <c r="C4081" t="n">
-        <v>5.64</v>
+        <v>12.55</v>
       </c>
       <c r="D4081" t="n">
-        <v>5</v>
+        <v>12.37</v>
       </c>
       <c r="E4081" t="n">
-        <v>5.29</v>
+        <v>12.45</v>
       </c>
       <c r="F4081" t="n">
-        <v>5.29</v>
+        <v>12.45</v>
       </c>
       <c r="G4081" t="n">
-        <v>3776000</v>
+        <v>1412300</v>
       </c>
     </row>
     <row r="4082">
       <c r="A4082" s="2" t="n">
-        <v>43903</v>
+        <v>44174</v>
       </c>
       <c r="B4082" t="n">
-        <v>6.01</v>
+        <v>12.53</v>
       </c>
       <c r="C4082" t="n">
-        <v>6.09</v>
+        <v>12.62</v>
       </c>
       <c r="D4082" t="n">
-        <v>5.5</v>
+        <v>12.3</v>
       </c>
       <c r="E4082" t="n">
-        <v>6.09</v>
+        <v>12.38</v>
       </c>
       <c r="F4082" t="n">
-        <v>6.09</v>
+        <v>12.38</v>
       </c>
       <c r="G4082" t="n">
-        <v>3893600</v>
+        <v>2540000</v>
       </c>
     </row>
     <row r="4083">
       <c r="A4083" s="2" t="n">
-        <v>43906</v>
+        <v>44175</v>
       </c>
       <c r="B4083" t="n">
-        <v>5.4</v>
+        <v>12.05</v>
       </c>
       <c r="C4083" t="n">
-        <v>5.61</v>
+        <v>12.11</v>
       </c>
       <c r="D4083" t="n">
-        <v>5.05</v>
+        <v>11.83</v>
       </c>
       <c r="E4083" t="n">
-        <v>5.08</v>
+        <v>11.99</v>
       </c>
       <c r="F4083" t="n">
-        <v>5.08</v>
+        <v>11.99</v>
       </c>
       <c r="G4083" t="n">
-        <v>2796200</v>
+        <v>2182500</v>
       </c>
     </row>
     <row r="4084">
       <c r="A4084" s="2" t="n">
-        <v>43907</v>
+        <v>44176</v>
       </c>
       <c r="B4084" t="n">
-        <v>5.23</v>
+        <v>12.09</v>
       </c>
       <c r="C4084" t="n">
-        <v>5.37</v>
+        <v>12.26</v>
       </c>
       <c r="D4084" t="n">
-        <v>4.92</v>
+        <v>12.07</v>
       </c>
       <c r="E4084" t="n">
-        <v>5.31</v>
+        <v>12.12</v>
       </c>
       <c r="F4084" t="n">
-        <v>5.31</v>
+        <v>12.12</v>
       </c>
       <c r="G4084" t="n">
-        <v>3173600</v>
+        <v>2113500</v>
       </c>
     </row>
     <row r="4085">
       <c r="A4085" s="2" t="n">
-        <v>43908</v>
+        <v>44179</v>
       </c>
       <c r="B4085" t="n">
-        <v>4.72</v>
+        <v>12.17</v>
       </c>
       <c r="C4085" t="n">
-        <v>5.01</v>
+        <v>12.19</v>
       </c>
       <c r="D4085" t="n">
-        <v>4.57</v>
+        <v>11.86</v>
       </c>
       <c r="E4085" t="n">
-        <v>4.91</v>
+        <v>11.99</v>
       </c>
       <c r="F4085" t="n">
-        <v>4.91</v>
+        <v>11.99</v>
       </c>
       <c r="G4085" t="n">
-        <v>3223700</v>
+        <v>1035400</v>
       </c>
     </row>
     <row r="4086">
       <c r="A4086" s="2" t="n">
-        <v>43909</v>
+        <v>44180</v>
       </c>
       <c r="B4086" t="n">
-        <v>4.72</v>
+        <v>12.15</v>
       </c>
       <c r="C4086" t="n">
-        <v>4.87</v>
+        <v>12.35</v>
       </c>
       <c r="D4086" t="n">
-        <v>4.52</v>
+        <v>12.13</v>
       </c>
       <c r="E4086" t="n">
-        <v>4.78</v>
+        <v>12.34</v>
       </c>
       <c r="F4086" t="n">
-        <v>4.78</v>
+        <v>12.34</v>
       </c>
       <c r="G4086" t="n">
-        <v>3249600</v>
+        <v>957400</v>
       </c>
     </row>
     <row r="4087">
       <c r="A4087" s="2" t="n">
-        <v>43910</v>
+        <v>44181</v>
       </c>
       <c r="B4087" t="n">
-        <v>4.87</v>
+        <v>12.57</v>
       </c>
       <c r="C4087" t="n">
-        <v>5.23</v>
+        <v>12.61</v>
       </c>
       <c r="D4087" t="n">
-        <v>4.72</v>
+        <v>12.44</v>
       </c>
       <c r="E4087" t="n">
-        <v>4.72</v>
+        <v>12.57</v>
       </c>
       <c r="F4087" t="n">
-        <v>4.72</v>
+        <v>12.57</v>
       </c>
       <c r="G4087" t="n">
-        <v>3092300</v>
+        <v>1546600</v>
       </c>
     </row>
     <row r="4088">
       <c r="A4088" s="2" t="n">
-        <v>43913</v>
+        <v>44182</v>
       </c>
       <c r="B4088" t="n">
-        <v>4.3</v>
+        <v>12.5</v>
       </c>
       <c r="C4088" t="n">
-        <v>4.57</v>
+        <v>12.62</v>
       </c>
       <c r="D4088" t="n">
-        <v>4.17</v>
+        <v>12.31</v>
       </c>
       <c r="E4088" t="n">
-        <v>4.33</v>
+        <v>12.31</v>
       </c>
       <c r="F4088" t="n">
-        <v>4.33</v>
+        <v>12.31</v>
       </c>
       <c r="G4088" t="n">
-        <v>2758800</v>
+        <v>1963300</v>
       </c>
     </row>
     <row r="4089">
       <c r="A4089" s="2" t="n">
-        <v>43914</v>
+        <v>44183</v>
       </c>
       <c r="B4089" t="n">
-        <v>4.66</v>
+        <v>12.31</v>
       </c>
       <c r="C4089" t="n">
-        <v>4.94</v>
+        <v>12.33</v>
       </c>
       <c r="D4089" t="n">
-        <v>4.51</v>
+        <v>12.11</v>
       </c>
       <c r="E4089" t="n">
-        <v>4.71</v>
+        <v>12.18</v>
       </c>
       <c r="F4089" t="n">
-        <v>4.71</v>
+        <v>12.18</v>
       </c>
       <c r="G4089" t="n">
-        <v>3979300</v>
+        <v>1576200</v>
       </c>
     </row>
     <row r="4090">
       <c r="A4090" s="2" t="n">
-        <v>43915</v>
+        <v>44186</v>
       </c>
       <c r="B4090" t="n">
-        <v>4.71</v>
+        <v>11.15</v>
       </c>
       <c r="C4090" t="n">
-        <v>4.97</v>
+        <v>11.25</v>
       </c>
       <c r="D4090" t="n">
-        <v>4.42</v>
+        <v>11.01</v>
       </c>
       <c r="E4090" t="n">
-        <v>4.84</v>
+        <v>11.19</v>
       </c>
       <c r="F4090" t="n">
-        <v>4.84</v>
+        <v>11.19</v>
       </c>
       <c r="G4090" t="n">
-        <v>3955900</v>
+        <v>2712500</v>
       </c>
     </row>
     <row r="4091">
       <c r="A4091" s="2" t="n">
-        <v>43916</v>
+        <v>44187</v>
       </c>
       <c r="B4091" t="n">
-        <v>4.94</v>
+        <v>11.2</v>
       </c>
       <c r="C4091" t="n">
-        <v>5.2</v>
+        <v>11.23</v>
       </c>
       <c r="D4091" t="n">
-        <v>4.79</v>
+        <v>11.02</v>
       </c>
       <c r="E4091" t="n">
-        <v>5.05</v>
+        <v>11.06</v>
       </c>
       <c r="F4091" t="n">
-        <v>5.05</v>
+        <v>11.06</v>
       </c>
       <c r="G4091" t="n">
-        <v>3391600</v>
+        <v>1123800</v>
       </c>
     </row>
     <row r="4092">
       <c r="A4092" s="2" t="n">
-        <v>43917</v>
+        <v>44188</v>
       </c>
       <c r="B4092" t="n">
-        <v>4.82</v>
+        <v>11.41</v>
       </c>
       <c r="C4092" t="n">
-        <v>4.87</v>
+        <v>11.65</v>
       </c>
       <c r="D4092" t="n">
-        <v>4.55</v>
+        <v>11.37</v>
       </c>
       <c r="E4092" t="n">
-        <v>4.6</v>
+        <v>11.65</v>
       </c>
       <c r="F4092" t="n">
-        <v>4.6</v>
+        <v>11.65</v>
       </c>
       <c r="G4092" t="n">
-        <v>3203700</v>
+        <v>1802600</v>
       </c>
     </row>
     <row r="4093">
       <c r="A4093" s="2" t="n">
-        <v>43920</v>
+        <v>44189</v>
       </c>
       <c r="B4093" t="n">
-        <v>4.57</v>
+        <v>11.89</v>
       </c>
       <c r="C4093" t="n">
-        <v>4.61</v>
+        <v>12</v>
       </c>
       <c r="D4093" t="n">
-        <v>4.32</v>
+        <v>11.75</v>
       </c>
       <c r="E4093" t="n">
-        <v>4.55</v>
+        <v>11.8</v>
       </c>
       <c r="F4093" t="n">
-        <v>4.55</v>
+        <v>11.8</v>
       </c>
       <c r="G4093" t="n">
-        <v>2963300</v>
+        <v>816300</v>
       </c>
     </row>
     <row r="4094">
       <c r="A4094" s="2" t="n">
-        <v>43921</v>
+        <v>44193</v>
       </c>
       <c r="B4094" t="n">
-        <v>4.79</v>
+        <v>12.5</v>
       </c>
       <c r="C4094" t="n">
-        <v>4.85</v>
+        <v>12.69</v>
       </c>
       <c r="D4094" t="n">
-        <v>4.62</v>
+        <v>12.45</v>
       </c>
       <c r="E4094" t="n">
-        <v>4.72</v>
+        <v>12.5</v>
       </c>
       <c r="F4094" t="n">
-        <v>4.72</v>
+        <v>12.5</v>
       </c>
       <c r="G4094" t="n">
-        <v>1865600</v>
+        <v>1632400</v>
       </c>
     </row>
     <row r="4095">
       <c r="A4095" s="2" t="n">
-        <v>43922</v>
+        <v>44194</v>
       </c>
       <c r="B4095" t="n">
-        <v>4.48</v>
+        <v>12.38</v>
       </c>
       <c r="C4095" t="n">
-        <v>4.49</v>
+        <v>12.5</v>
       </c>
       <c r="D4095" t="n">
-        <v>4.07</v>
+        <v>12.29</v>
       </c>
       <c r="E4095" t="n">
-        <v>4.11</v>
+        <v>12.36</v>
       </c>
       <c r="F4095" t="n">
-        <v>4.11</v>
+        <v>12.36</v>
       </c>
       <c r="G4095" t="n">
-        <v>3146400</v>
+        <v>1231800</v>
       </c>
     </row>
     <row r="4096">
       <c r="A4096" s="2" t="n">
-        <v>43923</v>
+        <v>44195</v>
       </c>
       <c r="B4096" t="n">
-        <v>4.2</v>
+        <v>12.52</v>
       </c>
       <c r="C4096" t="n">
-        <v>4.24</v>
+        <v>12.69</v>
       </c>
       <c r="D4096" t="n">
-        <v>4.01</v>
+        <v>12.5</v>
       </c>
       <c r="E4096" t="n">
-        <v>4.12</v>
+        <v>12.6</v>
       </c>
       <c r="F4096" t="n">
-        <v>4.12</v>
+        <v>12.6</v>
       </c>
       <c r="G4096" t="n">
-        <v>2507600</v>
+        <v>886900</v>
       </c>
     </row>
     <row r="4097">
       <c r="A4097" s="2" t="n">
-        <v>43924</v>
+        <v>44196</v>
       </c>
       <c r="B4097" t="n">
-        <v>4.25</v>
+        <v>12.58</v>
       </c>
       <c r="C4097" t="n">
-        <v>4.25</v>
+        <v>12.67</v>
       </c>
       <c r="D4097" t="n">
-        <v>3.92</v>
+        <v>12.56</v>
       </c>
       <c r="E4097" t="n">
-        <v>4.08</v>
+        <v>12.6</v>
       </c>
       <c r="F4097" t="n">
-        <v>4.08</v>
+        <v>12.6</v>
       </c>
       <c r="G4097" t="n">
-        <v>3077400</v>
+        <v>957900</v>
       </c>
     </row>
     <row r="4098">
       <c r="A4098" s="2" t="n">
-        <v>43927</v>
+        <v>44200</v>
       </c>
       <c r="B4098" t="n">
-        <v>4.31</v>
+        <v>12.97</v>
       </c>
       <c r="C4098" t="n">
-        <v>4.58</v>
+        <v>13.15</v>
       </c>
       <c r="D4098" t="n">
-        <v>4.29</v>
+        <v>12.67</v>
       </c>
       <c r="E4098" t="n">
-        <v>4.56</v>
+        <v>12.76</v>
       </c>
       <c r="F4098" t="n">
-        <v>4.56</v>
+        <v>12.76</v>
       </c>
       <c r="G4098" t="n">
-        <v>3237100</v>
+        <v>1898200</v>
       </c>
     </row>
     <row r="4099">
       <c r="A4099" s="2" t="n">
-        <v>43928</v>
+        <v>44201</v>
       </c>
       <c r="B4099" t="n">
-        <v>4.66</v>
+        <v>12.93</v>
       </c>
       <c r="C4099" t="n">
-        <v>4.83</v>
+        <v>13.36</v>
       </c>
       <c r="D4099" t="n">
-        <v>4.29</v>
+        <v>12.9</v>
       </c>
       <c r="E4099" t="n">
-        <v>4.34</v>
+        <v>13.3</v>
       </c>
       <c r="F4099" t="n">
-        <v>4.34</v>
+        <v>13.3</v>
       </c>
       <c r="G4099" t="n">
-        <v>4754700</v>
+        <v>1802000</v>
       </c>
     </row>
     <row r="4100">
       <c r="A4100" s="2" t="n">
-        <v>43929</v>
+        <v>44202</v>
       </c>
       <c r="B4100" t="n">
-        <v>4.54</v>
+        <v>13.39</v>
       </c>
       <c r="C4100" t="n">
-        <v>4.73</v>
+        <v>13.51</v>
       </c>
       <c r="D4100" t="n">
-        <v>4.41</v>
+        <v>13.23</v>
       </c>
       <c r="E4100" t="n">
-        <v>4.61</v>
+        <v>13.34</v>
       </c>
       <c r="F4100" t="n">
-        <v>4.61</v>
+        <v>13.34</v>
       </c>
       <c r="G4100" t="n">
-        <v>2701700</v>
+        <v>1898000</v>
       </c>
     </row>
     <row r="4101">
       <c r="A4101" s="2" t="n">
-        <v>43930</v>
+        <v>44203</v>
       </c>
       <c r="B4101" t="n">
-        <v>4.9</v>
+        <v>13.39</v>
       </c>
       <c r="C4101" t="n">
-        <v>5.24</v>
+        <v>13.47</v>
       </c>
       <c r="D4101" t="n">
-        <v>4.88</v>
+        <v>13.35</v>
       </c>
       <c r="E4101" t="n">
-        <v>5.14</v>
+        <v>13.45</v>
       </c>
       <c r="F4101" t="n">
-        <v>5.14</v>
+        <v>13.45</v>
       </c>
       <c r="G4101" t="n">
-        <v>4439100</v>
+        <v>997600</v>
       </c>
     </row>
     <row r="4102">
       <c r="A4102" s="2" t="n">
-        <v>43934</v>
+        <v>44204</v>
       </c>
       <c r="B4102" t="n">
-        <v>5</v>
+        <v>13.5</v>
       </c>
       <c r="C4102" t="n">
-        <v>5.03</v>
+        <v>13.7</v>
       </c>
       <c r="D4102" t="n">
-        <v>4.72</v>
+        <v>13.43</v>
       </c>
       <c r="E4102" t="n">
-        <v>4.86</v>
+        <v>13.67</v>
       </c>
       <c r="F4102" t="n">
-        <v>4.86</v>
+        <v>13.67</v>
       </c>
       <c r="G4102" t="n">
-        <v>3622300</v>
+        <v>1662400</v>
       </c>
     </row>
     <row r="4103">
       <c r="A4103" s="2" t="n">
-        <v>43935</v>
+        <v>44207</v>
       </c>
       <c r="B4103" t="n">
-        <v>4.98</v>
+        <v>15.02</v>
       </c>
       <c r="C4103" t="n">
-        <v>5.11</v>
+        <v>15.95</v>
       </c>
       <c r="D4103" t="n">
-        <v>4.94</v>
+        <v>15.02</v>
       </c>
       <c r="E4103" t="n">
-        <v>5.04</v>
+        <v>15.9</v>
       </c>
       <c r="F4103" t="n">
-        <v>5.04</v>
+        <v>15.9</v>
       </c>
       <c r="G4103" t="n">
-        <v>3324700</v>
+        <v>7642200</v>
       </c>
     </row>
     <row r="4104">
       <c r="A4104" s="2" t="n">
-        <v>43936</v>
+        <v>44208</v>
       </c>
       <c r="B4104" t="n">
-        <v>4.84</v>
+        <v>16.24</v>
       </c>
       <c r="C4104" t="n">
-        <v>4.84</v>
+        <v>16.709999</v>
       </c>
       <c r="D4104" t="n">
-        <v>4.61</v>
+        <v>16.190001</v>
       </c>
       <c r="E4104" t="n">
-        <v>4.69</v>
+        <v>16.549999</v>
       </c>
       <c r="F4104" t="n">
-        <v>4.69</v>
+        <v>16.549999</v>
       </c>
       <c r="G4104" t="n">
-        <v>2639100</v>
+        <v>4770700</v>
       </c>
     </row>
     <row r="4105">
       <c r="A4105" s="2" t="n">
-        <v>43937</v>
+        <v>44209</v>
       </c>
       <c r="B4105" t="n">
-        <v>4.77</v>
+        <v>16.65</v>
       </c>
       <c r="C4105" t="n">
-        <v>4.97</v>
+        <v>16.68</v>
       </c>
       <c r="D4105" t="n">
-        <v>4.71</v>
+        <v>16.08</v>
       </c>
       <c r="E4105" t="n">
-        <v>4.93</v>
+        <v>16.27</v>
       </c>
       <c r="F4105" t="n">
-        <v>4.93</v>
+        <v>16.27</v>
       </c>
       <c r="G4105" t="n">
-        <v>2966700</v>
+        <v>2466500</v>
       </c>
     </row>
     <row r="4106">
       <c r="A4106" s="2" t="n">
-        <v>43938</v>
+        <v>44210</v>
       </c>
       <c r="B4106" t="n">
-        <v>5.25</v>
+        <v>16.68</v>
       </c>
       <c r="C4106" t="n">
-        <v>5.3</v>
+        <v>16.969999</v>
       </c>
       <c r="D4106" t="n">
-        <v>5.06</v>
+        <v>16.620001</v>
       </c>
       <c r="E4106" t="n">
-        <v>5.12</v>
+        <v>16.889999</v>
       </c>
       <c r="F4106" t="n">
-        <v>5.12</v>
+        <v>16.889999</v>
       </c>
       <c r="G4106" t="n">
-        <v>2578500</v>
+        <v>2041400</v>
       </c>
     </row>
     <row r="4107">
       <c r="A4107" s="2" t="n">
-        <v>43941</v>
+        <v>44211</v>
       </c>
       <c r="B4107" t="n">
-        <v>5.12</v>
+        <v>17.799999</v>
       </c>
       <c r="C4107" t="n">
-        <v>5.26</v>
+        <v>17.99</v>
       </c>
       <c r="D4107" t="n">
-        <v>5.04</v>
+        <v>17.530001</v>
       </c>
       <c r="E4107" t="n">
-        <v>5.11</v>
+        <v>17.559999</v>
       </c>
       <c r="F4107" t="n">
-        <v>5.11</v>
+        <v>17.559999</v>
       </c>
       <c r="G4107" t="n">
-        <v>2003600</v>
+        <v>3106300</v>
       </c>
     </row>
     <row r="4108">
       <c r="A4108" s="2" t="n">
-        <v>43942</v>
+        <v>44215</v>
       </c>
       <c r="B4108" t="n">
-        <v>4.89</v>
+        <v>17.610001</v>
       </c>
       <c r="C4108" t="n">
-        <v>4.89</v>
+        <v>17.85</v>
       </c>
       <c r="D4108" t="n">
-        <v>4.68</v>
+        <v>17.52</v>
       </c>
       <c r="E4108" t="n">
-        <v>4.7</v>
+        <v>17.68</v>
       </c>
       <c r="F4108" t="n">
-        <v>4.7</v>
+        <v>17.68</v>
       </c>
       <c r="G4108" t="n">
-        <v>2355900</v>
+        <v>2011600</v>
       </c>
     </row>
     <row r="4109">
       <c r="A4109" s="2" t="n">
-        <v>43943</v>
+        <v>44216</v>
       </c>
       <c r="B4109" t="n">
-        <v>4.95</v>
+        <v>18.68</v>
       </c>
       <c r="C4109" t="n">
-        <v>5.04</v>
+        <v>18.959999</v>
       </c>
       <c r="D4109" t="n">
-        <v>4.87</v>
+        <v>18.530001</v>
       </c>
       <c r="E4109" t="n">
-        <v>5.01</v>
+        <v>18.940001</v>
       </c>
       <c r="F4109" t="n">
-        <v>5.01</v>
+        <v>18.940001</v>
       </c>
       <c r="G4109" t="n">
-        <v>1908900</v>
+        <v>3210100</v>
       </c>
     </row>
     <row r="4110">
       <c r="A4110" s="2" t="n">
-        <v>43944</v>
+        <v>44217</v>
       </c>
       <c r="B4110" t="n">
-        <v>5.06</v>
+        <v>19.639999</v>
       </c>
       <c r="C4110" t="n">
-        <v>5.15</v>
+        <v>20.139999</v>
       </c>
       <c r="D4110" t="n">
-        <v>4.97</v>
+        <v>19.52</v>
       </c>
       <c r="E4110" t="n">
-        <v>5.01</v>
+        <v>20.059999</v>
       </c>
       <c r="F4110" t="n">
-        <v>5.01</v>
+        <v>20.059999</v>
       </c>
       <c r="G4110" t="n">
-        <v>1742800</v>
+        <v>4827000</v>
       </c>
     </row>
     <row r="4111">
       <c r="A4111" s="2" t="n">
-        <v>43945</v>
+        <v>44218</v>
       </c>
       <c r="B4111" t="n">
-        <v>4.95</v>
+        <v>19.84</v>
       </c>
       <c r="C4111" t="n">
-        <v>5.01</v>
+        <v>20.049999</v>
       </c>
       <c r="D4111" t="n">
-        <v>4.77</v>
+        <v>19.1</v>
       </c>
       <c r="E4111" t="n">
-        <v>4.87</v>
+        <v>19.57</v>
       </c>
       <c r="F4111" t="n">
-        <v>4.87</v>
+        <v>19.57</v>
       </c>
       <c r="G4111" t="n">
-        <v>2017700</v>
+        <v>3739900</v>
       </c>
     </row>
     <row r="4112">
       <c r="A4112" s="2" t="n">
-        <v>43948</v>
+        <v>44221</v>
       </c>
       <c r="B4112" t="n">
-        <v>4.97</v>
+        <v>18.84</v>
       </c>
       <c r="C4112" t="n">
-        <v>5.05</v>
+        <v>18.940001</v>
       </c>
       <c r="D4112" t="n">
-        <v>4.9</v>
+        <v>18.16</v>
       </c>
       <c r="E4112" t="n">
-        <v>5</v>
+        <v>18.549999</v>
       </c>
       <c r="F4112" t="n">
-        <v>5</v>
+        <v>18.549999</v>
       </c>
       <c r="G4112" t="n">
-        <v>2082300</v>
+        <v>4291400</v>
       </c>
     </row>
     <row r="4113">
       <c r="A4113" s="2" t="n">
-        <v>43949</v>
+        <v>44222</v>
       </c>
       <c r="B4113" t="n">
-        <v>5.14</v>
+        <v>18.280001</v>
       </c>
       <c r="C4113" t="n">
-        <v>5.16</v>
+        <v>18.52</v>
       </c>
       <c r="D4113" t="n">
-        <v>5.01</v>
+        <v>18.17</v>
       </c>
       <c r="E4113" t="n">
-        <v>5.08</v>
+        <v>18.450001</v>
       </c>
       <c r="F4113" t="n">
-        <v>5.08</v>
+        <v>18.450001</v>
       </c>
       <c r="G4113" t="n">
-        <v>1795200</v>
+        <v>1863100</v>
       </c>
     </row>
     <row r="4114">
       <c r="A4114" s="2" t="n">
-        <v>43950</v>
+        <v>44223</v>
       </c>
       <c r="B4114" t="n">
-        <v>5.18</v>
+        <v>17.860001</v>
       </c>
       <c r="C4114" t="n">
-        <v>5.98</v>
+        <v>18.16</v>
       </c>
       <c r="D4114" t="n">
-        <v>5.18</v>
+        <v>17.74</v>
       </c>
       <c r="E4114" t="n">
-        <v>5.88</v>
+        <v>17.82</v>
       </c>
       <c r="F4114" t="n">
-        <v>5.88</v>
+        <v>17.82</v>
       </c>
       <c r="G4114" t="n">
-        <v>5303300</v>
+        <v>2362100</v>
       </c>
     </row>
     <row r="4115">
       <c r="A4115" s="2" t="n">
-        <v>43951</v>
+        <v>44224</v>
       </c>
       <c r="B4115" t="n">
-        <v>6.03</v>
+        <v>18.16</v>
       </c>
       <c r="C4115" t="n">
-        <v>6.33</v>
+        <v>18.66</v>
       </c>
       <c r="D4115" t="n">
-        <v>5.76</v>
+        <v>18.110001</v>
       </c>
       <c r="E4115" t="n">
-        <v>5.92</v>
+        <v>18.559999</v>
       </c>
       <c r="F4115" t="n">
-        <v>5.92</v>
+        <v>18.559999</v>
       </c>
       <c r="G4115" t="n">
-        <v>4690600</v>
+        <v>3146100</v>
       </c>
     </row>
     <row r="4116">
       <c r="A4116" s="2" t="n">
-        <v>43952</v>
+        <v>44225</v>
       </c>
       <c r="B4116" t="n">
-        <v>5.6</v>
+        <v>18.65</v>
       </c>
       <c r="C4116" t="n">
-        <v>5.68</v>
+        <v>19.01</v>
       </c>
       <c r="D4116" t="n">
-        <v>5.45</v>
+        <v>17.780001</v>
       </c>
       <c r="E4116" t="n">
-        <v>5.6</v>
+        <v>17.809999</v>
       </c>
       <c r="F4116" t="n">
-        <v>5.6</v>
+        <v>17.809999</v>
       </c>
       <c r="G4116" t="n">
-        <v>2760500</v>
+        <v>1987000</v>
       </c>
     </row>
     <row r="4117">
       <c r="A4117" s="2" t="n">
-        <v>43955</v>
+        <v>44228</v>
       </c>
       <c r="B4117" t="n">
-        <v>5.5</v>
+        <v>18.77</v>
       </c>
       <c r="C4117" t="n">
-        <v>5.65</v>
+        <v>19.629999</v>
       </c>
       <c r="D4117" t="n">
-        <v>5.41</v>
+        <v>18.77</v>
       </c>
       <c r="E4117" t="n">
-        <v>5.61</v>
+        <v>19.52</v>
       </c>
       <c r="F4117" t="n">
-        <v>5.61</v>
+        <v>19.52</v>
       </c>
       <c r="G4117" t="n">
-        <v>2666000</v>
+        <v>3153100</v>
       </c>
     </row>
     <row r="4118">
       <c r="A4118" s="2" t="n">
-        <v>43956</v>
+        <v>44229</v>
       </c>
       <c r="B4118" t="n">
-        <v>5.54</v>
+        <v>21.690001</v>
       </c>
       <c r="C4118" t="n">
-        <v>5.66</v>
+        <v>22.280001</v>
       </c>
       <c r="D4118" t="n">
-        <v>5.46</v>
+        <v>21.370001</v>
       </c>
       <c r="E4118" t="n">
-        <v>5.47</v>
+        <v>22.17</v>
       </c>
       <c r="F4118" t="n">
-        <v>5.47</v>
+        <v>22.17</v>
       </c>
       <c r="G4118" t="n">
-        <v>2158400</v>
+        <v>4969300</v>
       </c>
     </row>
     <row r="4119">
       <c r="A4119" s="2" t="n">
-        <v>43957</v>
+        <v>44230</v>
       </c>
       <c r="B4119" t="n">
-        <v>5.56</v>
+        <v>22.200001</v>
       </c>
       <c r="C4119" t="n">
-        <v>5.59</v>
+        <v>22.75</v>
       </c>
       <c r="D4119" t="n">
-        <v>5.33</v>
+        <v>22.190001</v>
       </c>
       <c r="E4119" t="n">
-        <v>5.39</v>
+        <v>22.620001</v>
       </c>
       <c r="F4119" t="n">
-        <v>5.39</v>
+        <v>22.620001</v>
       </c>
       <c r="G4119" t="n">
-        <v>1510800</v>
+        <v>2809900</v>
       </c>
     </row>
     <row r="4120">
       <c r="A4120" s="2" t="n">
-        <v>43958</v>
+        <v>44231</v>
       </c>
       <c r="B4120" t="n">
-        <v>5.5</v>
+        <v>22.200001</v>
       </c>
       <c r="C4120" t="n">
-        <v>5.6</v>
+        <v>22.41</v>
       </c>
       <c r="D4120" t="n">
-        <v>5.44</v>
+        <v>21.91</v>
       </c>
       <c r="E4120" t="n">
-        <v>5.5</v>
+        <v>22.309999</v>
       </c>
       <c r="F4120" t="n">
-        <v>5.5</v>
+        <v>22.309999</v>
       </c>
       <c r="G4120" t="n">
-        <v>1817600</v>
+        <v>1997000</v>
       </c>
     </row>
     <row r="4121">
       <c r="A4121" s="2" t="n">
-        <v>43959</v>
+        <v>44232</v>
       </c>
       <c r="B4121" t="n">
-        <v>5.47</v>
+        <v>21.700001</v>
       </c>
       <c r="C4121" t="n">
-        <v>5.59</v>
+        <v>21.719999</v>
       </c>
       <c r="D4121" t="n">
-        <v>5.43</v>
+        <v>21.02</v>
       </c>
       <c r="E4121" t="n">
-        <v>5.55</v>
+        <v>21.540001</v>
       </c>
       <c r="F4121" t="n">
-        <v>5.55</v>
+        <v>21.540001</v>
       </c>
       <c r="G4121" t="n">
-        <v>1781100</v>
+        <v>2181300</v>
       </c>
     </row>
     <row r="4122">
       <c r="A4122" s="2" t="n">
-        <v>43962</v>
+        <v>44235</v>
       </c>
       <c r="B4122" t="n">
-        <v>5.69</v>
+        <v>22.870001</v>
       </c>
       <c r="C4122" t="n">
-        <v>5.89</v>
+        <v>23.379999</v>
       </c>
       <c r="D4122" t="n">
-        <v>5.56</v>
+        <v>22.74</v>
       </c>
       <c r="E4122" t="n">
-        <v>5.85</v>
+        <v>23.370001</v>
       </c>
       <c r="F4122" t="n">
-        <v>5.85</v>
+        <v>23.370001</v>
       </c>
       <c r="G4122" t="n">
-        <v>3980400</v>
+        <v>2371500</v>
       </c>
     </row>
     <row r="4123">
       <c r="A4123" s="2" t="n">
-        <v>43963</v>
+        <v>44236</v>
       </c>
       <c r="B4123" t="n">
-        <v>5.95</v>
+        <v>22.200001</v>
       </c>
       <c r="C4123" t="n">
-        <v>6.3</v>
+        <v>22.48</v>
       </c>
       <c r="D4123" t="n">
-        <v>5.81</v>
+        <v>21.950001</v>
       </c>
       <c r="E4123" t="n">
-        <v>6.04</v>
+        <v>22.4</v>
       </c>
       <c r="F4123" t="n">
-        <v>6.04</v>
+        <v>22.4</v>
       </c>
       <c r="G4123" t="n">
-        <v>5478800</v>
+        <v>2150300</v>
       </c>
     </row>
     <row r="4124">
       <c r="A4124" s="2" t="n">
-        <v>43964</v>
+        <v>44237</v>
       </c>
       <c r="B4124" t="n">
-        <v>6.06</v>
+        <v>22.52</v>
       </c>
       <c r="C4124" t="n">
-        <v>6.06</v>
+        <v>22.700001</v>
       </c>
       <c r="D4124" t="n">
-        <v>5.45</v>
+        <v>22.030001</v>
       </c>
       <c r="E4124" t="n">
-        <v>5.55</v>
+        <v>22.24</v>
       </c>
       <c r="F4124" t="n">
-        <v>5.55</v>
+        <v>22.24</v>
       </c>
       <c r="G4124" t="n">
-        <v>3669500</v>
+        <v>1549800</v>
       </c>
     </row>
     <row r="4125">
       <c r="A4125" s="2" t="n">
-        <v>43965</v>
+        <v>44238</v>
       </c>
       <c r="B4125" t="n">
-        <v>5.39</v>
+        <v>22.26</v>
       </c>
       <c r="C4125" t="n">
-        <v>5.83</v>
+        <v>22.290001</v>
       </c>
       <c r="D4125" t="n">
-        <v>5.1</v>
+        <v>21.969999</v>
       </c>
       <c r="E4125" t="n">
-        <v>5.66</v>
+        <v>22.25</v>
       </c>
       <c r="F4125" t="n">
-        <v>5.66</v>
+        <v>22.25</v>
       </c>
       <c r="G4125" t="n">
-        <v>5059200</v>
+        <v>964200</v>
       </c>
     </row>
     <row r="4126">
       <c r="A4126" s="2" t="n">
-        <v>43966</v>
+        <v>44239</v>
       </c>
       <c r="B4126" t="n">
-        <v>5.45</v>
+        <v>22.24</v>
       </c>
       <c r="C4126" t="n">
-        <v>5.6</v>
+        <v>22.59</v>
       </c>
       <c r="D4126" t="n">
-        <v>5.4</v>
+        <v>22.129999</v>
       </c>
       <c r="E4126" t="n">
-        <v>5.48</v>
+        <v>22.58</v>
       </c>
       <c r="F4126" t="n">
-        <v>5.48</v>
+        <v>22.58</v>
       </c>
       <c r="G4126" t="n">
-        <v>1985300</v>
+        <v>1011400</v>
       </c>
     </row>
     <row r="4127">
       <c r="A4127" s="2" t="n">
-        <v>43969</v>
+        <v>44243</v>
       </c>
       <c r="B4127" t="n">
-        <v>5.6</v>
+        <v>22.58</v>
       </c>
       <c r="C4127" t="n">
-        <v>5.68</v>
+        <v>22.68</v>
       </c>
       <c r="D4127" t="n">
-        <v>5.49</v>
+        <v>22.01</v>
       </c>
       <c r="E4127" t="n">
-        <v>5.58</v>
+        <v>22.209999</v>
       </c>
       <c r="F4127" t="n">
-        <v>5.58</v>
+        <v>22.209999</v>
       </c>
       <c r="G4127" t="n">
-        <v>3649500</v>
+        <v>1528000</v>
       </c>
     </row>
     <row r="4128">
       <c r="A4128" s="2" t="n">
-        <v>43970</v>
+        <v>44244</v>
       </c>
       <c r="B4128" t="n">
-        <v>5.64</v>
+        <v>22.389999</v>
       </c>
       <c r="C4128" t="n">
-        <v>5.64</v>
+        <v>22.549999</v>
       </c>
       <c r="D4128" t="n">
-        <v>5.3</v>
+        <v>22.15</v>
       </c>
       <c r="E4128" t="n">
-        <v>5.32</v>
+        <v>22.360001</v>
       </c>
       <c r="F4128" t="n">
-        <v>5.32</v>
+        <v>22.360001</v>
       </c>
       <c r="G4128" t="n">
-        <v>2976500</v>
+        <v>1519400</v>
       </c>
     </row>
     <row r="4129">
       <c r="A4129" s="2" t="n">
-        <v>43971</v>
+        <v>44245</v>
       </c>
       <c r="B4129" t="n">
-        <v>5.45</v>
+        <v>21.82</v>
       </c>
       <c r="C4129" t="n">
-        <v>5.57</v>
+        <v>21.969999</v>
       </c>
       <c r="D4129" t="n">
-        <v>5.35</v>
+        <v>21.629999</v>
       </c>
       <c r="E4129" t="n">
-        <v>5.51</v>
+        <v>21.870001</v>
       </c>
       <c r="F4129" t="n">
-        <v>5.51</v>
+        <v>21.870001</v>
       </c>
       <c r="G4129" t="n">
-        <v>2122900</v>
+        <v>3343300</v>
       </c>
     </row>
     <row r="4130">
       <c r="A4130" s="2" t="n">
-        <v>43972</v>
+        <v>44246</v>
       </c>
       <c r="B4130" t="n">
-        <v>5.55</v>
+        <v>21.33</v>
       </c>
       <c r="C4130" t="n">
-        <v>5.64</v>
+        <v>21.780001</v>
       </c>
       <c r="D4130" t="n">
-        <v>5.44</v>
+        <v>21.110001</v>
       </c>
       <c r="E4130" t="n">
-        <v>5.57</v>
+        <v>21.43</v>
       </c>
       <c r="F4130" t="n">
-        <v>5.57</v>
+        <v>21.43</v>
       </c>
       <c r="G4130" t="n">
-        <v>1977500</v>
+        <v>1486600</v>
       </c>
     </row>
     <row r="4131">
       <c r="A4131" s="2" t="n">
-        <v>43973</v>
+        <v>44249</v>
       </c>
       <c r="B4131" t="n">
-        <v>5.54</v>
+        <v>20.91</v>
       </c>
       <c r="C4131" t="n">
-        <v>5.57</v>
+        <v>21.32</v>
       </c>
       <c r="D4131" t="n">
-        <v>5.35</v>
+        <v>20.52</v>
       </c>
       <c r="E4131" t="n">
-        <v>5.46</v>
+        <v>20.959999</v>
       </c>
       <c r="F4131" t="n">
-        <v>5.46</v>
+        <v>20.959999</v>
       </c>
       <c r="G4131" t="n">
-        <v>1865000</v>
+        <v>1374000</v>
       </c>
     </row>
     <row r="4132">
       <c r="A4132" s="2" t="n">
-        <v>43977</v>
+        <v>44250</v>
       </c>
       <c r="B4132" t="n">
-        <v>5.63</v>
+        <v>22.059999</v>
       </c>
       <c r="C4132" t="n">
-        <v>5.73</v>
+        <v>22.1</v>
       </c>
       <c r="D4132" t="n">
-        <v>5.61</v>
+        <v>21.280001</v>
       </c>
       <c r="E4132" t="n">
-        <v>5.61</v>
+        <v>21.93</v>
       </c>
       <c r="F4132" t="n">
-        <v>5.61</v>
+        <v>21.93</v>
       </c>
       <c r="G4132" t="n">
-        <v>2784700</v>
+        <v>2693800</v>
       </c>
     </row>
     <row r="4133">
       <c r="A4133" s="2" t="n">
-        <v>43978</v>
+        <v>44251</v>
       </c>
       <c r="B4133" t="n">
-        <v>5.8</v>
+        <v>21.77</v>
       </c>
       <c r="C4133" t="n">
-        <v>5.83</v>
+        <v>22.16</v>
       </c>
       <c r="D4133" t="n">
-        <v>5.55</v>
+        <v>21.700001</v>
       </c>
       <c r="E4133" t="n">
-        <v>5.81</v>
+        <v>22.129999</v>
       </c>
       <c r="F4133" t="n">
-        <v>5.81</v>
+        <v>22.129999</v>
       </c>
       <c r="G4133" t="n">
-        <v>4460700</v>
+        <v>1619200</v>
       </c>
     </row>
     <row r="4134">
       <c r="A4134" s="2" t="n">
-        <v>43979</v>
+        <v>44252</v>
       </c>
       <c r="B4134" t="n">
-        <v>6</v>
+        <v>22.74</v>
       </c>
       <c r="C4134" t="n">
-        <v>6.01</v>
+        <v>22.959999</v>
       </c>
       <c r="D4134" t="n">
-        <v>5.7</v>
+        <v>21.889999</v>
       </c>
       <c r="E4134" t="n">
-        <v>5.75</v>
+        <v>22.120001</v>
       </c>
       <c r="F4134" t="n">
-        <v>5.75</v>
+        <v>22.120001</v>
       </c>
       <c r="G4134" t="n">
-        <v>3222900</v>
+        <v>2473900</v>
       </c>
     </row>
     <row r="4135">
       <c r="A4135" s="2" t="n">
-        <v>43980</v>
+        <v>44253</v>
       </c>
       <c r="B4135" t="n">
-        <v>5.75</v>
+        <v>21.65</v>
       </c>
       <c r="C4135" t="n">
-        <v>5.77</v>
+        <v>22.290001</v>
       </c>
       <c r="D4135" t="n">
-        <v>5.56</v>
+        <v>21.35</v>
       </c>
       <c r="E4135" t="n">
-        <v>5.71</v>
+        <v>21.99</v>
       </c>
       <c r="F4135" t="n">
-        <v>5.71</v>
+        <v>21.99</v>
       </c>
       <c r="G4135" t="n">
-        <v>2091000</v>
+        <v>1865500</v>
       </c>
     </row>
     <row r="4136">
       <c r="A4136" s="2" t="n">
-        <v>43983</v>
+        <v>44256</v>
       </c>
       <c r="B4136" t="n">
-        <v>5.88</v>
+        <v>22.459999</v>
       </c>
       <c r="C4136" t="n">
-        <v>6.12</v>
+        <v>22.629999</v>
       </c>
       <c r="D4136" t="n">
-        <v>5.86</v>
+        <v>22.23</v>
       </c>
       <c r="E4136" t="n">
-        <v>6.06</v>
+        <v>22.57</v>
       </c>
       <c r="F4136" t="n">
-        <v>6.06</v>
+        <v>22.57</v>
       </c>
       <c r="G4136" t="n">
-        <v>2692500</v>
+        <v>1130000</v>
       </c>
     </row>
     <row r="4137">
       <c r="A4137" s="2" t="n">
-        <v>43984</v>
+        <v>44257</v>
       </c>
       <c r="B4137" t="n">
-        <v>6.5</v>
+        <v>23</v>
       </c>
       <c r="C4137" t="n">
-        <v>6.74</v>
+        <v>23.610001</v>
       </c>
       <c r="D4137" t="n">
-        <v>6.41</v>
+        <v>22.98</v>
       </c>
       <c r="E4137" t="n">
-        <v>6.61</v>
+        <v>23.35</v>
       </c>
       <c r="F4137" t="n">
-        <v>6.61</v>
+        <v>23.35</v>
       </c>
       <c r="G4137" t="n">
-        <v>5490400</v>
+        <v>2149600</v>
       </c>
     </row>
     <row r="4138">
       <c r="A4138" s="2" t="n">
-        <v>43985</v>
+        <v>44258</v>
       </c>
       <c r="B4138" t="n">
-        <v>6.84</v>
+        <v>23.450001</v>
       </c>
       <c r="C4138" t="n">
-        <v>6.9</v>
+        <v>23.700001</v>
       </c>
       <c r="D4138" t="n">
-        <v>6.72</v>
+        <v>23.190001</v>
       </c>
       <c r="E4138" t="n">
-        <v>6.81</v>
+        <v>23.42</v>
       </c>
       <c r="F4138" t="n">
-        <v>6.81</v>
+        <v>23.42</v>
       </c>
       <c r="G4138" t="n">
-        <v>3395400</v>
+        <v>1723400</v>
       </c>
     </row>
     <row r="4139">
       <c r="A4139" s="2" t="n">
-        <v>43986</v>
+        <v>44259</v>
       </c>
       <c r="B4139" t="n">
-        <v>6.69</v>
+        <v>23.23</v>
       </c>
       <c r="C4139" t="n">
-        <v>6.81</v>
+        <v>23.530001</v>
       </c>
       <c r="D4139" t="n">
-        <v>6.63</v>
+        <v>22.16</v>
       </c>
       <c r="E4139" t="n">
-        <v>6.68</v>
+        <v>22.5</v>
       </c>
       <c r="F4139" t="n">
-        <v>6.68</v>
+        <v>22.5</v>
       </c>
       <c r="G4139" t="n">
-        <v>3440000</v>
+        <v>2817800</v>
       </c>
     </row>
     <row r="4140">
       <c r="A4140" s="2" t="n">
-        <v>43987</v>
+        <v>44260</v>
       </c>
       <c r="B4140" t="n">
-        <v>7.35</v>
+        <v>22.35</v>
       </c>
       <c r="C4140" t="n">
-        <v>7.73</v>
+        <v>22.48</v>
       </c>
       <c r="D4140" t="n">
-        <v>7.35</v>
+        <v>21.309999</v>
       </c>
       <c r="E4140" t="n">
-        <v>7.45</v>
+        <v>22.32</v>
       </c>
       <c r="F4140" t="n">
-        <v>7.45</v>
+        <v>22.32</v>
       </c>
       <c r="G4140" t="n">
-        <v>4313300</v>
+        <v>3037100</v>
       </c>
     </row>
     <row r="4141">
       <c r="A4141" s="2" t="n">
-        <v>43990</v>
+        <v>44263</v>
       </c>
       <c r="B4141" t="n">
-        <v>7.87</v>
+        <v>21.85</v>
       </c>
       <c r="C4141" t="n">
-        <v>7.87</v>
+        <v>22.110001</v>
       </c>
       <c r="D4141" t="n">
-        <v>7.68</v>
+        <v>21.49</v>
       </c>
       <c r="E4141" t="n">
-        <v>7.8</v>
+        <v>21.67</v>
       </c>
       <c r="F4141" t="n">
-        <v>7.8</v>
+        <v>21.67</v>
       </c>
       <c r="G4141" t="n">
-        <v>3389100</v>
+        <v>1419800</v>
       </c>
     </row>
     <row r="4142">
       <c r="A4142" s="2" t="n">
-        <v>43991</v>
+        <v>44264</v>
       </c>
       <c r="B4142" t="n">
-        <v>7.44</v>
+        <v>21.67</v>
       </c>
       <c r="C4142" t="n">
-        <v>7.48</v>
+        <v>21.9</v>
       </c>
       <c r="D4142" t="n">
-        <v>7.25</v>
+        <v>21.42</v>
       </c>
       <c r="E4142" t="n">
-        <v>7.32</v>
+        <v>21.74</v>
       </c>
       <c r="F4142" t="n">
-        <v>7.32</v>
+        <v>21.74</v>
       </c>
       <c r="G4142" t="n">
-        <v>2768900</v>
+        <v>1086900</v>
       </c>
     </row>
     <row r="4143">
       <c r="A4143" s="2" t="n">
-        <v>43992</v>
+        <v>44265</v>
       </c>
       <c r="B4143" t="n">
-        <v>7.4</v>
+        <v>22.040001</v>
       </c>
       <c r="C4143" t="n">
-        <v>7.44</v>
+        <v>22.23</v>
       </c>
       <c r="D4143" t="n">
-        <v>7.01</v>
+        <v>21.620001</v>
       </c>
       <c r="E4143" t="n">
-        <v>7.21</v>
+        <v>21.91</v>
       </c>
       <c r="F4143" t="n">
-        <v>7.21</v>
+        <v>21.91</v>
       </c>
       <c r="G4143" t="n">
-        <v>3340600</v>
+        <v>808600</v>
       </c>
     </row>
     <row r="4144">
       <c r="A4144" s="2" t="n">
-        <v>43993</v>
+        <v>44266</v>
       </c>
       <c r="B4144" t="n">
-        <v>6.72</v>
+        <v>22.15</v>
       </c>
       <c r="C4144" t="n">
-        <v>6.83</v>
+        <v>22.530001</v>
       </c>
       <c r="D4144" t="n">
-        <v>6.5</v>
+        <v>22.030001</v>
       </c>
       <c r="E4144" t="n">
-        <v>6.55</v>
+        <v>22.469999</v>
       </c>
       <c r="F4144" t="n">
-        <v>6.55</v>
+        <v>22.469999</v>
       </c>
       <c r="G4144" t="n">
-        <v>3465300</v>
+        <v>831200</v>
       </c>
     </row>
     <row r="4145">
       <c r="A4145" s="2" t="n">
-        <v>43994</v>
+        <v>44267</v>
       </c>
       <c r="B4145" t="n">
-        <v>7.19</v>
+        <v>21.799999</v>
       </c>
       <c r="C4145" t="n">
-        <v>7.19</v>
+        <v>22.42</v>
       </c>
       <c r="D4145" t="n">
-        <v>6.76</v>
+        <v>21.629999</v>
       </c>
       <c r="E4145" t="n">
-        <v>7</v>
+        <v>21.969999</v>
       </c>
       <c r="F4145" t="n">
-        <v>7</v>
+        <v>21.969999</v>
       </c>
       <c r="G4145" t="n">
-        <v>2880700</v>
+        <v>1812600</v>
       </c>
     </row>
     <row r="4146">
       <c r="A4146" s="2" t="n">
-        <v>43997</v>
+        <v>44270</v>
       </c>
       <c r="B4146" t="n">
-        <v>6.45</v>
+        <v>21.83</v>
       </c>
       <c r="C4146" t="n">
-        <v>6.73</v>
+        <v>21.93</v>
       </c>
       <c r="D4146" t="n">
-        <v>6.36</v>
+        <v>21.610001</v>
       </c>
       <c r="E4146" t="n">
-        <v>6.71</v>
+        <v>21.889999</v>
       </c>
       <c r="F4146" t="n">
-        <v>6.71</v>
+        <v>21.889999</v>
       </c>
       <c r="G4146" t="n">
-        <v>2961300</v>
+        <v>689400</v>
       </c>
     </row>
     <row r="4147">
       <c r="A4147" s="2" t="n">
-        <v>43998</v>
+        <v>44271</v>
       </c>
       <c r="B4147" t="n">
-        <v>6.58</v>
+        <v>21.93</v>
       </c>
       <c r="C4147" t="n">
-        <v>6.6</v>
+        <v>22.01</v>
       </c>
       <c r="D4147" t="n">
-        <v>6.23</v>
+        <v>21.58</v>
       </c>
       <c r="E4147" t="n">
-        <v>6.31</v>
+        <v>21.879999</v>
       </c>
       <c r="F4147" t="n">
-        <v>6.31</v>
+        <v>21.879999</v>
       </c>
       <c r="G4147" t="n">
-        <v>5464700</v>
-      </c>
-    </row>
-    <row r="4148">
-      <c r="A4148" s="2" t="n">
-        <v>43999</v>
-      </c>
-      <c r="B4148" t="n">
-        <v>6.33</v>
-      </c>
-      <c r="C4148" t="n">
-        <v>6.35</v>
-      </c>
-      <c r="D4148" t="n">
-        <v>6.17</v>
-      </c>
-      <c r="E4148" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="F4148" t="n">
-        <v>6.19</v>
-      </c>
-      <c r="G4148" t="n">
-        <v>2059800</v>
-      </c>
-    </row>
-    <row r="4149">
-      <c r="A4149" s="2" t="n">
-        <v>44000</v>
-      </c>
-      <c r="B4149" t="n">
-        <v>6.24</v>
-      </c>
-      <c r="C4149" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="D4149" t="n">
-        <v>6.18</v>
-      </c>
-      <c r="E4149" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="F4149" t="n">
-        <v>6.37</v>
-      </c>
-      <c r="G4149" t="n">
-        <v>1754400</v>
-      </c>
-    </row>
-    <row r="4150">
-      <c r="A4150" s="2" t="n">
-        <v>44001</v>
-      </c>
-      <c r="B4150" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="C4150" t="n">
-        <v>6.74</v>
-      </c>
-      <c r="D4150" t="n">
-        <v>6.46</v>
-      </c>
-      <c r="E4150" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="F4150" t="n">
-        <v>6.59</v>
-      </c>
-      <c r="G4150" t="n">
-        <v>4810500</v>
-      </c>
-    </row>
-    <row r="4151">
-      <c r="A4151" s="2" t="n">
-        <v>44004</v>
-      </c>
-      <c r="B4151" t="n">
-        <v>6.73</v>
-      </c>
-      <c r="C4151" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="D4151" t="n">
-        <v>6.69</v>
-      </c>
-      <c r="E4151" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="F4151" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="G4151" t="n">
-        <v>2759300</v>
-      </c>
-    </row>
-    <row r="4152">
-      <c r="A4152" s="2" t="n">
-        <v>44005</v>
-      </c>
-      <c r="B4152" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C4152" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="D4152" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="E4152" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="F4152" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="G4152" t="n">
-        <v>1798700</v>
-      </c>
-    </row>
-    <row r="4153">
-      <c r="A4153" s="2" t="n">
-        <v>44006</v>
-      </c>
-      <c r="B4153" t="n">
-        <v>6.84</v>
-      </c>
-      <c r="C4153" t="n">
-        <v>6.92</v>
-      </c>
-      <c r="D4153" t="n">
-        <v>6.61</v>
-      </c>
-      <c r="E4153" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="F4153" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G4153" t="n">
-        <v>2100800</v>
-      </c>
-    </row>
-    <row r="4154">
-      <c r="A4154" s="2" t="n">
-        <v>44007</v>
-      </c>
-      <c r="B4154" t="n">
-        <v>6.56</v>
-      </c>
-      <c r="C4154" t="n">
-        <v>7.07</v>
-      </c>
-      <c r="D4154" t="n">
-        <v>6.54</v>
-      </c>
-      <c r="E4154" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F4154" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="G4154" t="n">
-        <v>3722400</v>
-      </c>
-    </row>
-    <row r="4155">
-      <c r="A4155" s="2" t="n">
-        <v>44008</v>
-      </c>
-      <c r="B4155" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="C4155" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="D4155" t="n">
-        <v>6.41</v>
-      </c>
-      <c r="E4155" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="F4155" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="G4155" t="n">
-        <v>2969900</v>
-      </c>
-    </row>
-    <row r="4156">
-      <c r="A4156" s="2" t="n">
-        <v>44011</v>
-      </c>
-      <c r="B4156" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="C4156" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="D4156" t="n">
-        <v>6.51</v>
-      </c>
-      <c r="E4156" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="F4156" t="n">
-        <v>6.71</v>
-      </c>
-      <c r="G4156" t="n">
-        <v>2294900</v>
-      </c>
-    </row>
-    <row r="4157">
-      <c r="A4157" s="2" t="n">
-        <v>44012</v>
-      </c>
-      <c r="B4157" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C4157" t="n">
-        <v>6.65</v>
-      </c>
-      <c r="D4157" t="n">
-        <v>6.5</v>
-      </c>
-      <c r="E4157" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="F4157" t="n">
-        <v>6.57</v>
-      </c>
-      <c r="G4157" t="n">
-        <v>2088100</v>
-      </c>
-    </row>
-    <row r="4158">
-      <c r="A4158" s="2" t="n">
-        <v>44013</v>
-      </c>
-      <c r="B4158" t="n">
-        <v>6.64</v>
-      </c>
-      <c r="C4158" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="D4158" t="n">
-        <v>6.6</v>
-      </c>
-      <c r="E4158" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="F4158" t="n">
-        <v>6.68</v>
-      </c>
-      <c r="G4158" t="n">
-        <v>1585000</v>
-      </c>
-    </row>
-    <row r="4159">
-      <c r="A4159" s="2" t="n">
-        <v>44014</v>
-      </c>
-      <c r="B4159" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="C4159" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="D4159" t="n">
-        <v>6.67</v>
-      </c>
-      <c r="E4159" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="F4159" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="G4159" t="n">
-        <v>2351600</v>
-      </c>
-    </row>
-    <row r="4160">
-      <c r="A4160" s="2" t="n">
-        <v>44018</v>
-      </c>
-      <c r="B4160" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="C4160" t="n">
-        <v>7.68</v>
-      </c>
-      <c r="D4160" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="E4160" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="F4160" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="G4160" t="n">
-        <v>5077500</v>
-      </c>
-    </row>
-    <row r="4161">
-      <c r="A4161" s="2" t="n">
-        <v>44019</v>
-      </c>
-      <c r="B4161" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C4161" t="n">
-        <v>7.44</v>
-      </c>
-      <c r="D4161" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="E4161" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="F4161" t="n">
-        <v>7.32</v>
-      </c>
-      <c r="G4161" t="n">
-        <v>1625000</v>
-      </c>
-    </row>
-    <row r="4162">
-      <c r="A4162" s="2" t="n">
-        <v>44020</v>
-      </c>
-      <c r="B4162" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="C4162" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="D4162" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E4162" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="F4162" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="G4162" t="n">
-        <v>1809800</v>
-      </c>
-    </row>
-    <row r="4163">
-      <c r="A4163" s="2" t="n">
-        <v>44021</v>
-      </c>
-      <c r="B4163" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="C4163" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D4163" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="E4163" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="F4163" t="n">
-        <v>7.23</v>
-      </c>
-      <c r="G4163" t="n">
-        <v>2636500</v>
-      </c>
-    </row>
-    <row r="4164">
-      <c r="A4164" s="2" t="n">
-        <v>44022</v>
-      </c>
-      <c r="B4164" t="n">
-        <v>7.21</v>
-      </c>
-      <c r="C4164" t="n">
-        <v>7.43</v>
-      </c>
-      <c r="D4164" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="E4164" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F4164" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="G4164" t="n">
-        <v>2402000</v>
-      </c>
-    </row>
-    <row r="4165">
-      <c r="A4165" s="2" t="n">
-        <v>44025</v>
-      </c>
-      <c r="B4165" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="C4165" t="n">
-        <v>7.39</v>
-      </c>
-      <c r="D4165" t="n">
-        <v>7.08</v>
-      </c>
-      <c r="E4165" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="F4165" t="n">
-        <v>7.09</v>
-      </c>
-      <c r="G4165" t="n">
-        <v>1586700</v>
-      </c>
-    </row>
-    <row r="4166">
-      <c r="A4166" s="2" t="n">
-        <v>44026</v>
-      </c>
-      <c r="B4166" t="n">
-        <v>6.98</v>
-      </c>
-      <c r="C4166" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="D4166" t="n">
-        <v>6.8</v>
-      </c>
-      <c r="E4166" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4166" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G4166" t="n">
-        <v>1662800</v>
-      </c>
-    </row>
-    <row r="4167">
-      <c r="A4167" s="2" t="n">
-        <v>44027</v>
-      </c>
-      <c r="B4167" t="n">
-        <v>7</v>
-      </c>
-      <c r="C4167" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="D4167" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="E4167" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="F4167" t="n">
-        <v>7.02</v>
-      </c>
-      <c r="G4167" t="n">
-        <v>1713300</v>
-      </c>
-    </row>
-    <row r="4168">
-      <c r="A4168" s="2" t="n">
-        <v>44028</v>
-      </c>
-      <c r="B4168" t="n">
-        <v>6.9</v>
-      </c>
-      <c r="C4168" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="D4168" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="E4168" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="F4168" t="n">
-        <v>6.91</v>
-      </c>
-      <c r="G4168" t="n">
-        <v>1251900</v>
-      </c>
-    </row>
-    <row r="4169">
-      <c r="A4169" s="2" t="n">
-        <v>44029</v>
-      </c>
-      <c r="B4169" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C4169" t="n">
-        <v>7.18</v>
-      </c>
-      <c r="D4169" t="n">
-        <v>6.93</v>
-      </c>
-      <c r="E4169" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="F4169" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="G4169" t="n">
-        <v>2364000</v>
-      </c>
-    </row>
-    <row r="4170">
-      <c r="A4170" s="2" t="n">
-        <v>44032</v>
-      </c>
-      <c r="B4170" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="C4170" t="n">
-        <v>7.13</v>
-      </c>
-      <c r="D4170" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="E4170" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F4170" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="G4170" t="n">
-        <v>1124900</v>
-      </c>
-    </row>
-    <row r="4171">
-      <c r="A4171" s="2" t="n">
-        <v>44033</v>
-      </c>
-      <c r="B4171" t="n">
-        <v>7.37</v>
-      </c>
-      <c r="C4171" t="n">
-        <v>7.59</v>
-      </c>
-      <c r="D4171" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="E4171" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="F4171" t="n">
-        <v>7.35</v>
-      </c>
-      <c r="G4171" t="n">
-        <v>3050600</v>
-      </c>
-    </row>
-    <row r="4172">
-      <c r="A4172" s="2" t="n">
-        <v>44034</v>
-      </c>
-      <c r="B4172" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="C4172" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="D4172" t="n">
-        <v>7.1</v>
-      </c>
-      <c r="E4172" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="F4172" t="n">
-        <v>7.14</v>
-      </c>
-      <c r="G4172" t="n">
-        <v>1502300</v>
-      </c>
-    </row>
-    <row r="4173">
-      <c r="A4173" s="2" t="n">
-        <v>44035</v>
-      </c>
-      <c r="B4173" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="C4173" t="n">
-        <v>7.16</v>
-      </c>
-      <c r="D4173" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="E4173" t="n">
-        <v>7</v>
-      </c>
-      <c r="F4173" t="n">
-        <v>7</v>
-      </c>
-      <c r="G4173" t="n">
-        <v>1369100</v>
-      </c>
-    </row>
-    <row r="4174">
-      <c r="A4174" s="2" t="n">
-        <v>44036</v>
-      </c>
-      <c r="B4174" t="n">
-        <v>6.89</v>
-      </c>
-      <c r="C4174" t="n">
-        <v>6.95</v>
-      </c>
-      <c r="D4174" t="n">
-        <v>6.83</v>
-      </c>
-      <c r="E4174" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="F4174" t="n">
-        <v>6.87</v>
-      </c>
-      <c r="G4174" t="n">
-        <v>1540500</v>
-      </c>
-    </row>
-    <row r="4175">
-      <c r="A4175" s="2" t="n">
-        <v>44039</v>
-      </c>
-      <c r="B4175" t="n">
-        <v>6.85</v>
-      </c>
-      <c r="C4175" t="n">
-        <v>6.86</v>
-      </c>
-      <c r="D4175" t="n">
-        <v>6.75</v>
-      </c>
-      <c r="E4175" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="F4175" t="n">
-        <v>6.79</v>
-      </c>
-      <c r="G4175" t="n">
-        <v>1191700</v>
-      </c>
-    </row>
-    <row r="4176">
-      <c r="A4176" s="2" t="n">
-        <v>44040</v>
-      </c>
-      <c r="B4176" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="C4176" t="n">
-        <v>7.33</v>
-      </c>
-      <c r="D4176" t="n">
-        <v>7.04</v>
-      </c>
-      <c r="E4176" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="F4176" t="n">
-        <v>7.24</v>
-      </c>
-      <c r="G4176" t="n">
-        <v>3430300</v>
-      </c>
-    </row>
-    <row r="4177">
-      <c r="A4177" s="2" t="n">
-        <v>44041</v>
-      </c>
-      <c r="B4177" t="n">
-        <v>7.11</v>
-      </c>
-      <c r="C4177" t="n">
-        <v>7.17</v>
-      </c>
-      <c r="D4177" t="n">
-        <v>7</v>
-      </c>
-      <c r="E4177" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="F4177" t="n">
-        <v>7.12</v>
-      </c>
-      <c r="G4177" t="n">
-        <v>1269000</v>
-      </c>
-    </row>
-    <row r="4178">
-      <c r="A4178" s="2" t="n">
-        <v>44042</v>
-      </c>
-      <c r="B4178" t="n">
-        <v>6.96</v>
-      </c>
-      <c r="C4178" t="n">
-        <v>7.05</v>
-      </c>
-      <c r="D4178" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E4178" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="F4178" t="n">
-        <v>7.03</v>
-      </c>
-      <c r="G4178" t="n">
-        <v>2721400</v>
-      </c>
-    </row>
-    <row r="4179">
-      <c r="A4179" s="2" t="n">
-        <v>44043</v>
-      </c>
-      <c r="B4179" t="n">
-        <v>7.06</v>
-      </c>
-      <c r="C4179" t="n">
-        <v>7.3</v>
-      </c>
-      <c r="D4179" t="n">
-        <v>6.78</v>
-      </c>
-      <c r="E4179" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="F4179" t="n">
-        <v>6.82</v>
-      </c>
-      <c r="G4179" t="n">
-        <v>2814700</v>
-      </c>
-    </row>
-    <row r="4180">
-      <c r="A4180" s="2" t="n">
-        <v>44046</v>
-      </c>
-      <c r="B4180" t="n">
-        <v>7.4</v>
-      </c>
-      <c r="C4180" t="n">
-        <v>7.53</v>
-      </c>
-      <c r="D4180" t="n">
-        <v>7.31</v>
-      </c>
-      <c r="E4180" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="F4180" t="n">
-        <v>7.45</v>
-      </c>
-      <c r="G4180" t="n">
-        <v>3171000</v>
-      </c>
-    </row>
-    <row r="4181">
-      <c r="A4181" s="2" t="n">
-        <v>44047</v>
-      </c>
-      <c r="B4181" t="n">
-        <v>7.41</v>
-      </c>
-      <c r="C4181" t="n">
-        <v>7.6</v>
-      </c>
-      <c r="D4181" t="n">
-        <v>7.34</v>
-      </c>
-      <c r="E4181" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="F4181" t="n">
-        <v>7.54</v>
-      </c>
-      <c r="G4181" t="n">
-        <v>1710200</v>
-      </c>
-    </row>
-    <row r="4182">
-      <c r="A4182" s="2" t="n">
-        <v>44048</v>
-      </c>
-      <c r="B4182" t="n">
-        <v>7.74</v>
-      </c>
-      <c r="C4182" t="n">
-        <v>7.86</v>
-      </c>
-      <c r="D4182" t="n">
-        <v>7.72</v>
-      </c>
-      <c r="E4182" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="F4182" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="G4182" t="n">
-        <v>1763500</v>
-      </c>
-    </row>
-    <row r="4183">
-      <c r="A4183" s="2" t="n">
-        <v>44049</v>
-      </c>
-      <c r="B4183" t="n">
-        <v>7.82</v>
-      </c>
-      <c r="C4183" t="n">
-        <v>7.89</v>
-      </c>
-      <c r="D4183" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="E4183" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="F4183" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="G4183" t="n">
-        <v>919300</v>
-      </c>
-    </row>
-    <row r="4184">
-      <c r="A4184" s="2" t="n">
-        <v>44050</v>
-      </c>
-      <c r="B4184" t="n">
-        <v>7.85</v>
-      </c>
-      <c r="C4184" t="n">
-        <v>7.94</v>
-      </c>
-      <c r="D4184" t="n">
-        <v>7.81</v>
-      </c>
-      <c r="E4184" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="F4184" t="n">
-        <v>7.92</v>
-      </c>
-      <c r="G4184" t="n">
-        <v>1571400</v>
-      </c>
-    </row>
-    <row r="4185">
-      <c r="A4185" s="2" t="n">
-        <v>44053</v>
-      </c>
-      <c r="B4185" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="C4185" t="n">
-        <v>8.25</v>
-      </c>
-      <c r="D4185" t="n">
-        <v>7.99</v>
-      </c>
-      <c r="E4185" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F4185" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G4185" t="n">
-        <v>2599400</v>
-      </c>
-    </row>
-    <row r="4186">
-      <c r="A4186" s="2" t="n">
-        <v>44054</v>
-      </c>
-      <c r="B4186" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="C4186" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="D4186" t="n">
-        <v>8.07</v>
-      </c>
-      <c r="E4186" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="F4186" t="n">
-        <v>8.1</v>
-      </c>
-      <c r="G4186" t="n">
-        <v>1478000</v>
-      </c>
-    </row>
-    <row r="4187">
-      <c r="A4187" s="2" t="n">
-        <v>44055</v>
-      </c>
-      <c r="B4187" t="n">
-        <v>8.44</v>
-      </c>
-      <c r="C4187" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="D4187" t="n">
-        <v>8.35</v>
-      </c>
-      <c r="E4187" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="F4187" t="n">
-        <v>8.380000000000001</v>
-      </c>
-      <c r="G4187" t="n">
-        <v>1393400</v>
-      </c>
-    </row>
-    <row r="4188">
-      <c r="A4188" s="2" t="n">
-        <v>44056</v>
-      </c>
-      <c r="B4188" t="n">
-        <v>8.630000000000001</v>
-      </c>
-      <c r="C4188" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="D4188" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="E4188" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="F4188" t="n">
-        <v>8.720000000000001</v>
-      </c>
-      <c r="G4188" t="n">
-        <v>2018100</v>
-      </c>
-    </row>
-    <row r="4189">
-      <c r="A4189" s="2" t="n">
-        <v>44057</v>
-      </c>
-      <c r="B4189" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="C4189" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="D4189" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="E4189" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="F4189" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="G4189" t="n">
-        <v>2103800</v>
-      </c>
-    </row>
-    <row r="4190">
-      <c r="A4190" s="2" t="n">
-        <v>44060</v>
-      </c>
-      <c r="B4190" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="C4190" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D4190" t="n">
-        <v>8.140000000000001</v>
-      </c>
-      <c r="E4190" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="F4190" t="n">
-        <v>8.210000000000001</v>
-      </c>
-      <c r="G4190" t="n">
-        <v>1065800</v>
-      </c>
-    </row>
-    <row r="4191">
-      <c r="A4191" s="2" t="n">
-        <v>44061</v>
-      </c>
-      <c r="B4191" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="C4191" t="n">
-        <v>8.470000000000001</v>
-      </c>
-      <c r="D4191" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E4191" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="F4191" t="n">
-        <v>8.390000000000001</v>
-      </c>
-      <c r="G4191" t="n">
-        <v>1075800</v>
-      </c>
-    </row>
-    <row r="4192">
-      <c r="A4192" s="2" t="n">
-        <v>44062</v>
-      </c>
-      <c r="B4192" t="n">
-        <v>8.32</v>
-      </c>
-      <c r="C4192" t="n">
-        <v>8.41</v>
-      </c>
-      <c r="D4192" t="n">
-        <v>8.300000000000001</v>
-      </c>
-      <c r="E4192" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="F4192" t="n">
-        <v>8.33</v>
-      </c>
-      <c r="G4192" t="n">
-        <v>872100</v>
-      </c>
-    </row>
-    <row r="4193">
-      <c r="A4193" s="2" t="n">
-        <v>44063</v>
-      </c>
-      <c r="B4193" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C4193" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="D4193" t="n">
-        <v>8.050000000000001</v>
-      </c>
-      <c r="E4193" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="F4193" t="n">
-        <v>8.220000000000001</v>
-      </c>
-      <c r="G4193" t="n">
-        <v>804400</v>
-      </c>
-    </row>
-    <row r="4194">
-      <c r="A4194" s="2" t="n">
-        <v>44064</v>
-      </c>
-      <c r="B4194" t="n">
-        <v>8.08</v>
-      </c>
-      <c r="C4194" t="n">
-        <v>8.16</v>
-      </c>
-      <c r="D4194" t="n">
-        <v>8.06</v>
-      </c>
-      <c r="E4194" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="F4194" t="n">
-        <v>8.119999999999999</v>
-      </c>
-      <c r="G4194" t="n">
-        <v>1047600</v>
-      </c>
-    </row>
-    <row r="4195">
-      <c r="A4195" s="2" t="n">
-        <v>44067</v>
-      </c>
-      <c r="B4195" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="C4195" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="D4195" t="n">
-        <v>8.18</v>
-      </c>
-      <c r="E4195" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="F4195" t="n">
-        <v>8.24</v>
-      </c>
-      <c r="G4195" t="n">
-        <v>816100</v>
-      </c>
-    </row>
-    <row r="4196">
-      <c r="A4196" s="2" t="n">
-        <v>44068</v>
-      </c>
-      <c r="B4196" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="C4196" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="D4196" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="E4196" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="F4196" t="n">
-        <v>8.67</v>
-      </c>
-      <c r="G4196" t="n">
-        <v>1734100</v>
-      </c>
-    </row>
-    <row r="4197">
-      <c r="A4197" s="2" t="n">
-        <v>44069</v>
-      </c>
-      <c r="B4197" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="C4197" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="D4197" t="n">
-        <v>9.25</v>
-      </c>
-      <c r="E4197" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F4197" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="G4197" t="n">
-        <v>5621200</v>
-      </c>
-    </row>
-    <row r="4198">
-      <c r="A4198" s="2" t="n">
-        <v>44070</v>
-      </c>
-      <c r="B4198" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="C4198" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="D4198" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="E4198" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="F4198" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="G4198" t="n">
-        <v>2091000</v>
-      </c>
-    </row>
-    <row r="4199">
-      <c r="A4199" s="2" t="n">
-        <v>44071</v>
-      </c>
-      <c r="B4199" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="C4199" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="D4199" t="n">
-        <v>9.66</v>
-      </c>
-      <c r="E4199" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="F4199" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="G4199" t="n">
-        <v>1099300</v>
-      </c>
-    </row>
-    <row r="4200">
-      <c r="A4200" s="2" t="n">
-        <v>44074</v>
-      </c>
-      <c r="B4200" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="C4200" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="D4200" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E4200" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="F4200" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="G4200" t="n">
-        <v>1436200</v>
-      </c>
-    </row>
-    <row r="4201">
-      <c r="A4201" s="2" t="n">
-        <v>44075</v>
-      </c>
-      <c r="B4201" t="n">
-        <v>9.74</v>
-      </c>
-      <c r="C4201" t="n">
-        <v>9.869999999999999</v>
-      </c>
-      <c r="D4201" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="E4201" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="F4201" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="G4201" t="n">
-        <v>1526300</v>
-      </c>
-    </row>
-    <row r="4202">
-      <c r="A4202" s="2" t="n">
-        <v>44076</v>
-      </c>
-      <c r="B4202" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="C4202" t="n">
-        <v>10.3</v>
-      </c>
-      <c r="D4202" t="n">
-        <v>9.91</v>
-      </c>
-      <c r="E4202" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F4202" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="G4202" t="n">
-        <v>2307300</v>
-      </c>
-    </row>
-    <row r="4203">
-      <c r="A4203" s="2" t="n">
-        <v>44077</v>
-      </c>
-      <c r="B4203" t="n">
-        <v>10.23</v>
-      </c>
-      <c r="C4203" t="n">
-        <v>10.24</v>
-      </c>
-      <c r="D4203" t="n">
-        <v>9.77</v>
-      </c>
-      <c r="E4203" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="F4203" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="G4203" t="n">
-        <v>3736600</v>
-      </c>
-    </row>
-    <row r="4204">
-      <c r="A4204" s="2" t="n">
-        <v>44078</v>
-      </c>
-      <c r="B4204" t="n">
-        <v>10</v>
-      </c>
-      <c r="C4204" t="n">
-        <v>10.15</v>
-      </c>
-      <c r="D4204" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="E4204" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="F4204" t="n">
-        <v>10.1</v>
-      </c>
-      <c r="G4204" t="n">
-        <v>1741200</v>
-      </c>
-    </row>
-    <row r="4205">
-      <c r="A4205" s="2" t="n">
-        <v>44082</v>
-      </c>
-      <c r="B4205" t="n">
-        <v>9.470000000000001</v>
-      </c>
-      <c r="C4205" t="n">
-        <v>9.779999999999999</v>
-      </c>
-      <c r="D4205" t="n">
-        <v>9.359999999999999</v>
-      </c>
-      <c r="E4205" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="F4205" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="G4205" t="n">
-        <v>2336200</v>
-      </c>
-    </row>
-    <row r="4206">
-      <c r="A4206" s="2" t="n">
-        <v>44083</v>
-      </c>
-      <c r="B4206" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C4206" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D4206" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E4206" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F4206" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="G4206" t="n">
-        <v>1313500</v>
-      </c>
-    </row>
-    <row r="4207">
-      <c r="A4207" s="2" t="n">
-        <v>44084</v>
-      </c>
-      <c r="B4207" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="C4207" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="D4207" t="n">
-        <v>9.56</v>
-      </c>
-      <c r="E4207" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="F4207" t="n">
-        <v>9.57</v>
-      </c>
-      <c r="G4207" t="n">
-        <v>1584900</v>
-      </c>
-    </row>
-    <row r="4208">
-      <c r="A4208" s="2" t="n">
-        <v>44085</v>
-      </c>
-      <c r="B4208" t="n">
-        <v>9.75</v>
-      </c>
-      <c r="C4208" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D4208" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E4208" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="F4208" t="n">
-        <v>9.710000000000001</v>
-      </c>
-      <c r="G4208" t="n">
-        <v>887700</v>
-      </c>
-    </row>
-    <row r="4209">
-      <c r="A4209" s="2" t="n">
-        <v>44088</v>
-      </c>
-      <c r="B4209" t="n">
-        <v>9.949999999999999</v>
-      </c>
-      <c r="C4209" t="n">
-        <v>10.08</v>
-      </c>
-      <c r="D4209" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E4209" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F4209" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="G4209" t="n">
-        <v>1194900</v>
-      </c>
-    </row>
-    <row r="4210">
-      <c r="A4210" s="2" t="n">
-        <v>44089</v>
-      </c>
-      <c r="B4210" t="n">
-        <v>10.11</v>
-      </c>
-      <c r="C4210" t="n">
-        <v>10.18</v>
-      </c>
-      <c r="D4210" t="n">
-        <v>10.04</v>
-      </c>
-      <c r="E4210" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="F4210" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="G4210" t="n">
-        <v>794500</v>
-      </c>
-    </row>
-    <row r="4211">
-      <c r="A4211" s="2" t="n">
-        <v>44090</v>
-      </c>
-      <c r="B4211" t="n">
-        <v>10.22</v>
-      </c>
-      <c r="C4211" t="n">
-        <v>10.47</v>
-      </c>
-      <c r="D4211" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="E4211" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="F4211" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="G4211" t="n">
-        <v>1578000</v>
-      </c>
-    </row>
-    <row r="4212">
-      <c r="A4212" s="2" t="n">
-        <v>44091</v>
-      </c>
-      <c r="B4212" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="C4212" t="n">
-        <v>10.05</v>
-      </c>
-      <c r="D4212" t="n">
-        <v>9.9</v>
-      </c>
-      <c r="E4212" t="n">
-        <v>10</v>
-      </c>
-      <c r="F4212" t="n">
-        <v>10</v>
-      </c>
-      <c r="G4212" t="n">
-        <v>1174900</v>
-      </c>
-    </row>
-    <row r="4213">
-      <c r="A4213" s="2" t="n">
-        <v>44092</v>
-      </c>
-      <c r="B4213" t="n">
-        <v>10.02</v>
-      </c>
-      <c r="C4213" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="D4213" t="n">
-        <v>9.84</v>
-      </c>
-      <c r="E4213" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="F4213" t="n">
-        <v>9.880000000000001</v>
-      </c>
-      <c r="G4213" t="n">
-        <v>1332800</v>
-      </c>
-    </row>
-    <row r="4214">
-      <c r="A4214" s="2" t="n">
-        <v>44095</v>
-      </c>
-      <c r="B4214" t="n">
-        <v>9.27</v>
-      </c>
-      <c r="C4214" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="D4214" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="E4214" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="F4214" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="G4214" t="n">
-        <v>2163200</v>
-      </c>
-    </row>
-    <row r="4215">
-      <c r="A4215" s="2" t="n">
-        <v>44096</v>
-      </c>
-      <c r="B4215" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="C4215" t="n">
-        <v>9.18</v>
-      </c>
-      <c r="D4215" t="n">
-        <v>9.01</v>
-      </c>
-      <c r="E4215" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="F4215" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="G4215" t="n">
-        <v>1223800</v>
-      </c>
-    </row>
-    <row r="4216">
-      <c r="A4216" s="2" t="n">
-        <v>44097</v>
-      </c>
-      <c r="B4216" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="C4216" t="n">
-        <v>9.050000000000001</v>
-      </c>
-      <c r="D4216" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="E4216" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="F4216" t="n">
-        <v>8.74</v>
-      </c>
-      <c r="G4216" t="n">
-        <v>1782000</v>
-      </c>
-    </row>
-    <row r="4217">
-      <c r="A4217" s="2" t="n">
-        <v>44098</v>
-      </c>
-      <c r="B4217" t="n">
-        <v>8.27</v>
-      </c>
-      <c r="C4217" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="D4217" t="n">
-        <v>8.23</v>
-      </c>
-      <c r="E4217" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="F4217" t="n">
-        <v>8.43</v>
-      </c>
-      <c r="G4217" t="n">
-        <v>1952800</v>
-      </c>
-    </row>
-    <row r="4218">
-      <c r="A4218" s="2" t="n">
-        <v>44099</v>
-      </c>
-      <c r="B4218" t="n">
-        <v>8.56</v>
-      </c>
-      <c r="C4218" t="n">
-        <v>8.66</v>
-      </c>
-      <c r="D4218" t="n">
-        <v>8.51</v>
-      </c>
-      <c r="E4218" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="F4218" t="n">
-        <v>8.65</v>
-      </c>
-      <c r="G4218" t="n">
-        <v>1528200</v>
-      </c>
-    </row>
-    <row r="4219">
-      <c r="A4219" s="2" t="n">
-        <v>44102</v>
-      </c>
-      <c r="B4219" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C4219" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D4219" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="E4219" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="F4219" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="G4219" t="n">
-        <v>1236000</v>
-      </c>
-    </row>
-    <row r="4220">
-      <c r="A4220" s="2" t="n">
-        <v>44103</v>
-      </c>
-      <c r="B4220" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="C4220" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="D4220" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E4220" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="F4220" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="G4220" t="n">
-        <v>645700</v>
-      </c>
-    </row>
-    <row r="4221">
-      <c r="A4221" s="2" t="n">
-        <v>44104</v>
-      </c>
-      <c r="B4221" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="C4221" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="D4221" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E4221" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="F4221" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="G4221" t="n">
-        <v>1099300</v>
-      </c>
-    </row>
-    <row r="4222">
-      <c r="A4222" s="2" t="n">
-        <v>44105</v>
-      </c>
-      <c r="B4222" t="n">
-        <v>9.130000000000001</v>
-      </c>
-      <c r="C4222" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="D4222" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="E4222" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="F4222" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="G4222" t="n">
-        <v>738700</v>
-      </c>
-    </row>
-    <row r="4223">
-      <c r="A4223" s="2" t="n">
-        <v>44106</v>
-      </c>
-      <c r="B4223" t="n">
-        <v>8.960000000000001</v>
-      </c>
-      <c r="C4223" t="n">
-        <v>9.09</v>
-      </c>
-      <c r="D4223" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="E4223" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="F4223" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="G4223" t="n">
-        <v>822300</v>
-      </c>
-    </row>
-    <row r="4224">
-      <c r="A4224" s="2" t="n">
-        <v>44109</v>
-      </c>
-      <c r="B4224" t="n">
-        <v>9.109999999999999</v>
-      </c>
-      <c r="C4224" t="n">
-        <v>9.26</v>
-      </c>
-      <c r="D4224" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="E4224" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="F4224" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="G4224" t="n">
-        <v>703200</v>
-      </c>
-    </row>
-    <row r="4225">
-      <c r="A4225" s="2" t="n">
-        <v>44110</v>
-      </c>
-      <c r="B4225" t="n">
-        <v>9.83</v>
-      </c>
-      <c r="C4225" t="n">
-        <v>9.960000000000001</v>
-      </c>
-      <c r="D4225" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="E4225" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="F4225" t="n">
-        <v>9.699999999999999</v>
-      </c>
-      <c r="G4225" t="n">
-        <v>2148800</v>
-      </c>
-    </row>
-    <row r="4226">
-      <c r="A4226" s="2" t="n">
-        <v>44111</v>
-      </c>
-      <c r="B4226" t="n">
-        <v>9.630000000000001</v>
-      </c>
-      <c r="C4226" t="n">
-        <v>9.789999999999999</v>
-      </c>
-      <c r="D4226" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="E4226" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="F4226" t="n">
-        <v>9.73</v>
-      </c>
-      <c r="G4226" t="n">
-        <v>1308800</v>
-      </c>
-    </row>
-    <row r="4227">
-      <c r="A4227" s="2" t="n">
-        <v>44112</v>
-      </c>
-      <c r="B4227" t="n">
-        <v>9.65</v>
-      </c>
-      <c r="C4227" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="D4227" t="n">
-        <v>9.59</v>
-      </c>
-      <c r="E4227" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="F4227" t="n">
-        <v>9.67</v>
-      </c>
-      <c r="G4227" t="n">
-        <v>1134100</v>
-      </c>
-    </row>
-    <row r="4228">
-      <c r="A4228" s="2" t="n">
-        <v>44113</v>
-      </c>
-      <c r="B4228" t="n">
-        <v>9.550000000000001</v>
-      </c>
-      <c r="C4228" t="n">
-        <v>9.6</v>
-      </c>
-      <c r="D4228" t="n">
-        <v>9.449999999999999</v>
-      </c>
-      <c r="E4228" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="F4228" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="G4228" t="n">
-        <v>1004600</v>
-      </c>
-    </row>
-    <row r="4229">
-      <c r="A4229" s="2" t="n">
-        <v>44116</v>
-      </c>
-      <c r="B4229" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="C4229" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D4229" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="E4229" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="F4229" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="G4229" t="n">
-        <v>816100</v>
-      </c>
-    </row>
-    <row r="4230">
-      <c r="A4230" s="2" t="n">
-        <v>44117</v>
-      </c>
-      <c r="B4230" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="C4230" t="n">
-        <v>9.199999999999999</v>
-      </c>
-      <c r="D4230" t="n">
-        <v>9</v>
-      </c>
-      <c r="E4230" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F4230" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="G4230" t="n">
-        <v>1094900</v>
-      </c>
-    </row>
-    <row r="4231">
-      <c r="A4231" s="2" t="n">
-        <v>44118</v>
-      </c>
-      <c r="B4231" t="n">
-        <v>8.949999999999999</v>
-      </c>
-      <c r="C4231" t="n">
-        <v>9.07</v>
-      </c>
-      <c r="D4231" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="E4231" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F4231" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="G4231" t="n">
-        <v>1036100</v>
-      </c>
-    </row>
-    <row r="4232">
-      <c r="A4232" s="2" t="n">
-        <v>44119</v>
-      </c>
-      <c r="B4232" t="n">
-        <v>8.68</v>
-      </c>
-      <c r="C4232" t="n">
-        <v>8.82</v>
-      </c>
-      <c r="D4232" t="n">
-        <v>8.57</v>
-      </c>
-      <c r="E4232" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="F4232" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="G4232" t="n">
-        <v>1779600</v>
-      </c>
-    </row>
-    <row r="4233">
-      <c r="A4233" s="2" t="n">
-        <v>44120</v>
-      </c>
-      <c r="B4233" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="C4233" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="D4233" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="E4233" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="F4233" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="G4233" t="n">
-        <v>814700</v>
-      </c>
-    </row>
-    <row r="4234">
-      <c r="A4234" s="2" t="n">
-        <v>44123</v>
-      </c>
-      <c r="B4234" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="C4234" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="D4234" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="E4234" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="F4234" t="n">
-        <v>8.609999999999999</v>
-      </c>
-      <c r="G4234" t="n">
-        <v>1698400</v>
-      </c>
-    </row>
-    <row r="4235">
-      <c r="A4235" s="2" t="n">
-        <v>44124</v>
-      </c>
-      <c r="B4235" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="C4235" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D4235" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="E4235" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="F4235" t="n">
-        <v>8.92</v>
-      </c>
-      <c r="G4235" t="n">
-        <v>1090600</v>
-      </c>
-    </row>
-    <row r="4236">
-      <c r="A4236" s="2" t="n">
-        <v>44125</v>
-      </c>
-      <c r="B4236" t="n">
-        <v>8.94</v>
-      </c>
-      <c r="C4236" t="n">
-        <v>8.99</v>
-      </c>
-      <c r="D4236" t="n">
-        <v>8.81</v>
-      </c>
-      <c r="E4236" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="F4236" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="G4236" t="n">
-        <v>764500</v>
-      </c>
-    </row>
-    <row r="4237">
-      <c r="A4237" s="2" t="n">
-        <v>44126</v>
-      </c>
-      <c r="B4237" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C4237" t="n">
-        <v>9.140000000000001</v>
-      </c>
-      <c r="D4237" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="E4237" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="F4237" t="n">
-        <v>9.119999999999999</v>
-      </c>
-      <c r="G4237" t="n">
-        <v>1049600</v>
-      </c>
-    </row>
-    <row r="4238">
-      <c r="A4238" s="2" t="n">
-        <v>44127</v>
-      </c>
-      <c r="B4238" t="n">
-        <v>9.300000000000001</v>
-      </c>
-      <c r="C4238" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="D4238" t="n">
-        <v>9.16</v>
-      </c>
-      <c r="E4238" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="F4238" t="n">
-        <v>9.32</v>
-      </c>
-      <c r="G4238" t="n">
-        <v>1158700</v>
-      </c>
-    </row>
-    <row r="4239">
-      <c r="A4239" s="2" t="n">
-        <v>44130</v>
-      </c>
-      <c r="B4239" t="n">
-        <v>9.029999999999999</v>
-      </c>
-      <c r="C4239" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="D4239" t="n">
-        <v>8.890000000000001</v>
-      </c>
-      <c r="E4239" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="F4239" t="n">
-        <v>9.06</v>
-      </c>
-      <c r="G4239" t="n">
-        <v>2141900</v>
-      </c>
-    </row>
-    <row r="4240">
-      <c r="A4240" s="2" t="n">
-        <v>44131</v>
-      </c>
-      <c r="B4240" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="C4240" t="n">
-        <v>9.58</v>
-      </c>
-      <c r="D4240" t="n">
-        <v>9.15</v>
-      </c>
-      <c r="E4240" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="F4240" t="n">
-        <v>9.48</v>
-      </c>
-      <c r="G4240" t="n">
-        <v>1552900</v>
-      </c>
-    </row>
-    <row r="4241">
-      <c r="A4241" s="2" t="n">
-        <v>44132</v>
-      </c>
-      <c r="B4241" t="n">
-        <v>9.02</v>
-      </c>
-      <c r="C4241" t="n">
-        <v>9.039999999999999</v>
-      </c>
-      <c r="D4241" t="n">
-        <v>8.800000000000001</v>
-      </c>
-      <c r="E4241" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="F4241" t="n">
-        <v>8.85</v>
-      </c>
-      <c r="G4241" t="n">
-        <v>2483900</v>
-      </c>
-    </row>
-    <row r="4242">
-      <c r="A4242" s="2" t="n">
-        <v>44133</v>
-      </c>
-      <c r="B4242" t="n">
-        <v>8.84</v>
-      </c>
-      <c r="C4242" t="n">
-        <v>8.98</v>
-      </c>
-      <c r="D4242" t="n">
-        <v>8.73</v>
-      </c>
-      <c r="E4242" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="F4242" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="G4242" t="n">
-        <v>1099900</v>
-      </c>
-    </row>
-    <row r="4243">
-      <c r="A4243" s="2" t="n">
-        <v>44134</v>
-      </c>
-      <c r="B4243" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="C4243" t="n">
-        <v>8.970000000000001</v>
-      </c>
-      <c r="D4243" t="n">
-        <v>8.710000000000001</v>
-      </c>
-      <c r="E4243" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="F4243" t="n">
-        <v>8.77</v>
-      </c>
-      <c r="G4243" t="n">
-        <v>1466700</v>
-      </c>
-    </row>
-    <row r="4244">
-      <c r="A4244" s="2" t="n">
-        <v>44137</v>
-      </c>
-      <c r="B4244" t="n">
-        <v>8.93</v>
-      </c>
-      <c r="C4244" t="n">
-        <v>9.1</v>
-      </c>
-      <c r="D4244" t="n">
-        <v>8.869999999999999</v>
-      </c>
-      <c r="E4244" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="F4244" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="G4244" t="n">
-        <v>1132100</v>
-      </c>
-    </row>
-    <row r="4245">
-      <c r="A4245" s="2" t="n">
-        <v>44138</v>
-      </c>
-      <c r="B4245" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="C4245" t="n">
-        <v>9.41</v>
-      </c>
-      <c r="D4245" t="n">
-        <v>9.08</v>
-      </c>
-      <c r="E4245" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="F4245" t="n">
-        <v>9.289999999999999</v>
-      </c>
-      <c r="G4245" t="n">
-        <v>1957700</v>
-      </c>
-    </row>
-    <row r="4246">
-      <c r="A4246" s="2" t="n">
-        <v>44139</v>
-      </c>
-      <c r="B4246" t="n">
-        <v>9.35</v>
-      </c>
-      <c r="C4246" t="n">
-        <v>9.4</v>
-      </c>
-      <c r="D4246" t="n">
-        <v>9.23</v>
-      </c>
-      <c r="E4246" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="F4246" t="n">
-        <v>9.279999999999999</v>
-      </c>
-      <c r="G4246" t="n">
-        <v>1671800</v>
-      </c>
-    </row>
-    <row r="4247">
-      <c r="A4247" s="2" t="n">
-        <v>44140</v>
-      </c>
-      <c r="B4247" t="n">
-        <v>9.34</v>
-      </c>
-      <c r="C4247" t="n">
-        <v>9.529999999999999</v>
-      </c>
-      <c r="D4247" t="n">
-        <v>9.33</v>
-      </c>
-      <c r="E4247" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="F4247" t="n">
-        <v>9.5</v>
-      </c>
-      <c r="G4247" t="n">
-        <v>1825900</v>
-      </c>
-    </row>
-    <row r="4248">
-      <c r="A4248" s="2" t="n">
-        <v>44141</v>
-      </c>
-      <c r="B4248" t="n">
-        <v>9.51</v>
-      </c>
-      <c r="C4248" t="n">
-        <v>9.539999999999999</v>
-      </c>
-      <c r="D4248" t="n">
-        <v>9.44</v>
-      </c>
-      <c r="E4248" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="F4248" t="n">
-        <v>9.49</v>
-      </c>
-      <c r="G4248" t="n">
-        <v>930600</v>
-      </c>
-    </row>
-    <row r="4249">
-      <c r="A4249" s="2" t="n">
-        <v>44144</v>
-      </c>
-      <c r="B4249" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="C4249" t="n">
-        <v>10.39</v>
-      </c>
-      <c r="D4249" t="n">
-        <v>9.800000000000001</v>
-      </c>
-      <c r="E4249" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="F4249" t="n">
-        <v>10.2</v>
-      </c>
-      <c r="G4249" t="n">
-        <v>2803800</v>
-      </c>
-    </row>
-    <row r="4250">
-      <c r="A4250" s="2" t="n">
-        <v>44145</v>
-      </c>
-      <c r="B4250" t="n">
-        <v>10.09</v>
-      </c>
-      <c r="C4250" t="n">
-        <v>10.28</v>
-      </c>
-      <c r="D4250" t="n">
-        <v>9.94</v>
-      </c>
-      <c r="E4250" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="F4250" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="G4250" t="n">
-        <v>2711400</v>
-      </c>
-    </row>
-    <row r="4251">
-      <c r="A4251" s="2" t="n">
-        <v>44146</v>
-      </c>
-      <c r="B4251" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="C4251" t="n">
-        <v>10.29</v>
-      </c>
-      <c r="D4251" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="E4251" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="F4251" t="n">
-        <v>10.21</v>
-      </c>
-      <c r="G4251" t="n">
-        <v>1342500</v>
-      </c>
-    </row>
-    <row r="4252">
-      <c r="A4252" s="2" t="n">
-        <v>44147</v>
-      </c>
-      <c r="B4252" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="C4252" t="n">
-        <v>10.26</v>
-      </c>
-      <c r="D4252" t="n">
-        <v>9.98</v>
-      </c>
-      <c r="E4252" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="F4252" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="G4252" t="n">
-        <v>1074600</v>
-      </c>
-    </row>
-    <row r="4253">
-      <c r="A4253" s="2" t="n">
-        <v>44148</v>
-      </c>
-      <c r="B4253" t="n">
-        <v>10.07</v>
-      </c>
-      <c r="C4253" t="n">
-        <v>10.13</v>
-      </c>
-      <c r="D4253" t="n">
-        <v>9.85</v>
-      </c>
-      <c r="E4253" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="F4253" t="n">
-        <v>10.03</v>
-      </c>
-      <c r="G4253" t="n">
-        <v>1036500</v>
-      </c>
-    </row>
-    <row r="4254">
-      <c r="A4254" s="2" t="n">
-        <v>44151</v>
-      </c>
-      <c r="B4254" t="n">
-        <v>10.27</v>
-      </c>
-      <c r="C4254" t="n">
-        <v>10.5</v>
-      </c>
-      <c r="D4254" t="n">
-        <v>10.25</v>
-      </c>
-      <c r="E4254" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="F4254" t="n">
-        <v>10.49</v>
-      </c>
-      <c r="G4254" t="n">
-        <v>2901600</v>
-      </c>
-    </row>
-    <row r="4255">
-      <c r="A4255" s="2" t="n">
-        <v>44152</v>
-      </c>
-      <c r="B4255" t="n">
-        <v>10.64</v>
-      </c>
-      <c r="C4255" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="D4255" t="n">
-        <v>10.63</v>
-      </c>
-      <c r="E4255" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="F4255" t="n">
-        <v>10.9</v>
-      </c>
-      <c r="G4255" t="n">
-        <v>2844900</v>
-      </c>
-    </row>
-    <row r="4256">
-      <c r="A4256" s="2" t="n">
-        <v>44153</v>
-      </c>
-      <c r="B4256" t="n">
-        <v>11.49</v>
-      </c>
-      <c r="C4256" t="n">
-        <v>11.93</v>
-      </c>
-      <c r="D4256" t="n">
-        <v>11.47</v>
-      </c>
-      <c r="E4256" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="F4256" t="n">
-        <v>11.63</v>
-      </c>
-      <c r="G4256" t="n">
-        <v>3342300</v>
-      </c>
-    </row>
-    <row r="4257">
-      <c r="A4257" s="2" t="n">
-        <v>44154</v>
-      </c>
-      <c r="B4257" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="C4257" t="n">
-        <v>11.67</v>
-      </c>
-      <c r="D4257" t="n">
-        <v>11.31</v>
-      </c>
-      <c r="E4257" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="F4257" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="G4257" t="n">
-        <v>2651600</v>
-      </c>
-    </row>
-    <row r="4258">
-      <c r="A4258" s="2" t="n">
-        <v>44155</v>
-      </c>
-      <c r="B4258" t="n">
-        <v>11.6</v>
-      </c>
-      <c r="C4258" t="n">
-        <v>11.64</v>
-      </c>
-      <c r="D4258" t="n">
-        <v>11.28</v>
-      </c>
-      <c r="E4258" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="F4258" t="n">
-        <v>11.29</v>
-      </c>
-      <c r="G4258" t="n">
-        <v>1679700</v>
-      </c>
-    </row>
-    <row r="4259">
-      <c r="A4259" s="2" t="n">
-        <v>44158</v>
-      </c>
-      <c r="B4259" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="C4259" t="n">
-        <v>11.57</v>
-      </c>
-      <c r="D4259" t="n">
-        <v>11.32</v>
-      </c>
-      <c r="E4259" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="F4259" t="n">
-        <v>11.46</v>
-      </c>
-      <c r="G4259" t="n">
-        <v>1448100</v>
-      </c>
-    </row>
-    <row r="4260">
-      <c r="A4260" s="2" t="n">
-        <v>44159</v>
-      </c>
-      <c r="B4260" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="C4260" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="D4260" t="n">
-        <v>11.58</v>
-      </c>
-      <c r="E4260" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="F4260" t="n">
-        <v>11.7</v>
-      </c>
-      <c r="G4260" t="n">
-        <v>1344400</v>
-      </c>
-    </row>
-    <row r="4261">
-      <c r="A4261" s="2" t="n">
-        <v>44160</v>
-      </c>
-      <c r="B4261" t="n">
-        <v>11.56</v>
-      </c>
-      <c r="C4261" t="n">
-        <v>11.82</v>
-      </c>
-      <c r="D4261" t="n">
-        <v>11.54</v>
-      </c>
-      <c r="E4261" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="F4261" t="n">
-        <v>11.78</v>
-      </c>
-      <c r="G4261" t="n">
-        <v>2077900</v>
-      </c>
-    </row>
-    <row r="4262">
-      <c r="A4262" s="2" t="n">
-        <v>44162</v>
-      </c>
-      <c r="B4262" t="n">
-        <v>12.02</v>
-      </c>
-      <c r="C4262" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D4262" t="n">
-        <v>12.01</v>
-      </c>
-      <c r="E4262" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F4262" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="G4262" t="n">
-        <v>2109600</v>
-      </c>
-    </row>
-    <row r="4263">
-      <c r="A4263" s="2" t="n">
-        <v>44165</v>
-      </c>
-      <c r="B4263" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="C4263" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="D4263" t="n">
-        <v>11.88</v>
-      </c>
-      <c r="E4263" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="F4263" t="n">
-        <v>11.94</v>
-      </c>
-      <c r="G4263" t="n">
-        <v>2626100</v>
-      </c>
-    </row>
-    <row r="4264">
-      <c r="A4264" s="2" t="n">
-        <v>44166</v>
-      </c>
-      <c r="B4264" t="n">
-        <v>12.16</v>
-      </c>
-      <c r="C4264" t="n">
-        <v>12.59</v>
-      </c>
-      <c r="D4264" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="E4264" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F4264" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="G4264" t="n">
-        <v>2568700</v>
-      </c>
-    </row>
-    <row r="4265">
-      <c r="A4265" s="2" t="n">
-        <v>44167</v>
-      </c>
-      <c r="B4265" t="n">
-        <v>12.54</v>
-      </c>
-      <c r="C4265" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="D4265" t="n">
-        <v>12.41</v>
-      </c>
-      <c r="E4265" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="F4265" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="G4265" t="n">
-        <v>1587400</v>
-      </c>
-    </row>
-    <row r="4266">
-      <c r="A4266" s="2" t="n">
-        <v>44168</v>
-      </c>
-      <c r="B4266" t="n">
-        <v>12.75</v>
-      </c>
-      <c r="C4266" t="n">
-        <v>12.77</v>
-      </c>
-      <c r="D4266" t="n">
-        <v>12.64</v>
-      </c>
-      <c r="E4266" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="F4266" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="G4266" t="n">
-        <v>1466800</v>
-      </c>
-    </row>
-    <row r="4267">
-      <c r="A4267" s="2" t="n">
-        <v>44169</v>
-      </c>
-      <c r="B4267" t="n">
-        <v>12.65</v>
-      </c>
-      <c r="C4267" t="n">
-        <v>12.66</v>
-      </c>
-      <c r="D4267" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="E4267" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="F4267" t="n">
-        <v>12.51</v>
-      </c>
-      <c r="G4267" t="n">
-        <v>969000</v>
-      </c>
-    </row>
-    <row r="4268">
-      <c r="A4268" s="2" t="n">
-        <v>44172</v>
-      </c>
-      <c r="B4268" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C4268" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="D4268" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="E4268" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="F4268" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="G4268" t="n">
-        <v>2033000</v>
-      </c>
-    </row>
-    <row r="4269">
-      <c r="A4269" s="2" t="n">
-        <v>44173</v>
-      </c>
-      <c r="B4269" t="n">
-        <v>12.43</v>
-      </c>
-      <c r="C4269" t="n">
-        <v>12.55</v>
-      </c>
-      <c r="D4269" t="n">
-        <v>12.37</v>
-      </c>
-      <c r="E4269" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="F4269" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="G4269" t="n">
-        <v>1412300</v>
-      </c>
-    </row>
-    <row r="4270">
-      <c r="A4270" s="2" t="n">
-        <v>44174</v>
-      </c>
-      <c r="B4270" t="n">
-        <v>12.53</v>
-      </c>
-      <c r="C4270" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D4270" t="n">
-        <v>12.3</v>
-      </c>
-      <c r="E4270" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="F4270" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="G4270" t="n">
-        <v>2540000</v>
-      </c>
-    </row>
-    <row r="4271">
-      <c r="A4271" s="2" t="n">
-        <v>44175</v>
-      </c>
-      <c r="B4271" t="n">
-        <v>12.05</v>
-      </c>
-      <c r="C4271" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="D4271" t="n">
-        <v>11.83</v>
-      </c>
-      <c r="E4271" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F4271" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G4271" t="n">
-        <v>2182500</v>
-      </c>
-    </row>
-    <row r="4272">
-      <c r="A4272" s="2" t="n">
-        <v>44176</v>
-      </c>
-      <c r="B4272" t="n">
-        <v>12.09</v>
-      </c>
-      <c r="C4272" t="n">
-        <v>12.26</v>
-      </c>
-      <c r="D4272" t="n">
-        <v>12.07</v>
-      </c>
-      <c r="E4272" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="F4272" t="n">
-        <v>12.12</v>
-      </c>
-      <c r="G4272" t="n">
-        <v>2113500</v>
-      </c>
-    </row>
-    <row r="4273">
-      <c r="A4273" s="2" t="n">
-        <v>44179</v>
-      </c>
-      <c r="B4273" t="n">
-        <v>12.17</v>
-      </c>
-      <c r="C4273" t="n">
-        <v>12.19</v>
-      </c>
-      <c r="D4273" t="n">
-        <v>11.86</v>
-      </c>
-      <c r="E4273" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="F4273" t="n">
-        <v>11.99</v>
-      </c>
-      <c r="G4273" t="n">
-        <v>1035400</v>
-      </c>
-    </row>
-    <row r="4274">
-      <c r="A4274" s="2" t="n">
-        <v>44180</v>
-      </c>
-      <c r="B4274" t="n">
-        <v>12.15</v>
-      </c>
-      <c r="C4274" t="n">
-        <v>12.35</v>
-      </c>
-      <c r="D4274" t="n">
-        <v>12.13</v>
-      </c>
-      <c r="E4274" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="F4274" t="n">
-        <v>12.34</v>
-      </c>
-      <c r="G4274" t="n">
-        <v>957400</v>
-      </c>
-    </row>
-    <row r="4275">
-      <c r="A4275" s="2" t="n">
-        <v>44181</v>
-      </c>
-      <c r="B4275" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="C4275" t="n">
-        <v>12.61</v>
-      </c>
-      <c r="D4275" t="n">
-        <v>12.44</v>
-      </c>
-      <c r="E4275" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="F4275" t="n">
-        <v>12.57</v>
-      </c>
-      <c r="G4275" t="n">
-        <v>1546600</v>
-      </c>
-    </row>
-    <row r="4276">
-      <c r="A4276" s="2" t="n">
-        <v>44182</v>
-      </c>
-      <c r="B4276" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C4276" t="n">
-        <v>12.62</v>
-      </c>
-      <c r="D4276" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="E4276" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="F4276" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="G4276" t="n">
-        <v>1963300</v>
-      </c>
-    </row>
-    <row r="4277">
-      <c r="A4277" s="2" t="n">
-        <v>44183</v>
-      </c>
-      <c r="B4277" t="n">
-        <v>12.31</v>
-      </c>
-      <c r="C4277" t="n">
-        <v>12.33</v>
-      </c>
-      <c r="D4277" t="n">
-        <v>12.11</v>
-      </c>
-      <c r="E4277" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="F4277" t="n">
-        <v>12.18</v>
-      </c>
-      <c r="G4277" t="n">
-        <v>1576200</v>
-      </c>
-    </row>
-    <row r="4278">
-      <c r="A4278" s="2" t="n">
-        <v>44186</v>
-      </c>
-      <c r="B4278" t="n">
-        <v>11.15</v>
-      </c>
-      <c r="C4278" t="n">
-        <v>11.25</v>
-      </c>
-      <c r="D4278" t="n">
-        <v>11.01</v>
-      </c>
-      <c r="E4278" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="F4278" t="n">
-        <v>11.19</v>
-      </c>
-      <c r="G4278" t="n">
-        <v>2712500</v>
-      </c>
-    </row>
-    <row r="4279">
-      <c r="A4279" s="2" t="n">
-        <v>44187</v>
-      </c>
-      <c r="B4279" t="n">
-        <v>11.2</v>
-      </c>
-      <c r="C4279" t="n">
-        <v>11.23</v>
-      </c>
-      <c r="D4279" t="n">
-        <v>11.02</v>
-      </c>
-      <c r="E4279" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="F4279" t="n">
-        <v>11.06</v>
-      </c>
-      <c r="G4279" t="n">
-        <v>1123800</v>
-      </c>
-    </row>
-    <row r="4280">
-      <c r="A4280" s="2" t="n">
-        <v>44188</v>
-      </c>
-      <c r="B4280" t="n">
-        <v>11.41</v>
-      </c>
-      <c r="C4280" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="D4280" t="n">
-        <v>11.37</v>
-      </c>
-      <c r="E4280" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="F4280" t="n">
-        <v>11.65</v>
-      </c>
-      <c r="G4280" t="n">
-        <v>1802600</v>
-      </c>
-    </row>
-    <row r="4281">
-      <c r="A4281" s="2" t="n">
-        <v>44189</v>
-      </c>
-      <c r="B4281" t="n">
-        <v>11.89</v>
-      </c>
-      <c r="C4281" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4281" t="n">
-        <v>11.75</v>
-      </c>
-      <c r="E4281" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="F4281" t="n">
-        <v>11.8</v>
-      </c>
-      <c r="G4281" t="n">
-        <v>816300</v>
-      </c>
-    </row>
-    <row r="4282">
-      <c r="A4282" s="2" t="n">
-        <v>44193</v>
-      </c>
-      <c r="B4282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="C4282" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D4282" t="n">
-        <v>12.45</v>
-      </c>
-      <c r="E4282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="F4282" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="G4282" t="n">
-        <v>1632400</v>
-      </c>
-    </row>
-    <row r="4283">
-      <c r="A4283" s="2" t="n">
-        <v>44194</v>
-      </c>
-      <c r="B4283" t="n">
-        <v>12.38</v>
-      </c>
-      <c r="C4283" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="D4283" t="n">
-        <v>12.29</v>
-      </c>
-      <c r="E4283" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="F4283" t="n">
-        <v>12.36</v>
-      </c>
-      <c r="G4283" t="n">
-        <v>1231800</v>
-      </c>
-    </row>
-    <row r="4284">
-      <c r="A4284" s="2" t="n">
-        <v>44195</v>
-      </c>
-      <c r="B4284" t="n">
-        <v>12.52</v>
-      </c>
-      <c r="C4284" t="n">
-        <v>12.69</v>
-      </c>
-      <c r="D4284" t="n">
-        <v>12.5</v>
-      </c>
-      <c r="E4284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F4284" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="G4284" t="n">
-        <v>886900</v>
-      </c>
-    </row>
-    <row r="4285">
-      <c r="A4285" s="2" t="n">
-        <v>44196</v>
-      </c>
-      <c r="B4285" t="n">
-        <v>12.58</v>
-      </c>
-      <c r="C4285" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="D4285" t="n">
-        <v>12.56</v>
-      </c>
-      <c r="E4285" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="F4285" t="n">
-        <v>12.6</v>
-      </c>
-      <c r="G4285" t="n">
-        <v>957900</v>
-      </c>
-    </row>
-    <row r="4286">
-      <c r="A4286" s="2" t="n">
-        <v>44200</v>
-      </c>
-      <c r="B4286" t="n">
-        <v>12.97</v>
-      </c>
-      <c r="C4286" t="n">
-        <v>13.15</v>
-      </c>
-      <c r="D4286" t="n">
-        <v>12.67</v>
-      </c>
-      <c r="E4286" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="F4286" t="n">
-        <v>12.76</v>
-      </c>
-      <c r="G4286" t="n">
-        <v>1898200</v>
-      </c>
-    </row>
-    <row r="4287">
-      <c r="A4287" s="2" t="n">
-        <v>44201</v>
-      </c>
-      <c r="B4287" t="n">
-        <v>12.93</v>
-      </c>
-      <c r="C4287" t="n">
-        <v>13.36</v>
-      </c>
-      <c r="D4287" t="n">
-        <v>12.9</v>
-      </c>
-      <c r="E4287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="F4287" t="n">
-        <v>13.3</v>
-      </c>
-      <c r="G4287" t="n">
-        <v>1802000</v>
-      </c>
-    </row>
-    <row r="4288">
-      <c r="A4288" s="2" t="n">
-        <v>44202</v>
-      </c>
-      <c r="B4288" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="C4288" t="n">
-        <v>13.51</v>
-      </c>
-      <c r="D4288" t="n">
-        <v>13.23</v>
-      </c>
-      <c r="E4288" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="F4288" t="n">
-        <v>13.34</v>
-      </c>
-      <c r="G4288" t="n">
-        <v>1898000</v>
-      </c>
-    </row>
-    <row r="4289">
-      <c r="A4289" s="2" t="n">
-        <v>44203</v>
-      </c>
-      <c r="B4289" t="n">
-        <v>13.39</v>
-      </c>
-      <c r="C4289" t="n">
-        <v>13.47</v>
-      </c>
-      <c r="D4289" t="n">
-        <v>13.35</v>
-      </c>
-      <c r="E4289" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="F4289" t="n">
-        <v>13.45</v>
-      </c>
-      <c r="G4289" t="n">
-        <v>997600</v>
-      </c>
-    </row>
-    <row r="4290">
-      <c r="A4290" s="2" t="n">
-        <v>44204</v>
-      </c>
-      <c r="B4290" t="n">
-        <v>13.5</v>
-      </c>
-      <c r="C4290" t="n">
-        <v>13.7</v>
-      </c>
-      <c r="D4290" t="n">
-        <v>13.43</v>
-      </c>
-      <c r="E4290" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="F4290" t="n">
-        <v>13.67</v>
-      </c>
-      <c r="G4290" t="n">
-        <v>1661800</v>
-      </c>
-    </row>
-    <row r="4291">
-      <c r="A4291" s="2" t="n">
-        <v>44207</v>
-      </c>
-      <c r="B4291" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="C4291" t="n">
-        <v>15.95</v>
-      </c>
-      <c r="D4291" t="n">
-        <v>15.02</v>
-      </c>
-      <c r="E4291" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="F4291" t="n">
-        <v>15.9</v>
-      </c>
-      <c r="G4291" t="n">
-        <v>7642200</v>
-      </c>
-    </row>
-    <row r="4292">
-      <c r="A4292" s="2" t="n">
-        <v>44208</v>
-      </c>
-      <c r="B4292" t="n">
-        <v>16.24</v>
-      </c>
-      <c r="C4292" t="n">
-        <v>16.709999</v>
-      </c>
-      <c r="D4292" t="n">
-        <v>16.190001</v>
-      </c>
-      <c r="E4292" t="n">
-        <v>16.549999</v>
-      </c>
-      <c r="F4292" t="n">
-        <v>16.549999</v>
-      </c>
-      <c r="G4292" t="n">
-        <v>4770700</v>
-      </c>
-    </row>
-    <row r="4293">
-      <c r="A4293" s="2" t="n">
-        <v>44209</v>
-      </c>
-      <c r="B4293" t="n">
-        <v>16.65</v>
-      </c>
-      <c r="C4293" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="D4293" t="n">
-        <v>16.08</v>
-      </c>
-      <c r="E4293" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="F4293" t="n">
-        <v>16.27</v>
-      </c>
-      <c r="G4293" t="n">
-        <v>2466500</v>
-      </c>
-    </row>
-    <row r="4294">
-      <c r="A4294" s="2" t="n">
-        <v>44210</v>
-      </c>
-      <c r="B4294" t="n">
-        <v>16.68</v>
-      </c>
-      <c r="C4294" t="n">
-        <v>16.969999</v>
-      </c>
-      <c r="D4294" t="n">
-        <v>16.620001</v>
-      </c>
-      <c r="E4294" t="n">
-        <v>16.889999</v>
-      </c>
-      <c r="F4294" t="n">
-        <v>16.889999</v>
-      </c>
-      <c r="G4294" t="n">
-        <v>2041400</v>
-      </c>
-    </row>
-    <row r="4295">
-      <c r="A4295" s="2" t="n">
-        <v>44211</v>
-      </c>
-      <c r="B4295" t="n">
-        <v>17.799999</v>
-      </c>
-      <c r="C4295" t="n">
-        <v>17.99</v>
-      </c>
-      <c r="D4295" t="n">
-        <v>17.530001</v>
-      </c>
-      <c r="E4295" t="n">
-        <v>17.559999</v>
-      </c>
-      <c r="F4295" t="n">
-        <v>17.559999</v>
-      </c>
-      <c r="G4295" t="n">
-        <v>3105700</v>
-      </c>
-    </row>
-    <row r="4296">
-      <c r="A4296" s="2" t="n">
-        <v>44215</v>
-      </c>
-      <c r="B4296" t="n">
-        <v>17.610001</v>
-      </c>
-      <c r="C4296" t="n">
-        <v>17.85</v>
-      </c>
-      <c r="D4296" t="n">
-        <v>17.52</v>
-      </c>
-      <c r="E4296" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="F4296" t="n">
-        <v>17.68</v>
-      </c>
-      <c r="G4296" t="n">
-        <v>2011600</v>
-      </c>
-    </row>
-    <row r="4297">
-      <c r="A4297" s="2" t="n">
-        <v>44216</v>
-      </c>
-      <c r="B4297" t="n">
-        <v>18.68</v>
-      </c>
-      <c r="C4297" t="n">
-        <v>18.959999</v>
-      </c>
-      <c r="D4297" t="n">
-        <v>18.530001</v>
-      </c>
-      <c r="E4297" t="n">
-        <v>18.940001</v>
-      </c>
-      <c r="F4297" t="n">
-        <v>18.940001</v>
-      </c>
-      <c r="G4297" t="n">
-        <v>3210100</v>
-      </c>
-    </row>
-    <row r="4298">
-      <c r="A4298" s="2" t="n">
-        <v>44217</v>
-      </c>
-      <c r="B4298" t="n">
-        <v>19.639999</v>
-      </c>
-      <c r="C4298" t="n">
-        <v>20.139999</v>
-      </c>
-      <c r="D4298" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="E4298" t="n">
-        <v>20.059999</v>
-      </c>
-      <c r="F4298" t="n">
-        <v>20.059999</v>
-      </c>
-      <c r="G4298" t="n">
-        <v>4827000</v>
-      </c>
-    </row>
-    <row r="4299">
-      <c r="A4299" s="2" t="n">
-        <v>44218</v>
-      </c>
-      <c r="B4299" t="n">
-        <v>19.84</v>
-      </c>
-      <c r="C4299" t="n">
-        <v>20.049999</v>
-      </c>
-      <c r="D4299" t="n">
-        <v>19.1</v>
-      </c>
-      <c r="E4299" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="F4299" t="n">
-        <v>19.57</v>
-      </c>
-      <c r="G4299" t="n">
-        <v>3733700</v>
-      </c>
-    </row>
-    <row r="4300">
-      <c r="A4300" s="2" t="n">
-        <v>44221</v>
-      </c>
-      <c r="B4300" t="n">
-        <v>18.84</v>
-      </c>
-      <c r="C4300" t="n">
-        <v>18.940001</v>
-      </c>
-      <c r="D4300" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="E4300" t="n">
-        <v>18.549999</v>
-      </c>
-      <c r="F4300" t="n">
-        <v>18.549999</v>
-      </c>
-      <c r="G4300" t="n">
-        <v>4291400</v>
-      </c>
-    </row>
-    <row r="4301">
-      <c r="A4301" s="2" t="n">
-        <v>44222</v>
-      </c>
-      <c r="B4301" t="n">
-        <v>18.280001</v>
-      </c>
-      <c r="C4301" t="n">
-        <v>18.52</v>
-      </c>
-      <c r="D4301" t="n">
-        <v>18.17</v>
-      </c>
-      <c r="E4301" t="n">
-        <v>18.450001</v>
-      </c>
-      <c r="F4301" t="n">
-        <v>18.450001</v>
-      </c>
-      <c r="G4301" t="n">
-        <v>1863100</v>
-      </c>
-    </row>
-    <row r="4302">
-      <c r="A4302" s="2" t="n">
-        <v>44223</v>
-      </c>
-      <c r="B4302" t="n">
-        <v>17.860001</v>
-      </c>
-      <c r="C4302" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="D4302" t="n">
-        <v>17.74</v>
-      </c>
-      <c r="E4302" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="F4302" t="n">
-        <v>17.82</v>
-      </c>
-      <c r="G4302" t="n">
-        <v>2362100</v>
-      </c>
-    </row>
-    <row r="4303">
-      <c r="A4303" s="2" t="n">
-        <v>44224</v>
-      </c>
-      <c r="B4303" t="n">
-        <v>18.16</v>
-      </c>
-      <c r="C4303" t="n">
-        <v>18.66</v>
-      </c>
-      <c r="D4303" t="n">
-        <v>18.110001</v>
-      </c>
-      <c r="E4303" t="n">
-        <v>18.559999</v>
-      </c>
-      <c r="F4303" t="n">
-        <v>18.559999</v>
-      </c>
-      <c r="G4303" t="n">
-        <v>3146100</v>
-      </c>
-    </row>
-    <row r="4304">
-      <c r="A4304" s="2" t="n">
-        <v>44225</v>
-      </c>
-      <c r="B4304" t="n">
-        <v>18.65</v>
-      </c>
-      <c r="C4304" t="n">
-        <v>19.01</v>
-      </c>
-      <c r="D4304" t="n">
-        <v>17.780001</v>
-      </c>
-      <c r="E4304" t="n">
-        <v>17.809999</v>
-      </c>
-      <c r="F4304" t="n">
-        <v>17.809999</v>
-      </c>
-      <c r="G4304" t="n">
-        <v>1987000</v>
-      </c>
-    </row>
-    <row r="4305">
-      <c r="A4305" s="2" t="n">
-        <v>44228</v>
-      </c>
-      <c r="B4305" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="C4305" t="n">
-        <v>19.629999</v>
-      </c>
-      <c r="D4305" t="n">
-        <v>18.77</v>
-      </c>
-      <c r="E4305" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="F4305" t="n">
-        <v>19.52</v>
-      </c>
-      <c r="G4305" t="n">
-        <v>3153100</v>
-      </c>
-    </row>
-    <row r="4306">
-      <c r="A4306" s="2" t="n">
-        <v>44229</v>
-      </c>
-      <c r="B4306" t="n">
-        <v>21.690001</v>
-      </c>
-      <c r="C4306" t="n">
-        <v>22.280001</v>
-      </c>
-      <c r="D4306" t="n">
-        <v>21.370001</v>
-      </c>
-      <c r="E4306" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="F4306" t="n">
-        <v>22.17</v>
-      </c>
-      <c r="G4306" t="n">
-        <v>4969300</v>
-      </c>
-    </row>
-    <row r="4307">
-      <c r="A4307" s="2" t="n">
-        <v>44230</v>
-      </c>
-      <c r="B4307" t="n">
-        <v>22.200001</v>
-      </c>
-      <c r="C4307" t="n">
-        <v>22.75</v>
-      </c>
-      <c r="D4307" t="n">
-        <v>22.190001</v>
-      </c>
-      <c r="E4307" t="n">
-        <v>22.620001</v>
-      </c>
-      <c r="F4307" t="n">
-        <v>22.620001</v>
-      </c>
-      <c r="G4307" t="n">
-        <v>2809900</v>
-      </c>
-    </row>
-    <row r="4308">
-      <c r="A4308" s="2" t="n">
-        <v>44231</v>
-      </c>
-      <c r="B4308" t="n">
-        <v>22.200001</v>
-      </c>
-      <c r="C4308" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="D4308" t="n">
-        <v>21.91</v>
-      </c>
-      <c r="E4308" t="n">
-        <v>22.309999</v>
-      </c>
-      <c r="F4308" t="n">
-        <v>22.309999</v>
-      </c>
-      <c r="G4308" t="n">
-        <v>1997000</v>
-      </c>
-    </row>
-    <row r="4309">
-      <c r="A4309" s="2" t="n">
-        <v>44232</v>
-      </c>
-      <c r="B4309" t="n">
-        <v>21.700001</v>
-      </c>
-      <c r="C4309" t="n">
-        <v>21.719999</v>
-      </c>
-      <c r="D4309" t="n">
-        <v>21.02</v>
-      </c>
-      <c r="E4309" t="n">
-        <v>21.540001</v>
-      </c>
-      <c r="F4309" t="n">
-        <v>21.540001</v>
-      </c>
-      <c r="G4309" t="n">
-        <v>2181300</v>
-      </c>
-    </row>
-    <row r="4310">
-      <c r="A4310" s="2" t="n">
-        <v>44235</v>
-      </c>
-      <c r="B4310" t="n">
-        <v>22.870001</v>
-      </c>
-      <c r="C4310" t="n">
-        <v>23.379999</v>
-      </c>
-      <c r="D4310" t="n">
-        <v>22.74</v>
-      </c>
-      <c r="E4310" t="n">
-        <v>23.370001</v>
-      </c>
-      <c r="F4310" t="n">
-        <v>23.370001</v>
-      </c>
-      <c r="G4310" t="n">
-        <v>2371500</v>
-      </c>
-    </row>
-    <row r="4311">
-      <c r="A4311" s="2" t="n">
-        <v>44236</v>
-      </c>
-      <c r="B4311" t="n">
-        <v>22.200001</v>
-      </c>
-      <c r="C4311" t="n">
-        <v>22.48</v>
-      </c>
-      <c r="D4311" t="n">
-        <v>21.950001</v>
-      </c>
-      <c r="E4311" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="F4311" t="n">
-        <v>22.4</v>
-      </c>
-      <c r="G4311" t="n">
-        <v>2150300</v>
-      </c>
-    </row>
-    <row r="4312">
-      <c r="A4312" s="2" t="n">
-        <v>44237</v>
-      </c>
-      <c r="B4312" t="n">
-        <v>22.52</v>
-      </c>
-      <c r="C4312" t="n">
-        <v>22.700001</v>
-      </c>
-      <c r="D4312" t="n">
-        <v>22.030001</v>
-      </c>
-      <c r="E4312" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="F4312" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="G4312" t="n">
-        <v>1549800</v>
-      </c>
-    </row>
-    <row r="4313">
-      <c r="A4313" s="2" t="n">
-        <v>44238</v>
-      </c>
-      <c r="B4313" t="n">
-        <v>22.26</v>
-      </c>
-      <c r="C4313" t="n">
-        <v>22.290001</v>
-      </c>
-      <c r="D4313" t="n">
-        <v>21.969999</v>
-      </c>
-      <c r="E4313" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="F4313" t="n">
-        <v>22.25</v>
-      </c>
-      <c r="G4313" t="n">
-        <v>964200</v>
-      </c>
-    </row>
-    <row r="4314">
-      <c r="A4314" s="2" t="n">
-        <v>44239</v>
-      </c>
-      <c r="B4314" t="n">
-        <v>22.24</v>
-      </c>
-      <c r="C4314" t="n">
-        <v>22.51</v>
-      </c>
-      <c r="D4314" t="n">
-        <v>22.1294</v>
-      </c>
-      <c r="E4314" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="F4314" t="n">
-        <v>22.41</v>
-      </c>
-      <c r="G4314" t="n">
-        <v>364182</v>
+        <v>239119</v>
       </c>
     </row>
   </sheetData>

--- a/data/TTM.xlsx
+++ b/data/TTM.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -430,7 +430,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:G4147"/>
+  <dimension ref="A1:G4164"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -95833,6 +95833,397 @@
         <v>239119</v>
       </c>
     </row>
+    <row r="4148">
+      <c r="A4148" s="2" t="n">
+        <v>44272</v>
+      </c>
+      <c r="B4148" t="n">
+        <v>20.870001</v>
+      </c>
+      <c r="C4148" t="n">
+        <v>21.360001</v>
+      </c>
+      <c r="D4148" t="n">
+        <v>20.23</v>
+      </c>
+      <c r="E4148" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="F4148" t="n">
+        <v>21.33</v>
+      </c>
+      <c r="G4148" t="n">
+        <v>1697300</v>
+      </c>
+    </row>
+    <row r="4149">
+      <c r="A4149" s="2" t="n">
+        <v>44273</v>
+      </c>
+      <c r="B4149" t="n">
+        <v>21.030001</v>
+      </c>
+      <c r="C4149" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D4149" t="n">
+        <v>20.620001</v>
+      </c>
+      <c r="E4149" t="n">
+        <v>20.709999</v>
+      </c>
+      <c r="F4149" t="n">
+        <v>20.709999</v>
+      </c>
+      <c r="G4149" t="n">
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="4150">
+      <c r="A4150" s="2" t="n">
+        <v>44274</v>
+      </c>
+      <c r="B4150" t="n">
+        <v>20.959999</v>
+      </c>
+      <c r="C4150" t="n">
+        <v>21.34</v>
+      </c>
+      <c r="D4150" t="n">
+        <v>20.790001</v>
+      </c>
+      <c r="E4150" t="n">
+        <v>21.219999</v>
+      </c>
+      <c r="F4150" t="n">
+        <v>21.219999</v>
+      </c>
+      <c r="G4150" t="n">
+        <v>1172300</v>
+      </c>
+    </row>
+    <row r="4151">
+      <c r="A4151" s="2" t="n">
+        <v>44277</v>
+      </c>
+      <c r="B4151" t="n">
+        <v>20.889999</v>
+      </c>
+      <c r="C4151" t="n">
+        <v>21</v>
+      </c>
+      <c r="D4151" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="E4151" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="F4151" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="G4151" t="n">
+        <v>993800</v>
+      </c>
+    </row>
+    <row r="4152">
+      <c r="A4152" s="2" t="n">
+        <v>44278</v>
+      </c>
+      <c r="B4152" t="n">
+        <v>20.99</v>
+      </c>
+      <c r="C4152" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D4152" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="E4152" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="F4152" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="G4152" t="n">
+        <v>1441700</v>
+      </c>
+    </row>
+    <row r="4153">
+      <c r="A4153" s="2" t="n">
+        <v>44279</v>
+      </c>
+      <c r="B4153" t="n">
+        <v>20.15</v>
+      </c>
+      <c r="C4153" t="n">
+        <v>20.360001</v>
+      </c>
+      <c r="D4153" t="n">
+        <v>19.879999</v>
+      </c>
+      <c r="E4153" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="F4153" t="n">
+        <v>19.92</v>
+      </c>
+      <c r="G4153" t="n">
+        <v>1555100</v>
+      </c>
+    </row>
+    <row r="4154">
+      <c r="A4154" s="2" t="n">
+        <v>44280</v>
+      </c>
+      <c r="B4154" t="n">
+        <v>19.52</v>
+      </c>
+      <c r="C4154" t="n">
+        <v>19.93</v>
+      </c>
+      <c r="D4154" t="n">
+        <v>19.26</v>
+      </c>
+      <c r="E4154" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="F4154" t="n">
+        <v>19.84</v>
+      </c>
+      <c r="G4154" t="n">
+        <v>1897700</v>
+      </c>
+    </row>
+    <row r="4155">
+      <c r="A4155" s="2" t="n">
+        <v>44281</v>
+      </c>
+      <c r="B4155" t="n">
+        <v>20.299999</v>
+      </c>
+      <c r="C4155" t="n">
+        <v>20.57</v>
+      </c>
+      <c r="D4155" t="n">
+        <v>20.01</v>
+      </c>
+      <c r="E4155" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="F4155" t="n">
+        <v>20.4</v>
+      </c>
+      <c r="G4155" t="n">
+        <v>2173200</v>
+      </c>
+    </row>
+    <row r="4156">
+      <c r="A4156" s="2" t="n">
+        <v>44284</v>
+      </c>
+      <c r="B4156" t="n">
+        <v>20.42</v>
+      </c>
+      <c r="C4156" t="n">
+        <v>20.65</v>
+      </c>
+      <c r="D4156" t="n">
+        <v>20.219999</v>
+      </c>
+      <c r="E4156" t="n">
+        <v>20.370001</v>
+      </c>
+      <c r="F4156" t="n">
+        <v>20.370001</v>
+      </c>
+      <c r="G4156" t="n">
+        <v>891100</v>
+      </c>
+    </row>
+    <row r="4157">
+      <c r="A4157" s="2" t="n">
+        <v>44285</v>
+      </c>
+      <c r="B4157" t="n">
+        <v>20.120001</v>
+      </c>
+      <c r="C4157" t="n">
+        <v>20.67</v>
+      </c>
+      <c r="D4157" t="n">
+        <v>19.98</v>
+      </c>
+      <c r="E4157" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="F4157" t="n">
+        <v>20.52</v>
+      </c>
+      <c r="G4157" t="n">
+        <v>1720300</v>
+      </c>
+    </row>
+    <row r="4158">
+      <c r="A4158" s="2" t="n">
+        <v>44286</v>
+      </c>
+      <c r="B4158" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="C4158" t="n">
+        <v>20.959999</v>
+      </c>
+      <c r="D4158" t="n">
+        <v>20.59</v>
+      </c>
+      <c r="E4158" t="n">
+        <v>20.790001</v>
+      </c>
+      <c r="F4158" t="n">
+        <v>20.790001</v>
+      </c>
+      <c r="G4158" t="n">
+        <v>1268100</v>
+      </c>
+    </row>
+    <row r="4159">
+      <c r="A4159" s="2" t="n">
+        <v>44287</v>
+      </c>
+      <c r="B4159" t="n">
+        <v>21.040001</v>
+      </c>
+      <c r="C4159" t="n">
+        <v>21.18</v>
+      </c>
+      <c r="D4159" t="n">
+        <v>20.870001</v>
+      </c>
+      <c r="E4159" t="n">
+        <v>21.030001</v>
+      </c>
+      <c r="F4159" t="n">
+        <v>21.030001</v>
+      </c>
+      <c r="G4159" t="n">
+        <v>619900</v>
+      </c>
+    </row>
+    <row r="4160">
+      <c r="A4160" s="2" t="n">
+        <v>44291</v>
+      </c>
+      <c r="B4160" t="n">
+        <v>21.030001</v>
+      </c>
+      <c r="C4160" t="n">
+        <v>21.139999</v>
+      </c>
+      <c r="D4160" t="n">
+        <v>20.68</v>
+      </c>
+      <c r="E4160" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="F4160" t="n">
+        <v>20.93</v>
+      </c>
+      <c r="G4160" t="n">
+        <v>1627400</v>
+      </c>
+    </row>
+    <row r="4161">
+      <c r="A4161" s="2" t="n">
+        <v>44292</v>
+      </c>
+      <c r="B4161" t="n">
+        <v>20.549999</v>
+      </c>
+      <c r="C4161" t="n">
+        <v>20.950001</v>
+      </c>
+      <c r="D4161" t="n">
+        <v>20.549999</v>
+      </c>
+      <c r="E4161" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="F4161" t="n">
+        <v>20.84</v>
+      </c>
+      <c r="G4161" t="n">
+        <v>1123000</v>
+      </c>
+    </row>
+    <row r="4162">
+      <c r="A4162" s="2" t="n">
+        <v>44293</v>
+      </c>
+      <c r="B4162" t="n">
+        <v>20.690001</v>
+      </c>
+      <c r="C4162" t="n">
+        <v>20.709999</v>
+      </c>
+      <c r="D4162" t="n">
+        <v>20.35</v>
+      </c>
+      <c r="E4162" t="n">
+        <v>20.450001</v>
+      </c>
+      <c r="F4162" t="n">
+        <v>20.450001</v>
+      </c>
+      <c r="G4162" t="n">
+        <v>844800</v>
+      </c>
+    </row>
+    <row r="4163">
+      <c r="A4163" s="2" t="n">
+        <v>44294</v>
+      </c>
+      <c r="B4163" t="n">
+        <v>20.9</v>
+      </c>
+      <c r="C4163" t="n">
+        <v>21.1</v>
+      </c>
+      <c r="D4163" t="n">
+        <v>20.83</v>
+      </c>
+      <c r="E4163" t="n">
+        <v>20.940001</v>
+      </c>
+      <c r="F4163" t="n">
+        <v>20.940001</v>
+      </c>
+      <c r="G4163" t="n">
+        <v>929300</v>
+      </c>
+    </row>
+    <row r="4164">
+      <c r="A4164" s="2" t="n">
+        <v>44295</v>
+      </c>
+      <c r="B4164" t="n">
+        <v>21.059999</v>
+      </c>
+      <c r="C4164" t="n">
+        <v>21.15</v>
+      </c>
+      <c r="D4164" t="n">
+        <v>20.959999</v>
+      </c>
+      <c r="E4164" t="n">
+        <v>21.110001</v>
+      </c>
+      <c r="F4164" t="n">
+        <v>21.110001</v>
+      </c>
+      <c r="G4164" t="n">
+        <v>314616</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
